--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>goal_time</t>
+          <t>goal_minute</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1356,7 +1356,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1496,7 +1496,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2212,7 +2212,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2282,7 +2282,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2732,7 +2732,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3888,7 +3888,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4466,7 +4466,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4536,7 +4536,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5040,7 +5040,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5110,7 +5110,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5180,7 +5180,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5684,7 +5684,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5754,7 +5754,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6270,7 +6270,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6340,7 +6340,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6778,7 +6778,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6848,7 +6848,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -8816,7 +8816,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8886,7 +8886,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -9612,7 +9612,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -9760,7 +9760,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -10620,7 +10620,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -10690,7 +10690,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -10838,7 +10838,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10912,7 +10912,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10986,7 +10986,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -11782,7 +11782,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -12190,7 +12190,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -12260,7 +12260,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -12330,7 +12330,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -12404,7 +12404,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -12686,7 +12686,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -12756,7 +12756,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -13474,7 +13474,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>['Greece', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Greece']</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -14042,7 +14042,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -14112,7 +14112,7 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -14182,7 +14182,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -14678,7 +14678,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -14826,7 +14826,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -15160,7 +15160,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -15230,7 +15230,7 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -15304,7 +15304,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -15382,7 +15382,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -15456,7 +15456,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -15530,7 +15530,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -15938,7 +15938,7 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -16008,7 +16008,7 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -16082,7 +16082,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -16230,7 +16230,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -16438,7 +16438,7 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -16512,7 +16512,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -16586,7 +16586,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -16734,7 +16734,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -16882,7 +16882,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -16956,7 +16956,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -17030,7 +17030,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -17104,7 +17104,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -17164,7 +17164,7 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -17234,7 +17234,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -17304,7 +17304,7 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -17600,7 +17600,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -17808,7 +17808,7 @@
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -17878,7 +17878,7 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -17952,7 +17952,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -18012,7 +18012,7 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -18082,7 +18082,7 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -18156,7 +18156,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -18226,7 +18226,7 @@
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -18374,7 +18374,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -18448,7 +18448,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -18508,7 +18508,7 @@
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -18578,7 +18578,7 @@
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -18652,7 +18652,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -18726,7 +18726,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -18874,7 +18874,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -19022,7 +19022,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -19156,7 +19156,7 @@
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -19226,7 +19226,7 @@
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -19300,7 +19300,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -19374,7 +19374,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -19448,7 +19448,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -19522,7 +19522,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -19596,7 +19596,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -19670,7 +19670,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -19744,7 +19744,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -19818,7 +19818,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -19892,7 +19892,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -20026,7 +20026,7 @@
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -20096,7 +20096,7 @@
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -20318,7 +20318,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -20526,7 +20526,7 @@
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -20600,7 +20600,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -20822,7 +20822,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Hungary']</t>
+          <t>['France', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -20896,7 +20896,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -21044,7 +21044,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -21118,7 +21118,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -21470,7 +21470,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -21530,7 +21530,7 @@
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -21600,7 +21600,7 @@
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -21674,7 +21674,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -21748,7 +21748,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -21822,7 +21822,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -21882,7 +21882,7 @@
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -21956,7 +21956,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -22030,7 +22030,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -22104,7 +22104,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -22178,7 +22178,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -22326,7 +22326,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -22460,7 +22460,7 @@
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -22530,7 +22530,7 @@
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -22600,7 +22600,7 @@
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -22730,7 +22730,7 @@
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -22804,7 +22804,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
+          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -22878,7 +22878,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -22938,7 +22938,7 @@
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -23008,7 +23008,7 @@
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -23082,7 +23082,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -23160,7 +23160,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -23234,7 +23234,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -23308,7 +23308,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -23386,7 +23386,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -630,7 +630,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1356,7 +1356,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1496,7 +1496,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1708,7 +1708,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1778,7 +1778,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1852,7 +1852,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2212,7 +2212,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2282,7 +2282,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4466,7 +4466,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4536,7 +4536,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5040,7 +5040,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5110,7 +5110,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5180,7 +5180,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5684,7 +5684,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5754,7 +5754,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6270,7 +6270,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6340,7 +6340,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6778,7 +6778,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6848,7 +6848,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -7520,7 +7520,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7590,7 +7590,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8816,7 +8816,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8886,7 +8886,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -9242,7 +9242,7 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -9538,7 +9538,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -9612,7 +9612,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -9760,7 +9760,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -10912,7 +10912,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10986,7 +10986,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -11194,7 +11194,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -11264,7 +11264,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -11338,7 +11338,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -11634,7 +11634,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -12190,7 +12190,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -12260,7 +12260,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -12330,7 +12330,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -12404,7 +12404,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -12830,7 +12830,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -12978,7 +12978,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -13186,7 +13186,7 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -13256,7 +13256,7 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -13326,7 +13326,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -13400,7 +13400,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Greece', 'Russia']</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -13474,7 +13474,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>['Greece', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Greece']</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -13534,7 +13534,7 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -14042,7 +14042,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -14112,7 +14112,7 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -14182,7 +14182,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -14256,7 +14256,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -14330,7 +14330,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -14404,7 +14404,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -14464,7 +14464,7 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -14534,7 +14534,7 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -14604,7 +14604,7 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -14678,7 +14678,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -14826,7 +14826,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -14886,7 +14886,7 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -14956,7 +14956,7 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -15026,7 +15026,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Albania', 'France']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -15160,7 +15160,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -15230,7 +15230,7 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -15304,7 +15304,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -15382,7 +15382,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -15456,7 +15456,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -15530,7 +15530,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -15590,7 +15590,7 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -15660,7 +15660,7 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -15730,7 +15730,7 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -15938,7 +15938,7 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -16008,7 +16008,7 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -16082,7 +16082,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -16230,7 +16230,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -16438,7 +16438,7 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -16512,7 +16512,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -16586,7 +16586,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -16734,7 +16734,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -16882,7 +16882,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -16956,7 +16956,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -17030,7 +17030,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -17104,7 +17104,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -17164,7 +17164,7 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -17234,7 +17234,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -17304,7 +17304,7 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -17600,7 +17600,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -17808,7 +17808,7 @@
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -17878,7 +17878,7 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -17952,7 +17952,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -18012,7 +18012,7 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -18082,7 +18082,7 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -18156,7 +18156,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -18226,7 +18226,7 @@
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -18374,7 +18374,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -18448,7 +18448,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -18508,7 +18508,7 @@
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -18578,7 +18578,7 @@
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -18652,7 +18652,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>['Russia', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -18726,7 +18726,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -18874,7 +18874,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -19022,7 +19022,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -19156,7 +19156,7 @@
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -19226,7 +19226,7 @@
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -19300,7 +19300,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -19374,7 +19374,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -19448,7 +19448,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -19522,7 +19522,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -19596,7 +19596,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -20526,7 +20526,7 @@
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -20600,7 +20600,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -20674,7 +20674,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -20896,7 +20896,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -21044,7 +21044,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -21118,7 +21118,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -21178,7 +21178,7 @@
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -21248,7 +21248,7 @@
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -21322,7 +21322,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -21396,7 +21396,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -21470,7 +21470,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Hungary', 'Germany']</t>
+          <t>['Hungary', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -21530,7 +21530,7 @@
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -21600,7 +21600,7 @@
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -21674,7 +21674,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -21748,7 +21748,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -21822,7 +21822,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -22460,7 +22460,7 @@
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -22530,7 +22530,7 @@
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -22600,7 +22600,7 @@
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -22660,7 +22660,7 @@
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>['Romania', 'Ukraine', 'Belgium']</t>
+          <t>['Belgium', 'Romania', 'Ukraine']</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -22730,7 +22730,7 @@
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -22804,7 +22804,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
+          <t>['Belgium', 'Ukraine', 'Slovakia']</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -22878,7 +22878,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -22938,7 +22938,7 @@
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -23008,7 +23008,7 @@
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -23082,7 +23082,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -23160,7 +23160,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -23234,7 +23234,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -23308,7 +23308,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -23386,7 +23386,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +556,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'France']</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>26</v>
@@ -630,7 +630,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['Denmark', 'Belgium', 'France']</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="R3" t="inlineStr"/>
     </row>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>32</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['Denmark', 'Belgium', 'France']</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="R4" t="inlineStr"/>
     </row>
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>39</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['Denmark', 'Belgium', 'France']</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="R5" t="inlineStr"/>
     </row>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>41</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['Denmark', 'Belgium', 'France']</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="R6" t="inlineStr"/>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>59</v>
@@ -926,7 +926,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['Denmark', 'Belgium', 'France']</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="R7" t="inlineStr"/>
     </row>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>60</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'France']</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R8" t="inlineStr"/>
     </row>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>62</v>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'France']</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R9" t="inlineStr"/>
     </row>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>77</v>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'France']</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R10" t="inlineStr"/>
     </row>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>84</v>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'France']</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R11" t="inlineStr"/>
     </row>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>84</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'France']</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1321,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R12" t="inlineStr"/>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="inlineStr"/>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr"/>
     </row>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>81</v>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1589,19 +1589,15 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1623,7 +1619,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>90</v>
@@ -1648,7 +1644,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['West Germany', 'Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1667,13 +1663,13 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="inlineStr"/>
     </row>
@@ -1708,7 +1704,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1778,7 +1774,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1800,16 +1796,12 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1852,7 +1844,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1874,16 +1866,12 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1930,7 +1918,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1952,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
@@ -2004,7 +1992,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2026,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R22" t="inlineStr"/>
     </row>
@@ -2078,7 +2066,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2100,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R23" t="inlineStr"/>
     </row>
@@ -2152,7 +2140,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2174,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
         <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
       </c>
       <c r="R24" t="inlineStr"/>
     </row>
@@ -2212,7 +2200,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2282,7 +2270,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2304,16 +2292,12 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Soviet Union</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2360,7 +2344,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Netherlands', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2382,16 +2366,12 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2438,7 +2418,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Netherlands', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2460,16 +2440,12 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2516,7 +2492,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Netherlands', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2538,16 +2514,12 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2594,7 +2566,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Netherlands', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2616,16 +2588,12 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2647,7 +2615,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>82</v>
@@ -2672,7 +2640,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Republic of Ireland', 'Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2691,13 +2659,13 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R31" t="inlineStr"/>
     </row>
@@ -2732,7 +2700,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['England', 'Sweden', 'France']</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2781,7 +2749,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
@@ -2806,7 +2774,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['England', 'Sweden', 'France']</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2825,13 +2793,13 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="inlineStr"/>
     </row>
@@ -2880,7 +2848,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['England', 'Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2899,13 +2867,13 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="inlineStr"/>
     </row>
@@ -2954,7 +2922,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2976,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="inlineStr"/>
     </row>
@@ -3028,7 +2996,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['England', 'Sweden', 'France']</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3050,10 +3018,10 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="inlineStr"/>
     </row>
@@ -3102,7 +3070,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['England', 'Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3124,10 +3092,10 @@
         <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="inlineStr"/>
     </row>
@@ -3151,7 +3119,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>82</v>
@@ -3176,7 +3144,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden', 'France']</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3195,13 +3163,13 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" t="inlineStr"/>
     </row>
@@ -3236,7 +3204,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'CIS', 'Netherlands']</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3306,7 +3274,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'CIS', 'Netherlands']</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3328,16 +3296,12 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>CIS</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3384,7 +3348,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'CIS', 'Netherlands']</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3406,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R41" t="inlineStr"/>
     </row>
@@ -3433,7 +3397,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>7</v>
@@ -3458,7 +3422,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Netherlands']</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3477,13 +3441,13 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R42" t="inlineStr"/>
     </row>
@@ -3507,7 +3471,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>15</v>
@@ -3532,7 +3496,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Netherlands']</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3554,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R43" t="inlineStr"/>
     </row>
@@ -3581,7 +3545,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>16</v>
@@ -3606,7 +3570,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Netherlands']</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3628,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3655,7 +3619,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>53</v>
@@ -3680,7 +3644,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Netherlands']</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3702,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R45" t="inlineStr"/>
     </row>
@@ -3729,7 +3693,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>72</v>
@@ -3754,7 +3718,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Netherlands']</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3776,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3803,7 +3767,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>84</v>
@@ -3828,7 +3792,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Netherlands']</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3850,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R47" t="inlineStr"/>
     </row>
@@ -3888,7 +3852,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4036,7 +4000,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4110,7 +4074,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4184,7 +4148,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4258,7 +4222,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4332,7 +4296,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4406,7 +4370,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -5040,7 +5004,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5110,7 +5074,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5180,7 +5144,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5254,7 +5218,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5328,7 +5292,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5402,7 +5366,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5476,7 +5440,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5550,7 +5514,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5624,7 +5588,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5684,7 +5648,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5754,7 +5718,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5828,7 +5792,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5906,7 +5870,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5984,7 +5948,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6062,7 +6026,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6210,7 +6174,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6270,7 +6234,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6340,7 +6304,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6418,7 +6382,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6496,7 +6460,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6570,7 +6534,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6644,7 +6608,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6718,7 +6682,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6778,7 +6742,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6848,7 +6812,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7074,7 +7038,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7152,7 +7116,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7226,7 +7190,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7304,7 +7268,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7382,7 +7346,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -8108,7 +8072,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8168,7 +8132,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -8238,7 +8202,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -8312,7 +8276,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -8386,7 +8350,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -8460,7 +8424,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -8534,7 +8498,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -8608,7 +8572,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -8682,7 +8646,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -8756,7 +8720,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -8816,7 +8780,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8886,7 +8850,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8960,7 +8924,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -9034,7 +8998,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9108,7 +9072,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -9316,7 +9280,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -9390,7 +9354,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -9464,7 +9428,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -10042,7 +10006,7 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -10116,7 +10080,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -10190,7 +10154,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -10264,7 +10228,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -10338,7 +10302,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -10412,7 +10376,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -10486,7 +10450,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -10560,7 +10524,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -10912,7 +10876,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10986,7 +10950,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -11060,7 +11024,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -11134,7 +11098,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -11782,7 +11746,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -11842,7 +11806,7 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -11912,7 +11876,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -11982,7 +11946,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -12056,7 +12020,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -12130,7 +12094,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -12404,7 +12368,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -12478,7 +12442,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -12552,7 +12516,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -12626,7 +12590,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -14256,7 +14220,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -14330,7 +14294,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -14404,7 +14368,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -14886,7 +14850,7 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -14956,7 +14920,7 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -14978,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="P202" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q202" t="n">
         <v>2</v>
@@ -15026,7 +14990,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -15048,7 +15012,7 @@
         <v>0</v>
       </c>
       <c r="P203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q203" t="n">
         <v>2</v>
@@ -15075,7 +15039,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
         <v>43</v>
@@ -15100,7 +15064,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>['France', 'Albania', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -15119,13 +15083,13 @@
         </is>
       </c>
       <c r="O204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P204" t="n">
         <v>2</v>
       </c>
       <c r="Q204" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R204" t="inlineStr"/>
     </row>
@@ -15160,7 +15124,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -15230,7 +15194,7 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -15252,16 +15216,12 @@
         <v>0</v>
       </c>
       <c r="P206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q206" t="n">
-        <v>1</v>
-      </c>
-      <c r="R206" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -15304,7 +15264,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -15326,16 +15286,12 @@
         <v>0</v>
       </c>
       <c r="P207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q207" t="n">
-        <v>1</v>
-      </c>
-      <c r="R207" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -15382,7 +15338,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -15404,10 +15360,10 @@
         <v>0</v>
       </c>
       <c r="P208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R208" t="inlineStr"/>
     </row>
@@ -15456,7 +15412,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -15478,10 +15434,10 @@
         <v>0</v>
       </c>
       <c r="P209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R209" t="inlineStr"/>
     </row>
@@ -15530,7 +15486,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -15552,10 +15508,10 @@
         <v>0</v>
       </c>
       <c r="P210" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q210" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R210" t="inlineStr"/>
     </row>
@@ -15590,7 +15546,7 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -15660,7 +15616,7 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -15682,10 +15638,10 @@
         <v>0</v>
       </c>
       <c r="P212" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q212" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R212" t="inlineStr"/>
     </row>
@@ -15730,7 +15686,7 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -15752,10 +15708,10 @@
         <v>0</v>
       </c>
       <c r="P213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q213" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R213" t="inlineStr"/>
     </row>
@@ -15804,7 +15760,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -15829,7 +15785,7 @@
         <v>2</v>
       </c>
       <c r="Q214" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R214" t="inlineStr"/>
     </row>
@@ -15878,7 +15834,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -15900,10 +15856,10 @@
         <v>0</v>
       </c>
       <c r="P215" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q215" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R215" t="inlineStr"/>
     </row>
@@ -15938,7 +15894,7 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -16008,7 +15964,7 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -16030,10 +15986,10 @@
         <v>0</v>
       </c>
       <c r="P217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R217" t="inlineStr"/>
     </row>
@@ -16082,7 +16038,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -16104,12 +16060,16 @@
         <v>0</v>
       </c>
       <c r="P218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q218" t="n">
-        <v>3</v>
-      </c>
-      <c r="R218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -16131,7 +16091,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219" t="n">
         <v>10</v>
@@ -16156,7 +16116,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -16175,13 +16135,13 @@
         </is>
       </c>
       <c r="O219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q219" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R219" t="inlineStr"/>
     </row>
@@ -16205,7 +16165,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220" t="n">
         <v>45</v>
@@ -16230,7 +16190,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -16255,7 +16215,7 @@
         <v>2</v>
       </c>
       <c r="Q220" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R220" t="inlineStr"/>
     </row>
@@ -16279,7 +16239,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221" t="n">
         <v>65</v>
@@ -16304,7 +16264,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -16329,7 +16289,7 @@
         <v>2</v>
       </c>
       <c r="Q221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R221" t="inlineStr"/>
     </row>
@@ -16353,7 +16313,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222" t="n">
         <v>87</v>
@@ -16378,7 +16338,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -16400,10 +16360,10 @@
         <v>0</v>
       </c>
       <c r="P222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q222" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R222" t="inlineStr"/>
     </row>
@@ -16438,7 +16398,7 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -16512,7 +16472,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -16537,9 +16497,13 @@
         <v>2</v>
       </c>
       <c r="Q224" t="n">
-        <v>3</v>
-      </c>
-      <c r="R224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -16586,7 +16550,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -16608,7 +16572,7 @@
         <v>0</v>
       </c>
       <c r="P225" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q225" t="n">
         <v>2</v>
@@ -16660,7 +16624,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -16685,9 +16649,13 @@
         <v>2</v>
       </c>
       <c r="Q226" t="n">
-        <v>3</v>
-      </c>
-      <c r="R226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -16734,7 +16702,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -16756,7 +16724,7 @@
         <v>0</v>
       </c>
       <c r="P227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q227" t="n">
         <v>2</v>
@@ -16808,7 +16776,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -16833,9 +16801,13 @@
         <v>2</v>
       </c>
       <c r="Q228" t="n">
-        <v>3</v>
-      </c>
-      <c r="R228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -16882,7 +16854,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -16904,7 +16876,7 @@
         <v>0</v>
       </c>
       <c r="P229" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q229" t="n">
         <v>2</v>
@@ -16956,7 +16928,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -16978,7 +16950,7 @@
         <v>0</v>
       </c>
       <c r="P230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -17005,7 +16977,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" t="n">
         <v>62</v>
@@ -17030,7 +17002,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -17049,13 +17021,13 @@
         </is>
       </c>
       <c r="O231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R231" t="inlineStr"/>
     </row>
@@ -17079,7 +17051,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F232" t="n">
         <v>94</v>
@@ -17104,7 +17076,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -17123,15 +17095,19 @@
         </is>
       </c>
       <c r="O232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P232" t="n">
         <v>2</v>
       </c>
       <c r="Q232" t="n">
-        <v>3</v>
-      </c>
-      <c r="R232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -17164,7 +17140,7 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -17234,7 +17210,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -17256,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="P234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q234" t="n">
         <v>2</v>
@@ -17304,7 +17280,7 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -17326,7 +17302,7 @@
         <v>0</v>
       </c>
       <c r="P235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q235" t="n">
         <v>2</v>
@@ -17353,7 +17329,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
         <v>84</v>
@@ -17378,7 +17354,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -17397,13 +17373,13 @@
         </is>
       </c>
       <c r="O236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P236" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q236" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R236" t="inlineStr"/>
     </row>
@@ -17427,7 +17403,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237" t="n">
         <v>85</v>
@@ -17452,7 +17428,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -17474,10 +17450,10 @@
         <v>0</v>
       </c>
       <c r="P237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q237" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R237" t="inlineStr"/>
     </row>
@@ -17526,7 +17502,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -17548,7 +17524,7 @@
         <v>0</v>
       </c>
       <c r="P238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q238" t="n">
         <v>4</v>
@@ -17600,7 +17576,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -17622,10 +17598,10 @@
         <v>0</v>
       </c>
       <c r="P239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q239" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R239" t="inlineStr"/>
     </row>
@@ -17674,7 +17650,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -17696,10 +17672,10 @@
         <v>0</v>
       </c>
       <c r="P240" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q240" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R240" t="inlineStr"/>
     </row>
@@ -17748,7 +17724,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -17770,10 +17746,10 @@
         <v>0</v>
       </c>
       <c r="P241" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q241" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R241" t="inlineStr"/>
     </row>
@@ -17808,7 +17784,7 @@
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -17878,7 +17854,7 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -17900,10 +17876,10 @@
         <v>0</v>
       </c>
       <c r="P243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q243" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R243" t="inlineStr"/>
     </row>
@@ -17952,7 +17928,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -17974,10 +17950,10 @@
         <v>0</v>
       </c>
       <c r="P244" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q244" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R244" t="inlineStr"/>
     </row>
@@ -18012,7 +17988,7 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -18082,7 +18058,7 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -18104,10 +18080,10 @@
         <v>0</v>
       </c>
       <c r="P246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R246" t="inlineStr"/>
     </row>
@@ -18131,7 +18107,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247" t="n">
         <v>21</v>
@@ -18156,7 +18132,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -18175,10 +18151,10 @@
         </is>
       </c>
       <c r="O247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P247" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q247" t="n">
         <v>2</v>
@@ -18226,7 +18202,7 @@
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -18248,10 +18224,10 @@
         <v>0</v>
       </c>
       <c r="P248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R248" t="inlineStr"/>
     </row>
@@ -18275,7 +18251,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249" t="n">
         <v>24</v>
@@ -18300,7 +18276,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -18325,7 +18301,7 @@
         <v>3</v>
       </c>
       <c r="Q249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R249" t="inlineStr"/>
     </row>
@@ -18349,7 +18325,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250" t="n">
         <v>50</v>
@@ -18374,7 +18350,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -18399,7 +18375,7 @@
         <v>3</v>
       </c>
       <c r="Q250" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R250" t="inlineStr"/>
     </row>
@@ -18423,7 +18399,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251" t="n">
         <v>58</v>
@@ -18448,7 +18424,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -18473,7 +18449,7 @@
         <v>3</v>
       </c>
       <c r="Q251" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R251" t="inlineStr"/>
     </row>
@@ -18508,7 +18484,7 @@
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -18578,7 +18554,7 @@
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -18600,10 +18576,10 @@
         <v>0</v>
       </c>
       <c r="P253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q253" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R253" t="inlineStr"/>
     </row>
@@ -18652,7 +18628,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -18677,7 +18653,7 @@
         <v>0</v>
       </c>
       <c r="Q254" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R254" t="inlineStr"/>
     </row>
@@ -18701,7 +18677,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F255" t="n">
         <v>81</v>
@@ -18726,7 +18702,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -18800,7 +18776,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -18822,10 +18798,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R256" t="inlineStr"/>
     </row>
@@ -18874,7 +18850,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -18896,10 +18872,10 @@
         <v>0</v>
       </c>
       <c r="P257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q257" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R257" t="inlineStr"/>
     </row>
@@ -18948,7 +18924,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -18970,10 +18946,10 @@
         <v>0</v>
       </c>
       <c r="P258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R258" t="inlineStr"/>
     </row>
@@ -18997,7 +18973,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F259" t="n">
         <v>79</v>
@@ -19022,7 +18998,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -19041,13 +19017,13 @@
         </is>
       </c>
       <c r="O259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P259" t="n">
         <v>0</v>
       </c>
       <c r="Q259" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R259" t="inlineStr"/>
     </row>
@@ -19071,7 +19047,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F260" t="n">
         <v>82</v>
@@ -19096,7 +19072,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -19156,7 +19132,7 @@
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -19226,7 +19202,7 @@
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -19248,10 +19224,10 @@
         <v>0</v>
       </c>
       <c r="P262" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R262" t="inlineStr"/>
     </row>
@@ -19300,7 +19276,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -19322,10 +19298,10 @@
         <v>0</v>
       </c>
       <c r="P263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R263" t="inlineStr"/>
     </row>
@@ -19374,7 +19350,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -19396,10 +19372,10 @@
         <v>0</v>
       </c>
       <c r="P264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R264" t="inlineStr"/>
     </row>
@@ -19448,7 +19424,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -19470,10 +19446,10 @@
         <v>0</v>
       </c>
       <c r="P265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R265" t="inlineStr"/>
     </row>
@@ -19522,7 +19498,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -19544,10 +19520,10 @@
         <v>0</v>
       </c>
       <c r="P266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q266" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R266" t="inlineStr"/>
     </row>
@@ -19571,7 +19547,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F267" t="n">
         <v>77</v>
@@ -19596,7 +19572,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['England', 'Croatia']</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -19615,13 +19591,13 @@
         </is>
       </c>
       <c r="O267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q267" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R267" t="inlineStr"/>
     </row>
@@ -19670,7 +19646,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -19692,10 +19668,10 @@
         <v>0</v>
       </c>
       <c r="P268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R268" t="inlineStr"/>
     </row>
@@ -19719,7 +19695,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" t="n">
         <v>59</v>
@@ -19744,7 +19720,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -19769,7 +19745,7 @@
         <v>2</v>
       </c>
       <c r="Q269" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R269" t="inlineStr"/>
     </row>
@@ -19793,7 +19769,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270" t="n">
         <v>61</v>
@@ -19818,7 +19794,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -19843,7 +19819,7 @@
         <v>2</v>
       </c>
       <c r="Q270" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R270" t="inlineStr"/>
     </row>
@@ -19867,7 +19843,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" t="n">
         <v>84</v>
@@ -19892,7 +19868,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -19914,10 +19890,10 @@
         <v>0</v>
       </c>
       <c r="P271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q271" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="R271" t="inlineStr"/>
     </row>
@@ -19941,7 +19917,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" t="n">
         <v>94</v>
@@ -19966,7 +19942,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -19991,7 +19967,7 @@
         <v>2</v>
       </c>
       <c r="Q272" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="R272" t="inlineStr"/>
     </row>
@@ -20026,7 +20002,7 @@
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -20096,7 +20072,7 @@
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -20121,7 +20097,7 @@
         <v>1</v>
       </c>
       <c r="Q274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R274" t="inlineStr"/>
     </row>
@@ -20145,7 +20121,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" t="n">
         <v>30</v>
@@ -20170,7 +20146,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -20189,13 +20165,13 @@
         </is>
       </c>
       <c r="O275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P275" t="n">
         <v>2</v>
       </c>
       <c r="Q275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R275" t="inlineStr"/>
     </row>
@@ -20219,7 +20195,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276" t="n">
         <v>48</v>
@@ -20244,7 +20220,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -20269,7 +20245,7 @@
         <v>2</v>
       </c>
       <c r="Q276" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R276" t="inlineStr"/>
     </row>
@@ -20293,7 +20269,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277" t="n">
         <v>56</v>
@@ -20318,7 +20294,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -20343,7 +20319,7 @@
         <v>2</v>
       </c>
       <c r="Q277" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R277" t="inlineStr"/>
     </row>
@@ -20367,7 +20343,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278" t="n">
         <v>67</v>
@@ -20392,7 +20368,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -20417,7 +20393,7 @@
         <v>2</v>
       </c>
       <c r="Q278" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="R278" t="inlineStr"/>
     </row>
@@ -20441,7 +20417,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F279" t="n">
         <v>71</v>
@@ -20466,7 +20442,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -20491,7 +20467,7 @@
         <v>2</v>
       </c>
       <c r="Q279" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="R279" t="inlineStr"/>
     </row>
@@ -20526,7 +20502,7 @@
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France']</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -20600,7 +20576,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France']</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -20622,10 +20598,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q281" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="R281" t="inlineStr"/>
     </row>
@@ -20674,7 +20650,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France']</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -20696,10 +20672,10 @@
         <v>0</v>
       </c>
       <c r="P282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q282" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R282" t="inlineStr"/>
     </row>
@@ -20748,7 +20724,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France']</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -20770,10 +20746,10 @@
         <v>0</v>
       </c>
       <c r="P283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q283" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="R283" t="inlineStr"/>
     </row>
@@ -20822,7 +20798,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Germany']</t>
+          <t>['Hungary', 'France']</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -20844,10 +20820,10 @@
         <v>1</v>
       </c>
       <c r="P284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q284" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R284" t="inlineStr"/>
     </row>
@@ -20896,7 +20872,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France']</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -20918,10 +20894,10 @@
         <v>1</v>
       </c>
       <c r="P285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q285" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="R285" t="inlineStr"/>
     </row>
@@ -20970,7 +20946,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France']</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -20992,10 +20968,10 @@
         <v>1</v>
       </c>
       <c r="P286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q286" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R286" t="inlineStr"/>
     </row>
@@ -21044,7 +21020,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'France']</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -21066,10 +21042,10 @@
         <v>1</v>
       </c>
       <c r="P287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q287" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="R287" t="inlineStr"/>
     </row>
@@ -21118,7 +21094,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France']</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -21140,10 +21116,10 @@
         <v>1</v>
       </c>
       <c r="P288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q288" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R288" t="inlineStr"/>
     </row>
@@ -21178,7 +21154,7 @@
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -21248,7 +21224,7 @@
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -21270,10 +21246,10 @@
         <v>0</v>
       </c>
       <c r="P290" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q290" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R290" t="inlineStr"/>
     </row>
@@ -21322,7 +21298,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -21344,10 +21320,10 @@
         <v>0</v>
       </c>
       <c r="P291" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q291" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R291" t="inlineStr"/>
     </row>
@@ -21396,7 +21372,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -21418,10 +21394,10 @@
         <v>0</v>
       </c>
       <c r="P292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q292" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R292" t="inlineStr"/>
     </row>
@@ -21445,7 +21421,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F293" t="n">
         <v>100</v>
@@ -21470,7 +21446,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>['Hungary', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -21489,13 +21465,13 @@
         </is>
       </c>
       <c r="O293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P293" t="n">
         <v>2</v>
       </c>
       <c r="Q293" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R293" t="inlineStr"/>
     </row>
@@ -21530,7 +21506,7 @@
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -21600,7 +21576,7 @@
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -21622,12 +21598,16 @@
         <v>0</v>
       </c>
       <c r="P295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q295" t="n">
-        <v>2</v>
-      </c>
-      <c r="R295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -21649,7 +21629,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F296" t="n">
         <v>13</v>
@@ -21674,7 +21654,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -21693,13 +21673,13 @@
         </is>
       </c>
       <c r="O296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q296" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R296" t="inlineStr"/>
     </row>
@@ -21748,7 +21728,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -21767,13 +21747,13 @@
         </is>
       </c>
       <c r="O297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q297" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R297" t="inlineStr"/>
     </row>
@@ -21797,7 +21777,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F298" t="n">
         <v>98</v>
@@ -21822,7 +21802,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -21841,13 +21821,13 @@
         </is>
       </c>
       <c r="O298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q298" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R298" t="inlineStr"/>
     </row>
@@ -21882,7 +21862,7 @@
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -21931,7 +21911,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F300" t="n">
         <v>6</v>
@@ -21956,7 +21936,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France']</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -21975,13 +21955,13 @@
         </is>
       </c>
       <c r="O300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R300" t="inlineStr"/>
     </row>
@@ -22005,7 +21985,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F301" t="n">
         <v>47</v>
@@ -22030,7 +22010,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -22049,13 +22029,13 @@
         </is>
       </c>
       <c r="O301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P301" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q301" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R301" t="inlineStr"/>
     </row>
@@ -22079,7 +22059,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F302" t="n">
         <v>56</v>
@@ -22104,7 +22084,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -22126,10 +22106,10 @@
         <v>0</v>
       </c>
       <c r="P302" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q302" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R302" t="inlineStr"/>
     </row>
@@ -22153,7 +22133,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F303" t="n">
         <v>59</v>
@@ -22178,7 +22158,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France']</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -22197,13 +22177,13 @@
         </is>
       </c>
       <c r="O303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P303" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q303" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R303" t="inlineStr"/>
     </row>
@@ -22227,7 +22207,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F304" t="n">
         <v>75</v>
@@ -22252,7 +22232,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -22271,13 +22251,13 @@
         </is>
       </c>
       <c r="O304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P304" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q304" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R304" t="inlineStr"/>
     </row>
@@ -22301,7 +22281,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F305" t="n">
         <v>79</v>
@@ -22326,7 +22306,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -22348,10 +22328,10 @@
         <v>0</v>
       </c>
       <c r="P305" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q305" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R305" t="inlineStr"/>
     </row>
@@ -22375,7 +22355,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F306" t="n">
         <v>80</v>
@@ -22400,7 +22380,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France']</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -22419,13 +22399,13 @@
         </is>
       </c>
       <c r="O306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R306" t="inlineStr"/>
     </row>
@@ -22460,7 +22440,7 @@
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -22530,7 +22510,7 @@
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -22552,10 +22532,10 @@
         <v>0</v>
       </c>
       <c r="P308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R308" t="inlineStr"/>
     </row>
@@ -22600,7 +22580,7 @@
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -22622,10 +22602,10 @@
         <v>0</v>
       </c>
       <c r="P309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R309" t="inlineStr"/>
     </row>
@@ -22660,7 +22640,7 @@
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Ukraine']</t>
+          <t>['Ukraine', 'Romania']</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -22730,7 +22710,7 @@
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>['Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -22755,7 +22735,7 @@
         <v>0</v>
       </c>
       <c r="Q311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R311" t="inlineStr"/>
     </row>
@@ -22804,7 +22784,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ukraine', 'Slovakia']</t>
+          <t>['Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -22826,10 +22806,10 @@
         <v>1</v>
       </c>
       <c r="P312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q312" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="R312" t="inlineStr"/>
     </row>
@@ -22878,7 +22858,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>['Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -22903,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="Q313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R313" t="inlineStr"/>
     </row>
@@ -22938,7 +22918,7 @@
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -23008,7 +22988,7 @@
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -23030,12 +23010,16 @@
         <v>0</v>
       </c>
       <c r="P315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q315" t="n">
-        <v>1</v>
-      </c>
-      <c r="R315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -23057,7 +23041,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F316" t="n">
         <v>2</v>
@@ -23082,7 +23066,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -23101,19 +23085,15 @@
         </is>
       </c>
       <c r="O316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q316" t="n">
         <v>0</v>
       </c>
-      <c r="R316" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+      <c r="R316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -23135,7 +23115,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F317" t="n">
         <v>51</v>
@@ -23160,7 +23140,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -23182,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="P317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23209,7 +23189,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F318" t="n">
         <v>57</v>
@@ -23234,7 +23214,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -23256,10 +23236,10 @@
         <v>0</v>
       </c>
       <c r="P318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R318" t="inlineStr"/>
     </row>
@@ -23283,7 +23263,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319" t="n">
         <v>66</v>
@@ -23308,7 +23288,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -23330,16 +23310,12 @@
         <v>0</v>
       </c>
       <c r="P319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q319" t="n">
-        <v>1</v>
-      </c>
-      <c r="R319" t="inlineStr">
-        <is>
-          <t>tie</t>
-        </is>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="R319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -23361,7 +23337,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F320" t="n">
         <v>94</v>
@@ -23386,7 +23362,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -23408,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="P320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R320" t="inlineStr"/>
     </row>

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
@@ -833,7 +833,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -940,10 +940,10 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1471,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
@@ -1523,7 +1523,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1603,7 +1603,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1622,10 +1622,10 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
@@ -1687,7 +1687,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1706,10 +1706,10 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal', 'West Germany']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1794,12 +1794,16 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
@@ -1863,7 +1867,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1882,10 +1886,10 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
@@ -1937,7 +1941,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2017,7 +2021,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2036,12 +2040,16 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
@@ -2101,7 +2109,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2120,12 +2128,16 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
@@ -2189,7 +2201,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2208,7 +2220,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
         <v>2</v>
@@ -2277,7 +2289,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2296,10 +2308,10 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="n">
@@ -2365,7 +2377,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2384,10 +2396,10 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="n">
@@ -2453,7 +2465,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2472,10 +2484,10 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="n">
@@ -2527,12 +2539,12 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2557,7 +2569,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="S25" t="n">
@@ -2596,7 +2608,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2607,12 +2619,12 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2626,18 +2638,22 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>4</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Soviet Union</t>
+        </is>
+      </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="S26" t="n">
@@ -2646,7 +2662,9 @@
       <c r="T26" t="n">
         <v>0</v>
       </c>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>1833</v>
+      </c>
       <c r="V26" t="n">
         <v>1935</v>
       </c>
@@ -2693,7 +2711,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2703,7 +2721,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2712,18 +2730,22 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>5</v>
-      </c>
-      <c r="P27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="S27" t="n">
@@ -2781,7 +2803,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2791,7 +2813,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2800,18 +2822,22 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>4</v>
-      </c>
-      <c r="P28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="S28" t="n">
@@ -2869,7 +2895,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2879,7 +2905,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2888,18 +2914,22 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>5</v>
-      </c>
-      <c r="P29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="S29" t="n">
@@ -2957,7 +2987,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2967,7 +2997,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2976,18 +3006,22 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>6</v>
-      </c>
-      <c r="P30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="S30" t="n">
@@ -3030,7 +3064,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3045,7 +3079,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3060,14 +3094,14 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="n">
@@ -3084,7 +3118,9 @@
       <c r="T31" t="n">
         <v>1</v>
       </c>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="n">
+        <v>1833</v>
+      </c>
       <c r="V31" t="n">
         <v>1935</v>
       </c>
@@ -3117,7 +3153,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['France', 'England', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3201,7 +3237,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['France', 'Sweden', 'England']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3220,10 +3256,10 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="n">
@@ -3289,7 +3325,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Sweden', 'England', 'Denmark']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3308,10 +3344,10 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="n">
@@ -3377,7 +3413,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3396,10 +3432,10 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="n">
@@ -3465,7 +3501,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['France', 'England', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3484,10 +3520,10 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="n">
@@ -3553,7 +3589,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3572,10 +3608,10 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="n">
@@ -3641,7 +3677,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['France', 'Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3660,10 +3696,10 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="n">
@@ -3715,7 +3751,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['CIS', 'Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3730,7 +3766,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -3789,13 +3825,13 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['CIS', 'Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3810,16 +3846,20 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
-      </c>
-      <c r="P40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Commonwealth of Independent States</t>
+        </is>
+      </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
@@ -3837,7 +3877,9 @@
       <c r="U40" t="n">
         <v>1777</v>
       </c>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="n">
+        <v>1924</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3881,7 +3923,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['CIS', 'Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3896,14 +3938,14 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
@@ -3959,7 +4001,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3969,7 +4011,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3988,10 +4030,10 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="n">
@@ -4011,7 +4053,9 @@
       <c r="U42" t="n">
         <v>1777</v>
       </c>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="n">
+        <v>1924</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4055,7 +4099,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4074,10 +4118,10 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="n">
@@ -4133,7 +4177,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4143,7 +4187,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4162,7 +4206,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>1</v>
@@ -4185,7 +4229,9 @@
       <c r="U44" t="n">
         <v>1777</v>
       </c>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="n">
+        <v>1924</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4229,7 +4275,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4248,10 +4294,10 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="n">
@@ -4317,7 +4363,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4336,7 +4382,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
         <v>1</v>
@@ -4395,7 +4441,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Commonwealth of Independent States</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4405,7 +4451,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4424,10 +4470,10 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="n">
@@ -4447,7 +4493,9 @@
       <c r="U47" t="n">
         <v>1777</v>
       </c>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="n">
+        <v>1924</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4477,7 +4525,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4557,7 +4605,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4645,7 +4693,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4733,7 +4781,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4821,7 +4869,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4909,7 +4957,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4997,7 +5045,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5085,7 +5133,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5331,7 +5379,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5683,7 +5731,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5771,7 +5819,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5845,7 +5893,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5925,7 +5973,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6013,7 +6061,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6105,7 +6153,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6197,7 +6245,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6289,7 +6337,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6377,7 +6425,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6465,7 +6513,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7305,7 +7353,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7385,7 +7433,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7477,7 +7525,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7565,7 +7613,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7653,7 +7701,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7745,7 +7793,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7833,7 +7881,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7925,7 +7973,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8017,7 +8065,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8109,7 +8157,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8447,7 +8495,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8535,7 +8583,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8623,7 +8671,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8711,7 +8759,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8785,12 +8833,12 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -8815,7 +8863,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="S98" t="n">
@@ -8865,12 +8913,12 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8895,7 +8943,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="S99" t="n">
@@ -8938,7 +8986,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -8948,17 +8996,17 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -8983,7 +9031,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="S100" t="n">
@@ -8992,7 +9040,9 @@
       <c r="T100" t="n">
         <v>0</v>
       </c>
-      <c r="U100" t="inlineStr"/>
+      <c r="U100" t="n">
+        <v>1944</v>
+      </c>
       <c r="V100" t="n">
         <v>2019</v>
       </c>
@@ -9024,7 +9074,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -9039,12 +9089,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -9069,7 +9119,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="S101" t="n">
@@ -9078,7 +9128,9 @@
       <c r="T101" t="n">
         <v>0</v>
       </c>
-      <c r="U101" t="inlineStr"/>
+      <c r="U101" t="n">
+        <v>1944</v>
+      </c>
       <c r="V101" t="n">
         <v>2019</v>
       </c>
@@ -9110,7 +9162,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -9120,17 +9172,17 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -9155,7 +9207,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="S102" t="n">
@@ -9164,7 +9216,9 @@
       <c r="T102" t="n">
         <v>0</v>
       </c>
-      <c r="U102" t="inlineStr"/>
+      <c r="U102" t="n">
+        <v>1944</v>
+      </c>
       <c r="V102" t="n">
         <v>2019</v>
       </c>
@@ -9196,7 +9250,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -9211,12 +9265,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -9241,7 +9295,7 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="S103" t="n">
@@ -9250,7 +9304,9 @@
       <c r="T103" t="n">
         <v>0</v>
       </c>
-      <c r="U103" t="inlineStr"/>
+      <c r="U103" t="n">
+        <v>1944</v>
+      </c>
       <c r="V103" t="n">
         <v>2019</v>
       </c>
@@ -9282,7 +9338,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -9292,17 +9348,17 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -9327,7 +9383,7 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="S104" t="n">
@@ -9336,7 +9392,9 @@
       <c r="T104" t="n">
         <v>0</v>
       </c>
-      <c r="U104" t="inlineStr"/>
+      <c r="U104" t="n">
+        <v>1944</v>
+      </c>
       <c r="V104" t="n">
         <v>2019</v>
       </c>
@@ -9368,7 +9426,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -9383,12 +9441,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -9413,7 +9471,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="S105" t="n">
@@ -9422,7 +9480,9 @@
       <c r="T105" t="n">
         <v>0</v>
       </c>
-      <c r="U105" t="inlineStr"/>
+      <c r="U105" t="n">
+        <v>1944</v>
+      </c>
       <c r="V105" t="n">
         <v>2019</v>
       </c>
@@ -9454,7 +9514,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -9469,7 +9529,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9479,7 +9539,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -9499,7 +9559,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="S106" t="n">
@@ -9508,7 +9568,9 @@
       <c r="T106" t="n">
         <v>1</v>
       </c>
-      <c r="U106" t="inlineStr"/>
+      <c r="U106" t="n">
+        <v>1944</v>
+      </c>
       <c r="V106" t="n">
         <v>2019</v>
       </c>
@@ -10743,7 +10805,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10817,7 +10879,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10901,7 +10963,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10989,7 +11051,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11077,7 +11139,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11165,7 +11227,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11253,7 +11315,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11341,7 +11403,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11429,7 +11491,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11517,7 +11579,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11605,7 +11667,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11693,7 +11755,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11767,7 +11829,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11851,7 +11913,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -11939,7 +12001,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -12027,7 +12089,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12115,7 +12177,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12203,7 +12265,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12291,7 +12353,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12379,7 +12441,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12453,7 +12515,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12533,7 +12595,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12621,7 +12683,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12709,7 +12771,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12797,7 +12859,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12885,7 +12947,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -12973,7 +13035,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13061,7 +13123,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13135,7 +13197,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13215,7 +13277,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13303,7 +13365,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13391,7 +13453,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13479,7 +13541,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13567,7 +13629,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13655,7 +13717,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13743,7 +13805,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13831,7 +13893,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13905,7 +13967,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -13985,7 +14047,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14069,7 +14131,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14157,7 +14219,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14245,7 +14307,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14571,7 +14633,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14659,7 +14721,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14747,7 +14809,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14835,7 +14897,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -16001,7 +16063,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16177,7 +16239,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16677,7 +16739,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
@@ -16725,7 +16787,9 @@
       <c r="U191" t="n">
         <v>1851</v>
       </c>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>1805</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -16759,7 +16823,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -16769,7 +16833,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16811,7 +16875,9 @@
       <c r="U192" t="n">
         <v>1851</v>
       </c>
-      <c r="V192" t="inlineStr"/>
+      <c r="V192" t="n">
+        <v>1805</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -16933,7 +16999,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -16985,7 +17051,9 @@
       <c r="U194" t="n">
         <v>1851</v>
       </c>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>1805</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -17015,7 +17083,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17095,7 +17163,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17179,7 +17247,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17267,7 +17335,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17355,7 +17423,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17443,7 +17511,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17517,7 +17585,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17597,7 +17665,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17616,7 +17684,7 @@
         </is>
       </c>
       <c r="N202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O202" t="n">
         <v>2</v>
@@ -17681,7 +17749,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17700,7 +17768,7 @@
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O203" t="n">
         <v>2</v>
@@ -17769,7 +17837,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Albania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17791,7 +17859,7 @@
         <v>2</v>
       </c>
       <c r="O204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P204" t="inlineStr"/>
       <c r="Q204" t="n">
@@ -17843,7 +17911,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17923,7 +17991,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -17942,12 +18010,16 @@
         </is>
       </c>
       <c r="N206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O206" t="n">
-        <v>0</v>
-      </c>
-      <c r="P206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
       <c r="Q206" t="n">
         <v>1</v>
       </c>
@@ -18007,7 +18079,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18026,12 +18098,16 @@
         </is>
       </c>
       <c r="N207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O207" t="n">
-        <v>0</v>
-      </c>
-      <c r="P207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
       <c r="Q207" t="n">
         <v>1</v>
       </c>
@@ -18095,7 +18171,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18114,10 +18190,10 @@
         </is>
       </c>
       <c r="N208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P208" t="inlineStr"/>
       <c r="Q208" t="n">
@@ -18183,7 +18259,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18202,10 +18278,10 @@
         </is>
       </c>
       <c r="N209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P209" t="inlineStr"/>
       <c r="Q209" t="n">
@@ -18271,7 +18347,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18290,10 +18366,10 @@
         </is>
       </c>
       <c r="N210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P210" t="inlineStr"/>
       <c r="Q210" t="n">
@@ -18345,7 +18421,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18425,7 +18501,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18444,10 +18520,10 @@
         </is>
       </c>
       <c r="N212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O212" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P212" t="inlineStr"/>
       <c r="Q212" t="n">
@@ -18509,7 +18585,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18528,10 +18604,10 @@
         </is>
       </c>
       <c r="N213" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O213" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="n">
@@ -18597,7 +18673,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18619,7 +18695,7 @@
         <v>2</v>
       </c>
       <c r="O214" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="n">
@@ -18685,7 +18761,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18704,10 +18780,10 @@
         </is>
       </c>
       <c r="N215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O215" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="n">
@@ -18759,7 +18835,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18839,7 +18915,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -18858,10 +18934,10 @@
         </is>
       </c>
       <c r="N217" t="n">
+        <v>1</v>
+      </c>
+      <c r="O217" t="n">
         <v>3</v>
-      </c>
-      <c r="O217" t="n">
-        <v>2</v>
       </c>
       <c r="P217" t="inlineStr"/>
       <c r="Q217" t="n">
@@ -18927,7 +19003,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -18946,16 +19022,12 @@
         </is>
       </c>
       <c r="N218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O218" t="n">
-        <v>1</v>
-      </c>
-      <c r="P218" t="inlineStr">
-        <is>
-          <t>tie</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P218" t="inlineStr"/>
       <c r="Q218" t="n">
         <v>1</v>
       </c>
@@ -19019,7 +19091,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19038,10 +19110,10 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O219" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P219" t="inlineStr"/>
       <c r="Q219" t="n">
@@ -19107,7 +19179,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19129,7 +19201,7 @@
         <v>2</v>
       </c>
       <c r="O220" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P220" t="inlineStr"/>
       <c r="Q220" t="n">
@@ -19195,7 +19267,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19217,7 +19289,7 @@
         <v>2</v>
       </c>
       <c r="O221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P221" t="inlineStr"/>
       <c r="Q221" t="n">
@@ -19283,7 +19355,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19302,10 +19374,10 @@
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O222" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P222" t="inlineStr"/>
       <c r="Q222" t="n">
@@ -19357,7 +19429,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19431,13 +19503,13 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19456,7 +19528,7 @@
         </is>
       </c>
       <c r="N224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O224" t="n">
         <v>2</v>
@@ -19479,7 +19551,9 @@
       <c r="U224" t="n">
         <v>1875</v>
       </c>
-      <c r="V224" t="inlineStr"/>
+      <c r="V224" t="n">
+        <v>1758</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -19519,7 +19593,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19538,7 +19612,7 @@
         </is>
       </c>
       <c r="N225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O225" t="n">
         <v>2</v>
@@ -19607,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19622,14 +19696,14 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O226" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="P226" t="inlineStr"/>
       <c r="Q226" t="n">
@@ -19685,17 +19759,17 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19710,14 +19784,14 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O227" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P227" t="inlineStr"/>
       <c r="Q227" t="n">
@@ -19725,7 +19799,7 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Republic of Ireland']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="S227" t="n">
@@ -19737,7 +19811,9 @@
       <c r="U227" t="n">
         <v>1875</v>
       </c>
-      <c r="V227" t="inlineStr"/>
+      <c r="V227" t="n">
+        <v>1758</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -19767,7 +19843,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19851,7 +19927,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -19873,13 +19949,9 @@
         <v>2</v>
       </c>
       <c r="O229" t="n">
-        <v>1</v>
-      </c>
-      <c r="P229" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P229" t="inlineStr"/>
       <c r="Q229" t="n">
         <v>1</v>
       </c>
@@ -19943,7 +20015,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -19962,7 +20034,7 @@
         </is>
       </c>
       <c r="N230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O230" t="n">
         <v>2</v>
@@ -20031,7 +20103,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20053,13 +20125,9 @@
         <v>2</v>
       </c>
       <c r="O231" t="n">
-        <v>1</v>
-      </c>
-      <c r="P231" t="inlineStr">
-        <is>
-          <t>tie</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P231" t="inlineStr"/>
       <c r="Q231" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +20191,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20142,7 +20210,7 @@
         </is>
       </c>
       <c r="N232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O232" t="n">
         <v>2</v>
@@ -20211,7 +20279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20233,13 +20301,9 @@
         <v>2</v>
       </c>
       <c r="O233" t="n">
-        <v>1</v>
-      </c>
-      <c r="P233" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P233" t="inlineStr"/>
       <c r="Q233" t="n">
         <v>1</v>
       </c>
@@ -20303,7 +20367,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20322,7 +20386,7 @@
         </is>
       </c>
       <c r="N234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O234" t="n">
         <v>2</v>
@@ -20391,7 +20455,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20410,7 +20474,7 @@
         </is>
       </c>
       <c r="N235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O235" t="n">
         <v>1</v>
@@ -20479,7 +20543,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20498,10 +20562,10 @@
         </is>
       </c>
       <c r="N236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P236" t="inlineStr"/>
       <c r="Q236" t="n">
@@ -20567,7 +20631,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20589,13 +20653,9 @@
         <v>2</v>
       </c>
       <c r="O237" t="n">
-        <v>1</v>
-      </c>
-      <c r="P237" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="P237" t="inlineStr"/>
       <c r="Q237" t="n">
         <v>1</v>
       </c>
@@ -20645,7 +20705,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20725,7 +20785,7 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20744,10 +20804,10 @@
         </is>
       </c>
       <c r="N239" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O239" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P239" t="inlineStr"/>
       <c r="Q239" t="n">
@@ -20813,7 +20873,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20832,7 +20892,7 @@
         </is>
       </c>
       <c r="N240" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O240" t="n">
         <v>4</v>
@@ -20901,7 +20961,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -20920,10 +20980,10 @@
         </is>
       </c>
       <c r="N241" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O241" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P241" t="inlineStr"/>
       <c r="Q241" t="n">
@@ -20989,7 +21049,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21008,10 +21068,10 @@
         </is>
       </c>
       <c r="N242" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O242" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P242" t="inlineStr"/>
       <c r="Q242" t="n">
@@ -21077,7 +21137,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21096,10 +21156,10 @@
         </is>
       </c>
       <c r="N243" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P243" t="inlineStr"/>
       <c r="Q243" t="n">
@@ -21165,7 +21225,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21184,10 +21244,10 @@
         </is>
       </c>
       <c r="N244" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O244" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P244" t="inlineStr"/>
       <c r="Q244" t="n">
@@ -21239,7 +21299,7 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21319,7 +21379,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21338,10 +21398,10 @@
         </is>
       </c>
       <c r="N246" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O246" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="P246" t="inlineStr"/>
       <c r="Q246" t="n">
@@ -21407,7 +21467,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21426,10 +21486,10 @@
         </is>
       </c>
       <c r="N247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P247" t="inlineStr"/>
       <c r="Q247" t="n">
@@ -21495,7 +21555,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21514,10 +21574,10 @@
         </is>
       </c>
       <c r="N248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O248" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P248" t="inlineStr"/>
       <c r="Q248" t="n">
@@ -21583,7 +21643,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21602,10 +21662,10 @@
         </is>
       </c>
       <c r="N249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P249" t="inlineStr"/>
       <c r="Q249" t="n">
@@ -21671,7 +21731,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21693,7 +21753,7 @@
         <v>0</v>
       </c>
       <c r="O250" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P250" t="inlineStr"/>
       <c r="Q250" t="n">
@@ -21759,7 +21819,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21781,7 +21841,7 @@
         <v>0</v>
       </c>
       <c r="O251" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P251" t="inlineStr"/>
       <c r="Q251" t="n">
@@ -21847,7 +21907,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21935,7 +21995,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22009,7 +22069,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22089,7 +22149,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22108,10 +22168,10 @@
         </is>
       </c>
       <c r="N255" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O255" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P255" t="inlineStr"/>
       <c r="Q255" t="n">
@@ -22173,7 +22233,7 @@
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22192,10 +22252,10 @@
         </is>
       </c>
       <c r="N256" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O256" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P256" t="inlineStr"/>
       <c r="Q256" t="n">
@@ -22261,7 +22321,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22280,7 +22340,7 @@
         </is>
       </c>
       <c r="N257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O257" t="n">
         <v>2</v>
@@ -22349,7 +22409,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22371,7 +22431,7 @@
         <v>3</v>
       </c>
       <c r="O258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P258" t="inlineStr"/>
       <c r="Q258" t="n">
@@ -22437,7 +22497,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22459,7 +22519,7 @@
         <v>3</v>
       </c>
       <c r="O259" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P259" t="inlineStr"/>
       <c r="Q259" t="n">
@@ -22525,7 +22585,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22547,7 +22607,7 @@
         <v>3</v>
       </c>
       <c r="O260" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P260" t="inlineStr"/>
       <c r="Q260" t="n">
@@ -22599,7 +22659,7 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22679,7 +22739,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22698,10 +22758,10 @@
         </is>
       </c>
       <c r="N262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P262" t="inlineStr"/>
       <c r="Q262" t="n">
@@ -22767,7 +22827,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22786,10 +22846,10 @@
         </is>
       </c>
       <c r="N263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P263" t="inlineStr"/>
       <c r="Q263" t="n">
@@ -22855,7 +22915,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -22874,10 +22934,10 @@
         </is>
       </c>
       <c r="N264" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O264" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P264" t="inlineStr"/>
       <c r="Q264" t="n">
@@ -22943,7 +23003,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -22962,10 +23022,10 @@
         </is>
       </c>
       <c r="N265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P265" t="inlineStr"/>
       <c r="Q265" t="n">
@@ -23031,7 +23091,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23050,10 +23110,10 @@
         </is>
       </c>
       <c r="N266" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O266" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P266" t="inlineStr"/>
       <c r="Q266" t="n">
@@ -23119,7 +23179,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23138,10 +23198,10 @@
         </is>
       </c>
       <c r="N267" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O267" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P267" t="inlineStr"/>
       <c r="Q267" t="n">
@@ -23193,7 +23253,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23273,7 +23333,7 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23295,7 +23355,7 @@
         <v>1</v>
       </c>
       <c r="O269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P269" t="inlineStr"/>
       <c r="Q269" t="n">
@@ -23361,7 +23421,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23380,10 +23440,10 @@
         </is>
       </c>
       <c r="N270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P270" t="inlineStr"/>
       <c r="Q270" t="n">
@@ -23449,7 +23509,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23471,7 +23531,7 @@
         <v>2</v>
       </c>
       <c r="O271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P271" t="inlineStr"/>
       <c r="Q271" t="n">
@@ -23537,7 +23597,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23559,7 +23619,7 @@
         <v>2</v>
       </c>
       <c r="O272" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P272" t="inlineStr"/>
       <c r="Q272" t="n">
@@ -23625,7 +23685,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23647,7 +23707,7 @@
         <v>2</v>
       </c>
       <c r="O273" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="P273" t="inlineStr"/>
       <c r="Q273" t="n">
@@ -23713,7 +23773,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23735,7 +23795,7 @@
         <v>2</v>
       </c>
       <c r="O274" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P274" t="inlineStr"/>
       <c r="Q274" t="n">
@@ -23801,7 +23861,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23823,7 +23883,7 @@
         <v>2</v>
       </c>
       <c r="O275" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="P275" t="inlineStr"/>
       <c r="Q275" t="n">
@@ -23889,7 +23949,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -23911,7 +23971,7 @@
         <v>2</v>
       </c>
       <c r="O276" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P276" t="inlineStr"/>
       <c r="Q276" t="n">
@@ -23977,7 +24037,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -23999,7 +24059,7 @@
         <v>2</v>
       </c>
       <c r="O277" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="P277" t="inlineStr"/>
       <c r="Q277" t="n">
@@ -24065,7 +24125,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24084,10 +24144,10 @@
         </is>
       </c>
       <c r="N278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O278" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="P278" t="inlineStr"/>
       <c r="Q278" t="n">
@@ -24153,7 +24213,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24175,7 +24235,7 @@
         <v>2</v>
       </c>
       <c r="O279" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="P279" t="inlineStr"/>
       <c r="Q279" t="n">
@@ -24227,7 +24287,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['France', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24311,7 +24371,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24330,10 +24390,10 @@
         </is>
       </c>
       <c r="N281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O281" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="P281" t="inlineStr"/>
       <c r="Q281" t="n">
@@ -24399,7 +24459,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24418,10 +24478,10 @@
         </is>
       </c>
       <c r="N282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O282" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P282" t="inlineStr"/>
       <c r="Q282" t="n">
@@ -24487,7 +24547,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24506,10 +24566,10 @@
         </is>
       </c>
       <c r="N283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O283" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="P283" t="inlineStr"/>
       <c r="Q283" t="n">
@@ -24575,7 +24635,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Hungary', 'France']</t>
+          <t>['Germany', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24594,10 +24654,10 @@
         </is>
       </c>
       <c r="N284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O284" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P284" t="inlineStr"/>
       <c r="Q284" t="n">
@@ -24663,7 +24723,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24682,10 +24742,10 @@
         </is>
       </c>
       <c r="N285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O285" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="P285" t="inlineStr"/>
       <c r="Q285" t="n">
@@ -24751,7 +24811,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['France', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24770,10 +24830,10 @@
         </is>
       </c>
       <c r="N286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O286" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P286" t="inlineStr"/>
       <c r="Q286" t="n">
@@ -24839,7 +24899,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24858,10 +24918,10 @@
         </is>
       </c>
       <c r="N287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O287" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="P287" t="inlineStr"/>
       <c r="Q287" t="n">
@@ -24927,7 +24987,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['France', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -24946,10 +25006,10 @@
         </is>
       </c>
       <c r="N288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O288" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P288" t="inlineStr"/>
       <c r="Q288" t="n">
@@ -25001,7 +25061,7 @@
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25081,7 +25141,7 @@
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25100,10 +25160,10 @@
         </is>
       </c>
       <c r="N290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O290" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P290" t="inlineStr"/>
       <c r="Q290" t="n">
@@ -25169,7 +25229,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25188,10 +25248,10 @@
         </is>
       </c>
       <c r="N291" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O291" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P291" t="inlineStr"/>
       <c r="Q291" t="n">
@@ -25257,7 +25317,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25276,10 +25336,10 @@
         </is>
       </c>
       <c r="N292" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O292" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P292" t="inlineStr"/>
       <c r="Q292" t="n">
@@ -25345,7 +25405,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25367,7 +25427,7 @@
         <v>2</v>
       </c>
       <c r="O293" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P293" t="inlineStr"/>
       <c r="Q293" t="n">
@@ -25419,7 +25479,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Albania', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25499,7 +25559,7 @@
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Albania', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25518,16 +25578,12 @@
         </is>
       </c>
       <c r="N295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O295" t="n">
-        <v>1</v>
-      </c>
-      <c r="P295" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P295" t="inlineStr"/>
       <c r="Q295" t="n">
         <v>1</v>
       </c>
@@ -25591,7 +25647,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25610,10 +25666,10 @@
         </is>
       </c>
       <c r="N296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O296" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P296" t="inlineStr"/>
       <c r="Q296" t="n">
@@ -25679,7 +25735,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25698,10 +25754,10 @@
         </is>
       </c>
       <c r="N297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O297" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P297" t="inlineStr"/>
       <c r="Q297" t="n">
@@ -25767,7 +25823,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25786,10 +25842,10 @@
         </is>
       </c>
       <c r="N298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O298" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P298" t="inlineStr"/>
       <c r="Q298" t="n">
@@ -25841,7 +25897,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25921,7 +25977,7 @@
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -25940,10 +25996,10 @@
         </is>
       </c>
       <c r="N300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P300" t="inlineStr"/>
       <c r="Q300" t="n">
@@ -26005,7 +26061,7 @@
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26024,10 +26080,10 @@
         </is>
       </c>
       <c r="N301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P301" t="inlineStr"/>
       <c r="Q301" t="n">
@@ -26079,7 +26135,7 @@
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26163,7 +26219,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26182,10 +26238,10 @@
         </is>
       </c>
       <c r="N303" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O303" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P303" t="inlineStr"/>
       <c r="Q303" t="n">
@@ -26251,7 +26307,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26270,10 +26326,10 @@
         </is>
       </c>
       <c r="N304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O304" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P304" t="inlineStr"/>
       <c r="Q304" t="n">
@@ -26339,7 +26395,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26358,10 +26414,10 @@
         </is>
       </c>
       <c r="N305" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O305" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P305" t="inlineStr"/>
       <c r="Q305" t="n">
@@ -26427,7 +26483,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26446,10 +26502,10 @@
         </is>
       </c>
       <c r="N306" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O306" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P306" t="inlineStr"/>
       <c r="Q306" t="n">
@@ -26515,7 +26571,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26534,10 +26590,10 @@
         </is>
       </c>
       <c r="N307" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O307" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P307" t="inlineStr"/>
       <c r="Q307" t="n">
@@ -26603,7 +26659,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26622,10 +26678,10 @@
         </is>
       </c>
       <c r="N308" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O308" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P308" t="inlineStr"/>
       <c r="Q308" t="n">
@@ -26691,7 +26747,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26710,10 +26766,10 @@
         </is>
       </c>
       <c r="N309" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O309" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P309" t="inlineStr"/>
       <c r="Q309" t="n">
@@ -26765,7 +26821,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania']</t>
+          <t>['Ukraine', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26845,7 +26901,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26867,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="O311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P311" t="inlineStr"/>
       <c r="Q311" t="n">
@@ -26933,7 +26989,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia']</t>
+          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -26952,10 +27008,10 @@
         </is>
       </c>
       <c r="N312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O312" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="P312" t="inlineStr"/>
       <c r="Q312" t="n">
@@ -27021,7 +27077,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27043,7 +27099,7 @@
         <v>0</v>
       </c>
       <c r="O313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P313" t="inlineStr"/>
       <c r="Q313" t="n">
@@ -27095,7 +27151,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27175,7 +27231,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27194,16 +27250,12 @@
         </is>
       </c>
       <c r="N315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O315" t="n">
-        <v>0</v>
-      </c>
-      <c r="P315" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P315" t="inlineStr"/>
       <c r="Q315" t="n">
         <v>0</v>
       </c>
@@ -27267,7 +27319,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27286,12 +27338,16 @@
         </is>
       </c>
       <c r="N316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O316" t="n">
         <v>0</v>
       </c>
-      <c r="P316" t="inlineStr"/>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="Q316" t="n">
         <v>1</v>
       </c>
@@ -27355,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27374,7 +27430,7 @@
         </is>
       </c>
       <c r="N317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O317" t="n">
         <v>1</v>
@@ -27443,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27462,10 +27518,10 @@
         </is>
       </c>
       <c r="N318" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P318" t="inlineStr"/>
       <c r="Q318" t="n">
@@ -27531,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27550,12 +27606,16 @@
         </is>
       </c>
       <c r="N319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O319" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
       <c r="Q319" t="n">
         <v>1</v>
       </c>
@@ -27619,7 +27679,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27638,10 +27698,10 @@
         </is>
       </c>
       <c r="N320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P320" t="inlineStr"/>
       <c r="Q320" t="n">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1523,7 +1523,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1603,7 +1603,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1941,7 +1941,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2021,7 +2021,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2109,7 +2109,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2539,7 +2539,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2619,7 +2619,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3153,7 +3153,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4525,7 +4525,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4605,7 +4605,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -8231,7 +8231,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8311,7 +8311,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10879,7 +10879,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11227,7 +11227,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11829,7 +11829,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12265,7 +12265,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -13967,7 +13967,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -14047,7 +14047,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14131,7 +14131,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14381,7 +14381,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14461,7 +14461,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14545,7 +14545,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14971,7 +14971,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -15051,7 +15051,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15565,7 +15565,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15645,7 +15645,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15729,7 +15729,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Greece', 'Russia']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15979,7 +15979,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16581,7 +16581,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16661,7 +16661,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16745,7 +16745,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -17083,7 +17083,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17163,7 +17163,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17247,7 +17247,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17585,7 +17585,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17665,7 +17665,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17749,7 +17749,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Albania', 'Switzerland', 'France']</t>
+          <t>['France', 'Switzerland', 'Albania']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17911,7 +17911,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17991,7 +17991,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18079,7 +18079,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18421,7 +18421,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18501,7 +18501,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18585,7 +18585,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18835,7 +18835,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18915,7 +18915,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19003,7 +19003,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19267,7 +19267,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19355,7 +19355,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19429,7 +19429,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19509,7 +19509,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19593,7 +19593,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Belgium']</t>
+          <t>['Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Belgium']</t>
+          <t>['Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19843,7 +19843,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20543,7 +20543,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20705,7 +20705,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20785,7 +20785,7 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20847,7 +20847,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -20873,7 +20873,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -20961,7 +20961,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21049,7 +21049,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21111,7 +21111,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -21137,7 +21137,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21199,7 +21199,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -21225,7 +21225,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21287,7 +21287,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -21299,7 +21299,7 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21357,7 +21357,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -21379,7 +21379,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21467,7 +21467,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21555,7 +21555,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21643,7 +21643,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21705,7 +21705,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Russia', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21881,7 +21881,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -21907,7 +21907,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21995,7 +21995,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -22069,7 +22069,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22127,7 +22127,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -22149,7 +22149,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22233,7 +22233,7 @@
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22295,7 +22295,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -22321,7 +22321,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22409,7 +22409,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22497,7 +22497,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22647,7 +22647,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -22659,7 +22659,7 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22717,7 +22717,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -22739,7 +22739,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22801,7 +22801,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -22827,7 +22827,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22889,7 +22889,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -22915,7 +22915,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -22977,7 +22977,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -23003,7 +23003,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23065,7 +23065,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -23091,7 +23091,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23153,7 +23153,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -23179,7 +23179,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23253,7 +23253,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23333,7 +23333,7 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23395,7 +23395,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -23421,7 +23421,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23509,7 +23509,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23597,7 +23597,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23685,7 +23685,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23747,7 +23747,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -23773,7 +23773,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23835,7 +23835,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -23861,7 +23861,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23949,7 +23949,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24037,7 +24037,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24099,7 +24099,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -24125,7 +24125,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24187,7 +24187,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -24213,7 +24213,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24287,7 +24287,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24371,7 +24371,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24459,7 +24459,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24547,7 +24547,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24635,7 +24635,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Hungary']</t>
+          <t>['Hungary', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24723,7 +24723,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24811,7 +24811,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24899,7 +24899,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24987,7 +24987,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25061,7 +25061,7 @@
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25141,7 +25141,7 @@
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25229,7 +25229,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25317,7 +25317,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25405,7 +25405,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25479,7 +25479,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Albania', 'Italy', 'Spain']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25559,7 +25559,7 @@
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Albania', 'Italy', 'Spain']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25647,7 +25647,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25735,7 +25735,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25897,7 +25897,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Denmark', 'Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25977,7 +25977,7 @@
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Denmark', 'Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26061,7 +26061,7 @@
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Denmark', 'Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26135,7 +26135,7 @@
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26219,7 +26219,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26307,7 +26307,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26395,7 +26395,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26483,7 +26483,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26571,7 +26571,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26659,7 +26659,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26747,7 +26747,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26821,7 +26821,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania', 'Belgium']</t>
+          <t>['Belgium', 'Ukraine', 'Romania']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26901,7 +26901,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26989,7 +26989,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27077,7 +27077,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27151,7 +27151,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27231,7 +27231,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27319,7 +27319,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27679,7 +27679,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1941,7 +1941,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2021,7 +2021,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2109,7 +2109,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3751,7 +3751,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3831,7 +3831,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4525,7 +4525,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4605,7 +4605,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5207,7 +5207,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5893,7 +5893,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5973,7 +5973,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7353,7 +7353,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7433,7 +7433,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -11829,7 +11829,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12265,7 +12265,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13967,7 +13967,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -14047,7 +14047,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14131,7 +14131,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14381,7 +14381,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14461,7 +14461,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14545,7 +14545,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14809,7 +14809,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Greece', 'Russia']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15979,7 +15979,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -17585,7 +17585,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['France', 'Romania', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17665,7 +17665,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['France', 'Romania', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17749,7 +17749,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['France', 'Romania', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['France', 'Albania', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Albania']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -18421,7 +18421,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18501,7 +18501,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18585,7 +18585,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -19429,7 +19429,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19509,7 +19509,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19593,7 +19593,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ireland', 'Italy']</t>
+          <t>['Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ireland', 'Italy']</t>
+          <t>['Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -20705,7 +20705,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20775,7 +20775,7 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20855,7 +20855,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20939,7 +20939,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21027,7 +21027,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21115,7 +21115,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21291,7 +21291,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21379,7 +21379,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21467,7 +21467,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21555,7 +21555,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21643,7 +21643,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21893,7 +21893,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21973,7 +21973,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22047,7 +22047,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22127,7 +22127,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22215,7 +22215,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Denmark']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Denmark']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22391,7 +22391,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Denmark']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Denmark']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22927,7 +22927,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23449,7 +23449,7 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23529,7 +23529,7 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23603,7 +23603,7 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23683,7 +23683,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23767,7 +23767,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23851,7 +23851,7 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24467,7 +24467,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24629,7 +24629,7 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24709,7 +24709,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24797,7 +24797,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24885,7 +24885,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25149,7 +25149,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25223,7 +25223,7 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25293,7 +25293,7 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25373,7 +25373,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25457,7 +25457,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25545,7 +25545,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25633,7 +25633,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25897,7 +25897,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26337,7 +26337,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26425,7 +26425,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26513,7 +26513,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26689,7 +26689,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26777,7 +26777,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26953,7 +26953,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27129,7 +27129,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27217,7 +27217,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27291,7 +27291,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Germany']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28065,7 +28065,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28145,7 +28145,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28321,7 +28321,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28409,7 +28409,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'Switzerland']</t>
+          <t>['Switzerland', 'Hungary', 'Germany']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28651,7 +28651,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28739,7 +28739,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -29139,7 +29139,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29575,7 +29575,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29663,7 +29663,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29751,7 +29751,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29825,7 +29825,7 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ukraine', 'Romania']</t>
+          <t>['Romania', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29905,7 +29905,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Ukraine']</t>
+          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30155,7 +30155,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30235,7 +30235,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30503,7 +30503,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1523,7 +1523,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1603,7 +1603,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1941,7 +1941,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2021,7 +2021,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2109,7 +2109,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2539,7 +2539,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2619,7 +2619,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3751,7 +3751,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3831,7 +3831,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4525,7 +4525,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4605,7 +4605,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -6587,7 +6587,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6667,7 +6667,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6751,7 +6751,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7353,7 +7353,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7433,7 +7433,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8231,7 +8231,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8311,7 +8311,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9603,7 +9603,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9683,7 +9683,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10879,7 +10879,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11227,7 +11227,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11829,7 +11829,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12859,7 +12859,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -14381,7 +14381,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14461,7 +14461,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14545,7 +14545,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -15565,7 +15565,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15645,7 +15645,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15729,7 +15729,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Greece', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Greece']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -16581,7 +16581,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16661,7 +16661,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16745,7 +16745,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -17009,7 +17009,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -17083,7 +17083,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17163,7 +17163,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17247,7 +17247,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17585,7 +17585,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17665,7 +17665,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17749,7 +17749,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Albania']</t>
+          <t>['Albania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17911,7 +17911,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17991,7 +17991,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18079,7 +18079,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18421,7 +18421,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18501,7 +18501,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18585,7 +18585,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18835,7 +18835,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18915,7 +18915,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19003,7 +19003,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19117,18 +19117,18 @@
       </c>
       <c r="P219" t="inlineStr"/>
       <c r="Q219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U219" t="n">
         <v>1755</v>
@@ -19179,7 +19179,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19205,18 +19205,18 @@
       </c>
       <c r="P220" t="inlineStr"/>
       <c r="Q220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S220" t="n">
         <v>0</v>
       </c>
       <c r="T220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U220" t="n">
         <v>1818</v>
@@ -19267,7 +19267,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19301,7 +19301,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T221" t="n">
         <v>2</v>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19429,7 +19429,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19509,7 +19509,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19593,7 +19593,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19843,7 +19843,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20543,7 +20543,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20705,7 +20705,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20775,7 +20775,7 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20855,7 +20855,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20939,7 +20939,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21027,7 +21027,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21115,7 +21115,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21291,7 +21291,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21379,7 +21379,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21467,7 +21467,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21555,7 +21555,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21643,7 +21643,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21893,7 +21893,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21973,7 +21973,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22047,7 +22047,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22127,7 +22127,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22215,7 +22215,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Denmark']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Denmark']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22391,7 +22391,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Denmark']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Denmark']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22927,7 +22927,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23449,7 +23449,7 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23529,7 +23529,7 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23603,7 +23603,7 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23683,7 +23683,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23767,7 +23767,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23851,7 +23851,7 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24467,7 +24467,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24629,7 +24629,7 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24709,7 +24709,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24797,7 +24797,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24885,7 +24885,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25087,18 +25087,18 @@
       </c>
       <c r="P289" t="inlineStr"/>
       <c r="Q289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U289" t="n">
         <v>1825</v>
@@ -25149,7 +25149,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25183,7 +25183,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T290" t="n">
         <v>3</v>
@@ -25223,7 +25223,7 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25293,7 +25293,7 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25373,7 +25373,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25457,7 +25457,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25545,7 +25545,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25633,7 +25633,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25897,7 +25897,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26337,7 +26337,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26425,7 +26425,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26513,7 +26513,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26689,7 +26689,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26777,7 +26777,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26953,7 +26953,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27129,7 +27129,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27217,7 +27217,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27291,7 +27291,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27375,7 +27375,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Germany']</t>
+          <t>['Hungary', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27727,7 +27727,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27929,11 +27929,11 @@
       </c>
       <c r="P322" t="inlineStr"/>
       <c r="Q322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S322" t="n">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28483,7 +28483,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28563,7 +28563,7 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28651,7 +28651,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28739,7 +28739,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28901,7 +28901,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28981,7 +28981,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29065,7 +29065,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29139,7 +29139,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29575,7 +29575,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29663,7 +29663,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29751,7 +29751,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29825,7 +29825,7 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Ukraine']</t>
+          <t>['Ukraine', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29905,7 +29905,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
+          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30155,7 +30155,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30235,7 +30235,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30503,7 +30503,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -1523,7 +1523,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1603,7 +1603,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1941,7 +1941,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2021,7 +2021,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2109,7 +2109,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3153,7 +3153,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5893,7 +5893,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5973,7 +5973,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7353,7 +7353,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7433,7 +7433,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8231,7 +8231,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8311,7 +8311,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8833,7 +8833,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8913,7 +8913,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -10373,7 +10373,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10453,7 +10453,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -11829,7 +11829,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14809,7 +14809,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14971,7 +14971,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -15051,7 +15051,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15565,7 +15565,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15645,7 +15645,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15729,7 +15729,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Greece']</t>
+          <t>['Greece', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Albania', 'Switzerland', 'France']</t>
+          <t>['Switzerland', 'Albania', 'France']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17911,7 +17911,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17991,7 +17991,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18079,7 +18079,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18421,7 +18421,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18501,7 +18501,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18585,7 +18585,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19267,7 +19267,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19355,7 +19355,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19429,7 +19429,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19509,7 +19509,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19593,7 +19593,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19843,7 +19843,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20543,7 +20543,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -21893,7 +21893,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21973,7 +21973,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22047,7 +22047,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22127,7 +22127,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22215,7 +22215,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22391,7 +22391,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22927,7 +22927,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23449,7 +23449,7 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23529,7 +23529,7 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23603,7 +23603,7 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23683,7 +23683,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23767,7 +23767,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23851,7 +23851,7 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24467,7 +24467,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24629,7 +24629,7 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24709,7 +24709,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24797,7 +24797,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24885,7 +24885,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25149,7 +25149,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25223,7 +25223,7 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25293,7 +25293,7 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25373,7 +25373,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25457,7 +25457,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25545,7 +25545,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25633,7 +25633,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25897,7 +25897,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26337,7 +26337,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26425,7 +26425,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26513,7 +26513,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26689,7 +26689,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26777,7 +26777,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26953,7 +26953,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27129,7 +27129,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27217,7 +27217,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Hungary', 'Germany', 'France']</t>
+          <t>['Germany', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -28065,7 +28065,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28145,7 +28145,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28321,7 +28321,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28409,7 +28409,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Hungary', 'Germany']</t>
+          <t>['Germany', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28901,7 +28901,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28981,7 +28981,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29065,7 +29065,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29139,7 +29139,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29575,7 +29575,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29663,7 +29663,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29905,7 +29905,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30503,7 +30503,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1523,7 +1523,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1603,7 +1603,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1941,7 +1941,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2021,7 +2021,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2109,7 +2109,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3751,7 +3751,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3831,7 +3831,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4525,7 +4525,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4605,7 +4605,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5207,7 +5207,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5893,7 +5893,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5973,7 +5973,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6587,7 +6587,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6667,7 +6667,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6751,7 +6751,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7353,7 +7353,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7433,7 +7433,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8231,7 +8231,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8311,7 +8311,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8833,7 +8833,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8913,7 +8913,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9603,7 +9603,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9683,7 +9683,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10879,7 +10879,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11227,7 +11227,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -12515,7 +12515,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12595,7 +12595,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12771,7 +12771,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12859,7 +12859,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13197,7 +13197,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13277,7 +13277,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13967,7 +13967,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -14047,7 +14047,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14131,7 +14131,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15565,7 +15565,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15645,7 +15645,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15729,7 +15729,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15979,7 +15979,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16581,7 +16581,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16661,7 +16661,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16745,7 +16745,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -17009,7 +17009,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -17083,7 +17083,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17163,7 +17163,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17247,7 +17247,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17585,7 +17585,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17665,7 +17665,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17749,7 +17749,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Albania', 'France']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17911,7 +17911,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17991,7 +17991,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18079,7 +18079,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18421,7 +18421,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18501,7 +18501,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18585,7 +18585,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18835,7 +18835,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18915,7 +18915,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19003,7 +19003,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19267,7 +19267,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19355,7 +19355,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19429,7 +19429,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19509,7 +19509,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19593,7 +19593,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19843,7 +19843,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20543,7 +20543,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20731,11 +20731,11 @@
       </c>
       <c r="P238" t="inlineStr"/>
       <c r="Q238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S238" t="n">
@@ -20801,11 +20801,11 @@
       </c>
       <c r="P239" t="inlineStr"/>
       <c r="Q239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S239" t="n">
@@ -20881,11 +20881,11 @@
       </c>
       <c r="P240" t="inlineStr"/>
       <c r="Q240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S240" t="n">
@@ -20965,11 +20965,11 @@
       </c>
       <c r="P241" t="inlineStr"/>
       <c r="Q241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S241" t="n">
@@ -21061,10 +21061,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U242" t="n">
         <v>1890</v>
@@ -21152,7 +21152,7 @@
         <v>0</v>
       </c>
       <c r="T243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U243" t="n">
         <v>1890</v>
@@ -21240,7 +21240,7 @@
         <v>0</v>
       </c>
       <c r="T244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U244" t="n">
         <v>1890</v>
@@ -21328,7 +21328,7 @@
         <v>0</v>
       </c>
       <c r="T245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U245" t="n">
         <v>1890</v>
@@ -21416,7 +21416,7 @@
         <v>0</v>
       </c>
       <c r="T246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U246" t="n">
         <v>2014</v>
@@ -21504,7 +21504,7 @@
         <v>0</v>
       </c>
       <c r="T247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U247" t="n">
         <v>2014</v>
@@ -21592,7 +21592,7 @@
         <v>0</v>
       </c>
       <c r="T248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U248" t="n">
         <v>1890</v>
@@ -21680,7 +21680,7 @@
         <v>0</v>
       </c>
       <c r="T249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U249" t="n">
         <v>1890</v>
@@ -21768,7 +21768,7 @@
         <v>0</v>
       </c>
       <c r="T250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U250" t="n">
         <v>1890</v>
@@ -21856,7 +21856,7 @@
         <v>0</v>
       </c>
       <c r="T251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U251" t="n">
         <v>1890</v>
@@ -21893,7 +21893,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21973,7 +21973,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22047,7 +22047,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22127,7 +22127,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22215,7 +22215,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Russia', 'Denmark', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Russia', 'Denmark', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22391,7 +22391,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Russia', 'Denmark', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Russia', 'Denmark', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22927,7 +22927,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23475,11 +23475,11 @@
       </c>
       <c r="P270" t="inlineStr"/>
       <c r="Q270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S270" t="n">
@@ -23555,11 +23555,11 @@
       </c>
       <c r="P271" t="inlineStr"/>
       <c r="Q271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S271" t="n">
@@ -23629,11 +23629,11 @@
       </c>
       <c r="P272" t="inlineStr"/>
       <c r="Q272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S272" t="n">
@@ -23709,11 +23709,11 @@
       </c>
       <c r="P273" t="inlineStr"/>
       <c r="Q273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S273" t="n">
@@ -24629,7 +24629,7 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24709,7 +24709,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24797,7 +24797,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24885,7 +24885,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25149,7 +25149,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25897,7 +25897,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26689,7 +26689,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26777,7 +26777,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -27291,7 +27291,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27375,7 +27375,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Germany']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27727,7 +27727,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28065,7 +28065,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Scotland', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28145,7 +28145,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Scotland', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28321,7 +28321,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Scotland', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28409,7 +28409,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'Switzerland']</t>
+          <t>['Hungary', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28483,7 +28483,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28563,7 +28563,7 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28651,7 +28651,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28739,7 +28739,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28901,7 +28901,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28981,7 +28981,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29065,7 +29065,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29139,7 +29139,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29575,7 +29575,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29663,7 +29663,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29751,7 +29751,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29825,7 +29825,7 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29851,11 +29851,11 @@
       </c>
       <c r="P345" t="inlineStr"/>
       <c r="Q345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania']</t>
+          <t>['Ukraine', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="S345" t="n">
@@ -29905,7 +29905,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29931,11 +29931,11 @@
       </c>
       <c r="P346" t="inlineStr"/>
       <c r="Q346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="S346" t="n">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
+          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30155,7 +30155,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30235,7 +30235,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30503,7 +30503,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1523,7 +1523,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1603,7 +1603,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1687,7 +1687,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1941,7 +1941,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2021,7 +2021,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2109,7 +2109,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2539,7 +2539,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2619,7 +2619,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3153,7 +3153,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3751,7 +3751,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3831,7 +3831,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4525,7 +4525,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4605,7 +4605,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5893,7 +5893,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5973,7 +5973,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -8833,7 +8833,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8913,7 +8913,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -11829,7 +11829,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -12265,7 +12265,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -12515,7 +12515,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12595,7 +12595,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12771,7 +12771,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -13197,7 +13197,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13277,7 +13277,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -14381,7 +14381,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14461,7 +14461,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14545,7 +14545,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14809,7 +14809,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14971,7 +14971,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -15051,7 +15051,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15565,7 +15565,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15645,7 +15645,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15729,7 +15729,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -17009,7 +17009,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -17585,7 +17585,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['France', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17611,11 +17611,11 @@
       </c>
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="S201" t="n">
@@ -17665,7 +17665,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['France', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17691,11 +17691,11 @@
       </c>
       <c r="P202" t="inlineStr"/>
       <c r="Q202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="S202" t="n">
@@ -17749,7 +17749,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['France', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17775,11 +17775,11 @@
       </c>
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="S203" t="n">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['France', 'Albania', 'Switzerland']</t>
+          <t>['Switzerland', 'Albania', 'France']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17911,7 +17911,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17991,7 +17991,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18079,7 +18079,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18421,7 +18421,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18501,7 +18501,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18585,7 +18585,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18861,11 +18861,11 @@
       </c>
       <c r="P216" t="inlineStr"/>
       <c r="Q216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S216" t="n">
@@ -18941,11 +18941,11 @@
       </c>
       <c r="P217" t="inlineStr"/>
       <c r="Q217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S217" t="n">
@@ -19037,10 +19037,10 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U218" t="n">
         <v>1818</v>
@@ -19128,7 +19128,7 @@
         <v>0</v>
       </c>
       <c r="T219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U219" t="n">
         <v>1755</v>
@@ -19216,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="T220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U220" t="n">
         <v>1818</v>
@@ -19304,7 +19304,7 @@
         <v>1</v>
       </c>
       <c r="T221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U221" t="n">
         <v>1755</v>
@@ -19392,7 +19392,7 @@
         <v>0</v>
       </c>
       <c r="T222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U222" t="n">
         <v>1818</v>
@@ -19429,7 +19429,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19509,7 +19509,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19593,7 +19593,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Italy', 'Ireland', 'Belgium']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Italy', 'Ireland', 'Belgium']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19843,7 +19843,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20543,7 +20543,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20705,7 +20705,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20775,7 +20775,7 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20855,7 +20855,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20939,7 +20939,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21027,7 +21027,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21115,7 +21115,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21291,7 +21291,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21379,7 +21379,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21467,7 +21467,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21555,7 +21555,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21643,7 +21643,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21893,7 +21893,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21919,11 +21919,11 @@
       </c>
       <c r="P252" t="inlineStr"/>
       <c r="Q252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="S252" t="n">
@@ -21973,7 +21973,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -21999,11 +21999,11 @@
       </c>
       <c r="P253" t="inlineStr"/>
       <c r="Q253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="S253" t="n">
@@ -22047,7 +22047,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22073,11 +22073,11 @@
       </c>
       <c r="P254" t="inlineStr"/>
       <c r="Q254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="S254" t="n">
@@ -22127,7 +22127,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22153,11 +22153,11 @@
       </c>
       <c r="P255" t="inlineStr"/>
       <c r="Q255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="S255" t="n">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23449,7 +23449,7 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23475,11 +23475,11 @@
       </c>
       <c r="P270" t="inlineStr"/>
       <c r="Q270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S270" t="n">
@@ -23529,7 +23529,7 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23555,11 +23555,11 @@
       </c>
       <c r="P271" t="inlineStr"/>
       <c r="Q271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S271" t="n">
@@ -23603,7 +23603,7 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23629,11 +23629,11 @@
       </c>
       <c r="P272" t="inlineStr"/>
       <c r="Q272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S272" t="n">
@@ -23683,7 +23683,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23709,11 +23709,11 @@
       </c>
       <c r="P273" t="inlineStr"/>
       <c r="Q273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S273" t="n">
@@ -23767,7 +23767,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23851,7 +23851,7 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24467,7 +24467,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24629,7 +24629,7 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24709,7 +24709,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24797,7 +24797,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24885,7 +24885,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25149,7 +25149,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25223,7 +25223,7 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25249,11 +25249,11 @@
       </c>
       <c r="P291" t="inlineStr"/>
       <c r="Q291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S291" t="n">
@@ -25293,7 +25293,7 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25319,11 +25319,11 @@
       </c>
       <c r="P292" t="inlineStr"/>
       <c r="Q292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S292" t="n">
@@ -25373,7 +25373,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25399,11 +25399,11 @@
       </c>
       <c r="P293" t="inlineStr"/>
       <c r="Q293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S293" t="n">
@@ -25457,7 +25457,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25483,11 +25483,11 @@
       </c>
       <c r="P294" t="inlineStr"/>
       <c r="Q294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S294" t="n">
@@ -25545,7 +25545,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U295" t="n">
         <v>1850</v>
@@ -25633,7 +25633,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="T296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U296" t="n">
         <v>1850</v>
@@ -25721,7 +25721,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25758,7 +25758,7 @@
         <v>1</v>
       </c>
       <c r="T297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U297" t="n">
         <v>1656</v>
@@ -25809,7 +25809,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="T298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U298" t="n">
         <v>1656</v>
@@ -25897,7 +25897,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25934,7 +25934,7 @@
         <v>0</v>
       </c>
       <c r="T299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U299" t="n">
         <v>1656</v>
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26022,7 +26022,7 @@
         <v>0</v>
       </c>
       <c r="T300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U300" t="n">
         <v>1656</v>
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26110,7 +26110,7 @@
         <v>0</v>
       </c>
       <c r="T301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U301" t="n">
         <v>1656</v>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26198,7 +26198,7 @@
         <v>0</v>
       </c>
       <c r="T302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U302" t="n">
         <v>1656</v>
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26275,18 +26275,18 @@
       </c>
       <c r="P303" t="inlineStr"/>
       <c r="Q303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S303" t="n">
         <v>1</v>
       </c>
       <c r="T303" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U303" t="n">
         <v>1850</v>
@@ -26337,7 +26337,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26363,18 +26363,18 @@
       </c>
       <c r="P304" t="inlineStr"/>
       <c r="Q304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S304" t="n">
         <v>0</v>
       </c>
       <c r="T304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U304" t="n">
         <v>1850</v>
@@ -26425,7 +26425,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26459,10 +26459,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T305" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U305" t="n">
         <v>1850</v>
@@ -26513,7 +26513,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26550,7 +26550,7 @@
         <v>0</v>
       </c>
       <c r="T306" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U306" t="n">
         <v>1850</v>
@@ -26601,7 +26601,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26638,7 +26638,7 @@
         <v>1</v>
       </c>
       <c r="T307" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U307" t="n">
         <v>1656</v>
@@ -26689,7 +26689,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26726,7 +26726,7 @@
         <v>0</v>
       </c>
       <c r="T308" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U308" t="n">
         <v>1656</v>
@@ -26777,7 +26777,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26814,7 +26814,7 @@
         <v>0</v>
       </c>
       <c r="T309" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U309" t="n">
         <v>1656</v>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="T310" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U310" t="n">
         <v>1656</v>
@@ -26953,7 +26953,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26990,7 +26990,7 @@
         <v>1</v>
       </c>
       <c r="T311" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U311" t="n">
         <v>1850</v>
@@ -27041,7 +27041,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27078,7 +27078,7 @@
         <v>0</v>
       </c>
       <c r="T312" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U312" t="n">
         <v>1850</v>
@@ -27129,7 +27129,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="T313" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U313" t="n">
         <v>1850</v>
@@ -27217,7 +27217,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27254,7 +27254,7 @@
         <v>0</v>
       </c>
       <c r="T314" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U314" t="n">
         <v>1850</v>
@@ -27291,7 +27291,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27375,7 +27375,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27577,18 +27577,18 @@
       </c>
       <c r="P318" t="inlineStr"/>
       <c r="Q318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U318" t="n">
         <v>2040</v>
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Germany']</t>
+          <t>['Hungary', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27665,18 +27665,18 @@
       </c>
       <c r="P319" t="inlineStr"/>
       <c r="Q319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Germany']</t>
+          <t>['France', 'Hungary']</t>
         </is>
       </c>
       <c r="S319" t="n">
         <v>1</v>
       </c>
       <c r="T319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U319" t="n">
         <v>2040</v>
@@ -27727,7 +27727,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27764,7 +27764,7 @@
         <v>1</v>
       </c>
       <c r="T320" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U320" t="n">
         <v>2040</v>
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27852,7 +27852,7 @@
         <v>1</v>
       </c>
       <c r="T321" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U321" t="n">
         <v>1936</v>
@@ -27903,7 +27903,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27940,7 +27940,7 @@
         <v>1</v>
       </c>
       <c r="T322" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U322" t="n">
         <v>1936</v>
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28028,7 +28028,7 @@
         <v>1</v>
       </c>
       <c r="T323" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U323" t="n">
         <v>1936</v>
@@ -28065,7 +28065,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28145,7 +28145,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28321,7 +28321,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28409,7 +28409,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Hungary', 'Switzerland', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28435,18 +28435,18 @@
       </c>
       <c r="P328" t="inlineStr"/>
       <c r="Q328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U328" t="n">
         <v>1770</v>
@@ -28483,7 +28483,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28509,11 +28509,11 @@
       </c>
       <c r="P329" t="inlineStr"/>
       <c r="Q329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="S329" t="n">
@@ -28563,7 +28563,7 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28589,11 +28589,11 @@
       </c>
       <c r="P330" t="inlineStr"/>
       <c r="Q330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="S330" t="n">
@@ -28651,7 +28651,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28685,10 +28685,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U331" t="n">
         <v>1623</v>
@@ -28739,7 +28739,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28776,7 +28776,7 @@
         <v>1</v>
       </c>
       <c r="T332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U332" t="n">
         <v>1969</v>
@@ -28827,7 +28827,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28864,7 +28864,7 @@
         <v>1</v>
       </c>
       <c r="T333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U333" t="n">
         <v>1969</v>
@@ -29139,7 +29139,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29165,11 +29165,11 @@
       </c>
       <c r="P337" t="inlineStr"/>
       <c r="Q337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="S337" t="n">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29257,10 +29257,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U338" t="n">
         <v>1975</v>
@@ -29311,7 +29311,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29348,7 +29348,7 @@
         <v>0</v>
       </c>
       <c r="T339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U339" t="n">
         <v>1975</v>
@@ -29399,7 +29399,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="T340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U340" t="n">
         <v>2077</v>
@@ -29487,7 +29487,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="T341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U341" t="n">
         <v>1975</v>
@@ -29575,7 +29575,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29612,7 +29612,7 @@
         <v>0</v>
       </c>
       <c r="T342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U342" t="n">
         <v>1975</v>
@@ -29663,7 +29663,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="T343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U343" t="n">
         <v>2077</v>
@@ -29751,7 +29751,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29788,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="T344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U344" t="n">
         <v>1975</v>
@@ -29825,7 +29825,7 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Romania', 'Ukraine', 'Belgium']</t>
+          <t>['Romania', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29851,11 +29851,11 @@
       </c>
       <c r="P345" t="inlineStr"/>
       <c r="Q345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania', 'Belgium']</t>
+          <t>['Ukraine', 'Romania']</t>
         </is>
       </c>
       <c r="S345" t="n">
@@ -29905,7 +29905,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia', 'Ukraine']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30155,7 +30155,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30181,11 +30181,11 @@
       </c>
       <c r="P349" t="inlineStr"/>
       <c r="Q349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S349" t="n">
@@ -30235,7 +30235,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30261,11 +30261,11 @@
       </c>
       <c r="P350" t="inlineStr"/>
       <c r="Q350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S350" t="n">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30503,7 +30503,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1941,7 +1941,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2021,7 +2021,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2109,7 +2109,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3153,7 +3153,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5207,7 +5207,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6587,7 +6587,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6667,7 +6667,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6751,7 +6751,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9603,7 +9603,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9683,7 +9683,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10373,7 +10373,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10453,7 +10453,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10879,7 +10879,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11227,7 +11227,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -13197,7 +13197,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13277,7 +13277,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13967,7 +13967,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -14047,7 +14047,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14131,7 +14131,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14381,7 +14381,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14461,7 +14461,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14545,7 +14545,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14809,7 +14809,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15565,7 +15565,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15645,7 +15645,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15729,7 +15729,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Greece', 'Russia']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Greece', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Greece']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -16063,7 +16063,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16239,7 +16239,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16581,7 +16581,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16661,7 +16661,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16745,7 +16745,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -17009,7 +17009,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -17083,7 +17083,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17163,7 +17163,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17247,7 +17247,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17585,7 +17585,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17665,7 +17665,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17749,7 +17749,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17911,7 +17911,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17991,7 +17991,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18079,7 +18079,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18421,7 +18421,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18501,7 +18501,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18585,7 +18585,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18835,7 +18835,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18915,7 +18915,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19003,7 +19003,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19267,7 +19267,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19355,7 +19355,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19429,7 +19429,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19509,7 +19509,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19593,7 +19593,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Belgium']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Belgium']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19843,7 +19843,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20543,7 +20543,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20705,7 +20705,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20775,7 +20775,7 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20855,7 +20855,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20939,7 +20939,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21027,7 +21027,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21115,7 +21115,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21291,7 +21291,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21379,7 +21379,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21467,7 +21467,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21555,7 +21555,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21643,7 +21643,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21893,7 +21893,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21919,11 +21919,11 @@
       </c>
       <c r="P252" t="inlineStr"/>
       <c r="Q252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="S252" t="n">
@@ -21973,7 +21973,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -21999,11 +21999,11 @@
       </c>
       <c r="P253" t="inlineStr"/>
       <c r="Q253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="S253" t="n">
@@ -22047,7 +22047,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22073,11 +22073,11 @@
       </c>
       <c r="P254" t="inlineStr"/>
       <c r="Q254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="S254" t="n">
@@ -22127,7 +22127,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22153,11 +22153,11 @@
       </c>
       <c r="P255" t="inlineStr"/>
       <c r="Q255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="S255" t="n">
@@ -22215,7 +22215,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22391,7 +22391,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22927,7 +22927,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23449,7 +23449,7 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23475,11 +23475,11 @@
       </c>
       <c r="P270" t="inlineStr"/>
       <c r="Q270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S270" t="n">
@@ -23529,7 +23529,7 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23555,11 +23555,11 @@
       </c>
       <c r="P271" t="inlineStr"/>
       <c r="Q271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S271" t="n">
@@ -23603,7 +23603,7 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23629,11 +23629,11 @@
       </c>
       <c r="P272" t="inlineStr"/>
       <c r="Q272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S272" t="n">
@@ -23683,7 +23683,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23709,11 +23709,11 @@
       </c>
       <c r="P273" t="inlineStr"/>
       <c r="Q273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S273" t="n">
@@ -23767,7 +23767,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23851,7 +23851,7 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24467,7 +24467,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -25149,7 +25149,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25223,7 +25223,7 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25249,11 +25249,11 @@
       </c>
       <c r="P291" t="inlineStr"/>
       <c r="Q291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S291" t="n">
@@ -25293,7 +25293,7 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25319,11 +25319,11 @@
       </c>
       <c r="P292" t="inlineStr"/>
       <c r="Q292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S292" t="n">
@@ -25373,7 +25373,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25399,11 +25399,11 @@
       </c>
       <c r="P293" t="inlineStr"/>
       <c r="Q293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S293" t="n">
@@ -25457,7 +25457,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25483,11 +25483,11 @@
       </c>
       <c r="P294" t="inlineStr"/>
       <c r="Q294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S294" t="n">
@@ -25545,7 +25545,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U295" t="n">
         <v>1850</v>
@@ -25633,7 +25633,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="T296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U296" t="n">
         <v>1850</v>
@@ -25721,7 +25721,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25758,7 +25758,7 @@
         <v>1</v>
       </c>
       <c r="T297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U297" t="n">
         <v>1656</v>
@@ -25809,7 +25809,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="T298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U298" t="n">
         <v>1656</v>
@@ -25897,7 +25897,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25934,7 +25934,7 @@
         <v>0</v>
       </c>
       <c r="T299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U299" t="n">
         <v>1656</v>
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26022,7 +26022,7 @@
         <v>0</v>
       </c>
       <c r="T300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U300" t="n">
         <v>1656</v>
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26110,7 +26110,7 @@
         <v>0</v>
       </c>
       <c r="T301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U301" t="n">
         <v>1656</v>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26198,7 +26198,7 @@
         <v>0</v>
       </c>
       <c r="T302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U302" t="n">
         <v>1656</v>
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26275,18 +26275,18 @@
       </c>
       <c r="P303" t="inlineStr"/>
       <c r="Q303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S303" t="n">
         <v>1</v>
       </c>
       <c r="T303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U303" t="n">
         <v>1850</v>
@@ -26337,7 +26337,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26363,18 +26363,18 @@
       </c>
       <c r="P304" t="inlineStr"/>
       <c r="Q304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S304" t="n">
         <v>0</v>
       </c>
       <c r="T304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U304" t="n">
         <v>1850</v>
@@ -26425,7 +26425,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26459,10 +26459,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T305" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U305" t="n">
         <v>1850</v>
@@ -26513,7 +26513,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26550,7 +26550,7 @@
         <v>0</v>
       </c>
       <c r="T306" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U306" t="n">
         <v>1850</v>
@@ -26601,7 +26601,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26638,7 +26638,7 @@
         <v>1</v>
       </c>
       <c r="T307" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U307" t="n">
         <v>1656</v>
@@ -26689,7 +26689,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26726,7 +26726,7 @@
         <v>0</v>
       </c>
       <c r="T308" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U308" t="n">
         <v>1656</v>
@@ -26777,7 +26777,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26814,7 +26814,7 @@
         <v>0</v>
       </c>
       <c r="T309" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U309" t="n">
         <v>1656</v>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="T310" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U310" t="n">
         <v>1656</v>
@@ -26953,7 +26953,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26990,7 +26990,7 @@
         <v>1</v>
       </c>
       <c r="T311" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U311" t="n">
         <v>1850</v>
@@ -27041,7 +27041,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27078,7 +27078,7 @@
         <v>0</v>
       </c>
       <c r="T312" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U312" t="n">
         <v>1850</v>
@@ -27129,7 +27129,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="T313" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U313" t="n">
         <v>1850</v>
@@ -27217,7 +27217,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27254,7 +27254,7 @@
         <v>0</v>
       </c>
       <c r="T314" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U314" t="n">
         <v>1850</v>
@@ -27291,7 +27291,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27375,7 +27375,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Hungary', 'Germany', 'France']</t>
+          <t>['Germany', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27727,7 +27727,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28065,7 +28065,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28145,7 +28145,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28321,7 +28321,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28409,7 +28409,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28435,18 +28435,18 @@
       </c>
       <c r="P328" t="inlineStr"/>
       <c r="Q328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U328" t="n">
         <v>1770</v>
@@ -28483,7 +28483,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28509,11 +28509,11 @@
       </c>
       <c r="P329" t="inlineStr"/>
       <c r="Q329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="S329" t="n">
@@ -28563,7 +28563,7 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28589,11 +28589,11 @@
       </c>
       <c r="P330" t="inlineStr"/>
       <c r="Q330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="S330" t="n">
@@ -28651,7 +28651,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28685,10 +28685,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U331" t="n">
         <v>1623</v>
@@ -28739,7 +28739,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28776,7 +28776,7 @@
         <v>1</v>
       </c>
       <c r="T332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U332" t="n">
         <v>1969</v>
@@ -28827,7 +28827,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28864,7 +28864,7 @@
         <v>1</v>
       </c>
       <c r="T333" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U333" t="n">
         <v>1969</v>
@@ -28901,7 +28901,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28981,7 +28981,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29065,7 +29065,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29139,7 +29139,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29165,11 +29165,11 @@
       </c>
       <c r="P337" t="inlineStr"/>
       <c r="Q337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="S337" t="n">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29257,10 +29257,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U338" t="n">
         <v>1975</v>
@@ -29311,7 +29311,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29348,7 +29348,7 @@
         <v>0</v>
       </c>
       <c r="T339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U339" t="n">
         <v>1975</v>
@@ -29399,7 +29399,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="T340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U340" t="n">
         <v>2077</v>
@@ -29487,7 +29487,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="T341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U341" t="n">
         <v>1975</v>
@@ -29575,7 +29575,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29612,7 +29612,7 @@
         <v>0</v>
       </c>
       <c r="T342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U342" t="n">
         <v>1975</v>
@@ -29663,7 +29663,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="T343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U343" t="n">
         <v>2077</v>
@@ -29751,7 +29751,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29788,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="T344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U344" t="n">
         <v>1975</v>
@@ -29825,7 +29825,7 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Ukraine']</t>
+          <t>['Romania', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29851,11 +29851,11 @@
       </c>
       <c r="P345" t="inlineStr"/>
       <c r="Q345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania']</t>
+          <t>['Ukraine', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="S345" t="n">
@@ -29905,7 +29905,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Ukraine']</t>
+          <t>['Belgium', 'Ukraine', 'Slovakia']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30155,7 +30155,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30181,11 +30181,11 @@
       </c>
       <c r="P349" t="inlineStr"/>
       <c r="Q349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="S349" t="n">
@@ -30235,7 +30235,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30261,11 +30261,11 @@
       </c>
       <c r="P350" t="inlineStr"/>
       <c r="Q350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="S350" t="n">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30503,7 +30503,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -657,7 +657,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2539,7 +2539,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2619,7 +2619,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3153,7 +3153,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5207,7 +5207,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5893,7 +5893,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5973,7 +5973,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7353,7 +7353,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7433,7 +7433,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8231,7 +8231,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8311,7 +8311,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8833,7 +8833,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8913,7 +8913,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9603,7 +9603,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9683,7 +9683,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10879,7 +10879,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -11227,7 +11227,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -12859,7 +12859,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13197,7 +13197,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13277,7 +13277,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -14381,7 +14381,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14461,7 +14461,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14545,7 +14545,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14809,7 +14809,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15565,7 +15565,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15645,7 +15645,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15729,7 +15729,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15979,7 +15979,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -17083,7 +17083,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17163,7 +17163,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17247,7 +17247,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17585,7 +17585,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17665,7 +17665,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17749,7 +17749,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Albania', 'France']</t>
+          <t>['Switzerland', 'France', 'Albania']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17911,7 +17911,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17991,7 +17991,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18079,7 +18079,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18421,7 +18421,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18501,7 +18501,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18585,7 +18585,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -19429,7 +19429,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19509,7 +19509,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19593,7 +19593,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19843,7 +19843,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20543,7 +20543,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20705,7 +20705,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20775,7 +20775,7 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20855,7 +20855,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20939,7 +20939,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21027,7 +21027,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21115,7 +21115,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21291,7 +21291,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21379,7 +21379,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21467,7 +21467,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21555,7 +21555,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21643,7 +21643,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21893,7 +21893,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21973,7 +21973,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22047,7 +22047,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22127,7 +22127,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22391,7 +22391,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22927,7 +22927,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -23375,7 +23375,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -23449,7 +23449,7 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23529,7 +23529,7 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23603,7 +23603,7 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23683,7 +23683,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23767,7 +23767,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23851,7 +23851,7 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24467,7 +24467,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24629,7 +24629,7 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24709,7 +24709,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24797,7 +24797,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24885,7 +24885,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25149,7 +25149,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25223,7 +25223,7 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25293,7 +25293,7 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25373,7 +25373,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25457,7 +25457,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25545,7 +25545,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25633,7 +25633,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25897,7 +25897,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26337,7 +26337,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26425,7 +26425,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26513,7 +26513,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26689,7 +26689,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26777,7 +26777,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26953,7 +26953,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27129,7 +27129,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27217,7 +27217,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27291,7 +27291,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27375,7 +27375,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Hungary']</t>
+          <t>['Germany', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27727,7 +27727,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28065,7 +28065,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28145,7 +28145,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28321,7 +28321,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28409,7 +28409,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Switzerland', 'Hungary', 'Germany']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28483,7 +28483,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28563,7 +28563,7 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28901,7 +28901,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28981,7 +28981,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29065,7 +29065,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29139,7 +29139,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29575,7 +29575,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29663,7 +29663,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29751,7 +29751,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29825,7 +29825,7 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Romania', 'Ukraine', 'Belgium']</t>
+          <t>['Belgium', 'Ukraine', 'Romania']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29905,7 +29905,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ukraine', 'Slovakia']</t>
+          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30155,7 +30155,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30235,7 +30235,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30503,7 +30503,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3153,7 +3153,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3751,7 +3751,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3831,7 +3831,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4525,7 +4525,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4605,7 +4605,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5207,7 +5207,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5893,7 +5893,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5973,7 +5973,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7353,7 +7353,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7433,7 +7433,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -9603,7 +9603,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9683,7 +9683,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10879,7 +10879,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -11227,7 +11227,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -12859,7 +12859,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13967,7 +13967,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -14047,7 +14047,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14131,7 +14131,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14381,7 +14381,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14461,7 +14461,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14545,7 +14545,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14809,7 +14809,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15565,7 +15565,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15645,7 +15645,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15729,7 +15729,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Greece', 'Russia']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Greece']</t>
+          <t>['Greece', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -15979,7 +15979,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -16581,7 +16581,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16661,7 +16661,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16745,7 +16745,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -17083,7 +17083,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17163,7 +17163,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17247,7 +17247,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17911,7 +17911,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17991,7 +17991,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18079,7 +18079,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18835,7 +18835,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18915,7 +18915,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19003,7 +19003,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19267,7 +19267,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19355,7 +19355,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19843,7 +19843,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20543,7 +20543,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -21893,7 +21893,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21973,7 +21973,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -22047,7 +22047,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22127,7 +22127,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22215,7 +22215,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23449,7 +23449,7 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23529,7 +23529,7 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23603,7 +23603,7 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23683,7 +23683,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23767,7 +23767,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23851,7 +23851,7 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24467,7 +24467,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24629,7 +24629,7 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24709,7 +24709,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24797,7 +24797,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24885,7 +24885,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25149,7 +25149,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25223,7 +25223,7 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25293,7 +25293,7 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25373,7 +25373,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25457,7 +25457,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25545,7 +25545,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25633,7 +25633,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25897,7 +25897,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26337,7 +26337,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26425,7 +26425,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26513,7 +26513,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26689,7 +26689,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26777,7 +26777,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26953,7 +26953,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27129,7 +27129,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27217,7 +27217,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27291,7 +27291,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27375,7 +27375,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27727,7 +27727,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28065,7 +28065,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -28145,7 +28145,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -28321,7 +28321,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -28409,7 +28409,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Hungary', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -28483,7 +28483,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28563,7 +28563,7 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28651,7 +28651,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28739,7 +28739,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28901,7 +28901,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28981,7 +28981,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29065,7 +29065,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29139,7 +29139,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29575,7 +29575,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29663,7 +29663,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29751,7 +29751,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29825,7 +29825,7 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ukraine', 'Romania']</t>
+          <t>['Romania', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29905,7 +29905,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30155,7 +30155,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30235,7 +30235,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30503,7 +30503,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -657,7 +657,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -833,7 +833,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1523,7 +1523,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1603,7 +1603,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1687,7 +1687,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1941,7 +1941,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2021,7 +2021,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -2109,7 +2109,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -5207,7 +5207,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -6587,7 +6587,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -6667,7 +6667,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -6751,7 +6751,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -7353,7 +7353,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -7433,7 +7433,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -8231,7 +8231,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -8311,7 +8311,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -8833,7 +8833,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -8913,7 +8913,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -9603,7 +9603,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -9683,7 +9683,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9745,7 +9745,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -10515,7 +10515,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -10779,7 +10779,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10867,7 +10867,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -10879,7 +10879,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -11227,7 +11227,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -11377,7 +11377,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -11887,7 +11887,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -11975,7 +11975,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -12239,7 +12239,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -12415,7 +12415,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -12573,7 +12573,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -12657,7 +12657,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -12833,7 +12833,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -13009,7 +13009,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -13185,7 +13185,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -13427,7 +13427,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -13779,7 +13779,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -14193,7 +14193,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -14369,7 +14369,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -14439,7 +14439,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -14607,7 +14607,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14695,7 +14695,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -14809,7 +14809,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14871,7 +14871,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14959,7 +14959,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -14971,7 +14971,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -15029,7 +15029,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -15051,7 +15051,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -15201,7 +15201,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -15289,7 +15289,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -15465,7 +15465,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>20:45:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -15565,7 +15565,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -15645,7 +15645,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15707,7 +15707,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -15729,7 +15729,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -15879,7 +15879,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -15967,7 +15967,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -16037,7 +16037,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -16125,7 +16125,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -16213,7 +16213,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -16389,7 +16389,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -16481,7 +16481,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -16569,7 +16569,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -16639,7 +16639,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -16895,7 +16895,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -17009,7 +17009,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -17083,7 +17083,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -17141,7 +17141,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -17163,7 +17163,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -17225,7 +17225,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -17247,7 +17247,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -17309,7 +17309,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -17397,7 +17397,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>18:45:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -17573,7 +17573,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -17585,7 +17585,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17611,11 +17611,11 @@
       </c>
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="S201" t="n">
@@ -17643,7 +17643,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -17665,7 +17665,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17691,11 +17691,11 @@
       </c>
       <c r="P202" t="inlineStr"/>
       <c r="Q202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="S202" t="n">
@@ -17727,7 +17727,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -17749,7 +17749,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17775,11 +17775,11 @@
       </c>
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="S203" t="n">
@@ -17811,7 +17811,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Albania']</t>
+          <t>['France', 'Switzerland', 'Albania']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17863,18 +17863,18 @@
       </c>
       <c r="P204" t="inlineStr"/>
       <c r="Q204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Albania']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U204" t="n">
         <v>1759</v>
@@ -17899,7 +17899,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -17911,7 +17911,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -17937,11 +17937,11 @@
       </c>
       <c r="P205" t="inlineStr"/>
       <c r="Q205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="S205" t="n">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -17991,7 +17991,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -18021,11 +18021,11 @@
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="S206" t="n">
@@ -18057,7 +18057,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -18079,7 +18079,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -18109,11 +18109,11 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="S207" t="n">
@@ -18145,7 +18145,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -18197,11 +18197,11 @@
       </c>
       <c r="P208" t="inlineStr"/>
       <c r="Q208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'England']</t>
         </is>
       </c>
       <c r="S208" t="n">
@@ -18233,7 +18233,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -18285,11 +18285,11 @@
       </c>
       <c r="P209" t="inlineStr"/>
       <c r="Q209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'England']</t>
         </is>
       </c>
       <c r="S209" t="n">
@@ -18321,7 +18321,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -18373,11 +18373,11 @@
       </c>
       <c r="P210" t="inlineStr"/>
       <c r="Q210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Wales', 'England']</t>
         </is>
       </c>
       <c r="S210" t="n">
@@ -18409,7 +18409,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -18447,11 +18447,11 @@
       </c>
       <c r="P211" t="inlineStr"/>
       <c r="Q211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="S211" t="n">
@@ -18479,7 +18479,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -18527,11 +18527,11 @@
       </c>
       <c r="P212" t="inlineStr"/>
       <c r="Q212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="S212" t="n">
@@ -18563,7 +18563,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -18611,11 +18611,11 @@
       </c>
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="S213" t="n">
@@ -18647,7 +18647,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -18699,11 +18699,11 @@
       </c>
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="S214" t="n">
@@ -18735,7 +18735,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -18787,11 +18787,11 @@
       </c>
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="S215" t="n">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -18893,7 +18893,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -18977,7 +18977,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -19065,7 +19065,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19153,7 +19153,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19241,7 +19241,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -19267,7 +19267,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19293,18 +19293,18 @@
       </c>
       <c r="P221" t="inlineStr"/>
       <c r="Q221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U221" t="n">
         <v>1755</v>
@@ -19329,7 +19329,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -19355,7 +19355,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19381,18 +19381,18 @@
       </c>
       <c r="P222" t="inlineStr"/>
       <c r="Q222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="S222" t="n">
         <v>0</v>
       </c>
       <c r="T222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U222" t="n">
         <v>1818</v>
@@ -19417,7 +19417,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -19429,7 +19429,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -19509,7 +19509,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -19593,7 +19593,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19655,7 +19655,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19743,7 +19743,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19795,18 +19795,18 @@
       </c>
       <c r="P227" t="inlineStr"/>
       <c r="Q227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U227" t="n">
         <v>1875</v>
@@ -19831,7 +19831,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -19843,7 +19843,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19869,11 +19869,11 @@
       </c>
       <c r="P228" t="inlineStr"/>
       <c r="Q228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S228" t="n">
@@ -19901,7 +19901,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -19953,11 +19953,11 @@
       </c>
       <c r="P229" t="inlineStr"/>
       <c r="Q229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S229" t="n">
@@ -19989,7 +19989,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20049,10 +20049,10 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U230" t="n">
         <v>1697</v>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20129,18 +20129,18 @@
       </c>
       <c r="P231" t="inlineStr"/>
       <c r="Q231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U231" t="n">
         <v>1697</v>
@@ -20165,7 +20165,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20225,10 +20225,10 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U232" t="n">
         <v>1697</v>
@@ -20253,7 +20253,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20305,18 +20305,18 @@
       </c>
       <c r="P233" t="inlineStr"/>
       <c r="Q233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T233" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U233" t="n">
         <v>1697</v>
@@ -20341,7 +20341,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20401,10 +20401,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T234" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U234" t="n">
         <v>1697</v>
@@ -20429,7 +20429,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20492,7 +20492,7 @@
         <v>0</v>
       </c>
       <c r="T235" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U235" t="n">
         <v>1666</v>
@@ -20517,7 +20517,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -20543,7 +20543,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20569,18 +20569,18 @@
       </c>
       <c r="P236" t="inlineStr"/>
       <c r="Q236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="S236" t="n">
         <v>1</v>
       </c>
       <c r="T236" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U236" t="n">
         <v>1697</v>
@@ -20605,7 +20605,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20657,18 +20657,18 @@
       </c>
       <c r="P237" t="inlineStr"/>
       <c r="Q237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="S237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T237" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U237" t="n">
         <v>1666</v>
@@ -20693,7 +20693,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -20705,7 +20705,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20763,7 +20763,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -20775,7 +20775,7 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20833,7 +20833,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -20855,7 +20855,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20917,7 +20917,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -20939,7 +20939,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21001,7 +21001,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -21027,7 +21027,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21053,18 +21053,18 @@
       </c>
       <c r="P242" t="inlineStr"/>
       <c r="Q242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U242" t="n">
         <v>1890</v>
@@ -21089,7 +21089,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -21115,7 +21115,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21141,18 +21141,18 @@
       </c>
       <c r="P243" t="inlineStr"/>
       <c r="Q243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S243" t="n">
         <v>0</v>
       </c>
       <c r="T243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U243" t="n">
         <v>1890</v>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21229,18 +21229,18 @@
       </c>
       <c r="P244" t="inlineStr"/>
       <c r="Q244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S244" t="n">
         <v>0</v>
       </c>
       <c r="T244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U244" t="n">
         <v>1890</v>
@@ -21265,7 +21265,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -21291,7 +21291,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21317,18 +21317,18 @@
       </c>
       <c r="P245" t="inlineStr"/>
       <c r="Q245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S245" t="n">
         <v>0</v>
       </c>
       <c r="T245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U245" t="n">
         <v>1890</v>
@@ -21353,7 +21353,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -21379,7 +21379,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21405,18 +21405,18 @@
       </c>
       <c r="P246" t="inlineStr"/>
       <c r="Q246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S246" t="n">
         <v>0</v>
       </c>
       <c r="T246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U246" t="n">
         <v>2014</v>
@@ -21441,7 +21441,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -21467,7 +21467,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21493,18 +21493,18 @@
       </c>
       <c r="P247" t="inlineStr"/>
       <c r="Q247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S247" t="n">
         <v>0</v>
       </c>
       <c r="T247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U247" t="n">
         <v>2014</v>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -21555,7 +21555,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21581,18 +21581,18 @@
       </c>
       <c r="P248" t="inlineStr"/>
       <c r="Q248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S248" t="n">
         <v>0</v>
       </c>
       <c r="T248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U248" t="n">
         <v>1890</v>
@@ -21617,7 +21617,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -21643,7 +21643,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21669,18 +21669,18 @@
       </c>
       <c r="P249" t="inlineStr"/>
       <c r="Q249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S249" t="n">
         <v>0</v>
       </c>
       <c r="T249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U249" t="n">
         <v>1890</v>
@@ -21705,7 +21705,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21757,18 +21757,18 @@
       </c>
       <c r="P250" t="inlineStr"/>
       <c r="Q250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S250" t="n">
         <v>0</v>
       </c>
       <c r="T250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U250" t="n">
         <v>1890</v>
@@ -21793,7 +21793,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21845,18 +21845,18 @@
       </c>
       <c r="P251" t="inlineStr"/>
       <c r="Q251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="S251" t="n">
         <v>0</v>
       </c>
       <c r="T251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U251" t="n">
         <v>1890</v>
@@ -21881,7 +21881,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -21893,7 +21893,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21919,11 +21919,11 @@
       </c>
       <c r="P252" t="inlineStr"/>
       <c r="Q252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="S252" t="n">
@@ -21951,7 +21951,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -21973,7 +21973,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -21999,11 +21999,11 @@
       </c>
       <c r="P253" t="inlineStr"/>
       <c r="Q253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="S253" t="n">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -22047,7 +22047,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22073,11 +22073,11 @@
       </c>
       <c r="P254" t="inlineStr"/>
       <c r="Q254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="S254" t="n">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -22127,7 +22127,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22153,11 +22153,11 @@
       </c>
       <c r="P255" t="inlineStr"/>
       <c r="Q255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="S255" t="n">
@@ -22189,7 +22189,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -22277,7 +22277,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -22365,7 +22365,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -22453,7 +22453,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -22541,7 +22541,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -22629,7 +22629,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -22717,7 +22717,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22809,7 +22809,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -22901,7 +22901,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -22989,7 +22989,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -23077,7 +23077,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23169,7 +23169,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23261,7 +23261,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -23349,7 +23349,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -23437,7 +23437,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -23449,7 +23449,7 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23475,11 +23475,11 @@
       </c>
       <c r="P270" t="inlineStr"/>
       <c r="Q270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S270" t="n">
@@ -23507,7 +23507,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -23529,7 +23529,7 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23555,11 +23555,11 @@
       </c>
       <c r="P271" t="inlineStr"/>
       <c r="Q271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S271" t="n">
@@ -23591,7 +23591,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -23603,7 +23603,7 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23629,11 +23629,11 @@
       </c>
       <c r="P272" t="inlineStr"/>
       <c r="Q272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S272" t="n">
@@ -23661,7 +23661,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -23683,7 +23683,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23709,11 +23709,11 @@
       </c>
       <c r="P273" t="inlineStr"/>
       <c r="Q273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="S273" t="n">
@@ -23745,7 +23745,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -23767,7 +23767,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23829,7 +23829,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -23851,7 +23851,7 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23913,7 +23913,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24001,7 +24001,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24089,7 +24089,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24177,7 +24177,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24265,7 +24265,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24353,7 +24353,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24441,7 +24441,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -24467,7 +24467,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24529,7 +24529,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E283" t="n">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24617,7 +24617,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -24629,7 +24629,7 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24687,7 +24687,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -24709,7 +24709,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24771,7 +24771,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E286" t="n">
@@ -24797,7 +24797,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24859,7 +24859,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E287" t="n">
@@ -24885,7 +24885,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24911,18 +24911,18 @@
       </c>
       <c r="P287" t="inlineStr"/>
       <c r="Q287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U287" t="n">
         <v>1825</v>
@@ -24947,7 +24947,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E288" t="n">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25007,10 +25007,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U288" t="n">
         <v>1825</v>
@@ -25035,7 +25035,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25098,7 +25098,7 @@
         <v>0</v>
       </c>
       <c r="T289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U289" t="n">
         <v>1825</v>
@@ -25123,7 +25123,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -25149,7 +25149,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25175,18 +25175,18 @@
       </c>
       <c r="P290" t="inlineStr"/>
       <c r="Q290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['England', 'Croatia']</t>
         </is>
       </c>
       <c r="S290" t="n">
         <v>1</v>
       </c>
       <c r="T290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U290" t="n">
         <v>1825</v>
@@ -25211,7 +25211,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -25223,7 +25223,7 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25249,11 +25249,11 @@
       </c>
       <c r="P291" t="inlineStr"/>
       <c r="Q291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S291" t="n">
@@ -25281,7 +25281,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -25293,7 +25293,7 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25319,11 +25319,11 @@
       </c>
       <c r="P292" t="inlineStr"/>
       <c r="Q292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S292" t="n">
@@ -25351,7 +25351,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -25373,7 +25373,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25399,11 +25399,11 @@
       </c>
       <c r="P293" t="inlineStr"/>
       <c r="Q293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S293" t="n">
@@ -25435,7 +25435,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -25457,7 +25457,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25483,11 +25483,11 @@
       </c>
       <c r="P294" t="inlineStr"/>
       <c r="Q294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S294" t="n">
@@ -25519,7 +25519,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E295" t="n">
@@ -25545,7 +25545,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25571,11 +25571,11 @@
       </c>
       <c r="P295" t="inlineStr"/>
       <c r="Q295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S295" t="n">
@@ -25607,7 +25607,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E296" t="n">
@@ -25633,7 +25633,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25659,11 +25659,11 @@
       </c>
       <c r="P296" t="inlineStr"/>
       <c r="Q296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S296" t="n">
@@ -25695,7 +25695,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25783,7 +25783,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25871,7 +25871,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -25897,7 +25897,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25959,7 +25959,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26047,7 +26047,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26135,7 +26135,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26223,7 +26223,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26275,11 +26275,11 @@
       </c>
       <c r="P303" t="inlineStr"/>
       <c r="Q303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S303" t="n">
@@ -26311,7 +26311,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -26337,7 +26337,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26363,11 +26363,11 @@
       </c>
       <c r="P304" t="inlineStr"/>
       <c r="Q304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S304" t="n">
@@ -26399,7 +26399,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E305" t="n">
@@ -26425,7 +26425,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26451,11 +26451,11 @@
       </c>
       <c r="P305" t="inlineStr"/>
       <c r="Q305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S305" t="n">
@@ -26487,7 +26487,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -26513,7 +26513,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26539,11 +26539,11 @@
       </c>
       <c r="P306" t="inlineStr"/>
       <c r="Q306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S306" t="n">
@@ -26575,7 +26575,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26663,7 +26663,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -26689,7 +26689,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26751,7 +26751,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E309" t="n">
@@ -26777,7 +26777,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26839,7 +26839,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E310" t="n">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26927,7 +26927,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E311" t="n">
@@ -26953,7 +26953,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26979,11 +26979,11 @@
       </c>
       <c r="P311" t="inlineStr"/>
       <c r="Q311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S311" t="n">
@@ -27015,7 +27015,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E312" t="n">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27067,11 +27067,11 @@
       </c>
       <c r="P312" t="inlineStr"/>
       <c r="Q312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S312" t="n">
@@ -27103,7 +27103,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E313" t="n">
@@ -27129,7 +27129,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27155,11 +27155,11 @@
       </c>
       <c r="P313" t="inlineStr"/>
       <c r="Q313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S313" t="n">
@@ -27191,7 +27191,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -27217,7 +27217,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27243,11 +27243,11 @@
       </c>
       <c r="P314" t="inlineStr"/>
       <c r="Q314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="S314" t="n">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E315" t="n">
@@ -27291,7 +27291,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27317,11 +27317,11 @@
       </c>
       <c r="P315" t="inlineStr"/>
       <c r="Q315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['France', 'Germany']</t>
         </is>
       </c>
       <c r="S315" t="n">
@@ -27349,7 +27349,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E316" t="n">
@@ -27375,7 +27375,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27401,11 +27401,11 @@
       </c>
       <c r="P316" t="inlineStr"/>
       <c r="Q316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S316" t="n">
@@ -27437,7 +27437,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E317" t="n">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27489,11 +27489,11 @@
       </c>
       <c r="P317" t="inlineStr"/>
       <c r="Q317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'France']</t>
         </is>
       </c>
       <c r="S317" t="n">
@@ -27525,7 +27525,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E318" t="n">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27577,11 +27577,11 @@
       </c>
       <c r="P318" t="inlineStr"/>
       <c r="Q318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S318" t="n">
@@ -27613,7 +27613,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E319" t="n">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27701,7 +27701,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E320" t="n">
@@ -27727,7 +27727,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27753,11 +27753,11 @@
       </c>
       <c r="P320" t="inlineStr"/>
       <c r="Q320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="S320" t="n">
@@ -27789,7 +27789,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E321" t="n">
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27841,11 +27841,11 @@
       </c>
       <c r="P321" t="inlineStr"/>
       <c r="Q321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['France', 'Germany']</t>
         </is>
       </c>
       <c r="S321" t="n">
@@ -27877,7 +27877,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E322" t="n">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27965,7 +27965,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E323" t="n">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28017,11 +28017,11 @@
       </c>
       <c r="P323" t="inlineStr"/>
       <c r="Q323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['France', 'Germany']</t>
         </is>
       </c>
       <c r="S323" t="n">
@@ -28053,7 +28053,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E324" t="n">
@@ -28123,7 +28123,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E325" t="n">
@@ -28207,7 +28207,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E326" t="n">
@@ -28295,7 +28295,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E327" t="n">
@@ -28383,7 +28383,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E328" t="n">
@@ -28435,18 +28435,18 @@
       </c>
       <c r="P328" t="inlineStr"/>
       <c r="Q328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U328" t="n">
         <v>1770</v>
@@ -28471,7 +28471,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E329" t="n">
@@ -28483,7 +28483,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28509,11 +28509,11 @@
       </c>
       <c r="P329" t="inlineStr"/>
       <c r="Q329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="S329" t="n">
@@ -28541,7 +28541,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E330" t="n">
@@ -28563,7 +28563,7 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28589,11 +28589,11 @@
       </c>
       <c r="P330" t="inlineStr"/>
       <c r="Q330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="S330" t="n">
@@ -28625,7 +28625,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -28651,7 +28651,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28685,10 +28685,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U331" t="n">
         <v>1623</v>
@@ -28713,7 +28713,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -28739,7 +28739,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28765,18 +28765,18 @@
       </c>
       <c r="P332" t="inlineStr"/>
       <c r="Q332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="S332" t="n">
         <v>1</v>
       </c>
       <c r="T332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U332" t="n">
         <v>1969</v>
@@ -28801,7 +28801,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E333" t="n">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28864,7 +28864,7 @@
         <v>1</v>
       </c>
       <c r="T333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U333" t="n">
         <v>1969</v>
@@ -28889,7 +28889,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E334" t="n">
@@ -28901,7 +28901,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['Denmark', 'Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28959,7 +28959,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E335" t="n">
@@ -28981,7 +28981,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['Denmark', 'Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29043,7 +29043,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E336" t="n">
@@ -29065,7 +29065,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['Denmark', 'Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29127,7 +29127,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E337" t="n">
@@ -29139,7 +29139,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29165,11 +29165,11 @@
       </c>
       <c r="P337" t="inlineStr"/>
       <c r="Q337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="S337" t="n">
@@ -29197,7 +29197,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E338" t="n">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29249,18 +29249,18 @@
       </c>
       <c r="P338" t="inlineStr"/>
       <c r="Q338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'France']</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U338" t="n">
         <v>1975</v>
@@ -29285,7 +29285,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E339" t="n">
@@ -29311,7 +29311,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29337,18 +29337,18 @@
       </c>
       <c r="P339" t="inlineStr"/>
       <c r="Q339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="S339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U339" t="n">
         <v>1975</v>
@@ -29373,7 +29373,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E340" t="n">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29425,18 +29425,18 @@
       </c>
       <c r="P340" t="inlineStr"/>
       <c r="Q340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="S340" t="n">
         <v>0</v>
       </c>
       <c r="T340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U340" t="n">
         <v>2077</v>
@@ -29461,7 +29461,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E341" t="n">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29513,18 +29513,18 @@
       </c>
       <c r="P341" t="inlineStr"/>
       <c r="Q341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['France', 'Austria']</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T341" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U341" t="n">
         <v>1975</v>
@@ -29549,7 +29549,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E342" t="n">
@@ -29575,7 +29575,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29601,18 +29601,18 @@
       </c>
       <c r="P342" t="inlineStr"/>
       <c r="Q342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T342" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U342" t="n">
         <v>1975</v>
@@ -29637,7 +29637,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E343" t="n">
@@ -29663,7 +29663,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29689,18 +29689,18 @@
       </c>
       <c r="P343" t="inlineStr"/>
       <c r="Q343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="S343" t="n">
         <v>0</v>
       </c>
       <c r="T343" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U343" t="n">
         <v>2077</v>
@@ -29725,7 +29725,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E344" t="n">
@@ -29751,7 +29751,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29777,18 +29777,18 @@
       </c>
       <c r="P344" t="inlineStr"/>
       <c r="Q344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'France']</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T344" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U344" t="n">
         <v>1975</v>
@@ -29813,7 +29813,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E345" t="n">
@@ -29825,7 +29825,7 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Ukraine']</t>
+          <t>['Ukraine', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29851,11 +29851,11 @@
       </c>
       <c r="P345" t="inlineStr"/>
       <c r="Q345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania', 'Belgium']</t>
+          <t>['Ukraine', 'Romania']</t>
         </is>
       </c>
       <c r="S345" t="n">
@@ -29883,7 +29883,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E346" t="n">
@@ -29905,7 +29905,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29967,7 +29967,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E347" t="n">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
+          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30019,11 +30019,11 @@
       </c>
       <c r="P347" t="inlineStr"/>
       <c r="Q347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
+          <t>['Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="S347" t="n">
@@ -30055,7 +30055,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E348" t="n">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30107,11 +30107,11 @@
       </c>
       <c r="P348" t="inlineStr"/>
       <c r="Q348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="S348" t="n">
@@ -30143,7 +30143,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E349" t="n">
@@ -30213,7 +30213,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E350" t="n">
@@ -30297,7 +30297,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E351" t="n">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30353,18 +30353,18 @@
         </is>
       </c>
       <c r="Q351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U351" t="n">
         <v>1666</v>
@@ -30389,7 +30389,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E352" t="n">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30441,18 +30441,18 @@
       </c>
       <c r="P352" t="inlineStr"/>
       <c r="Q352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="S352" t="n">
         <v>0</v>
       </c>
       <c r="T352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U352" t="n">
         <v>1777</v>
@@ -30477,7 +30477,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E353" t="n">
@@ -30503,7 +30503,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30529,18 +30529,18 @@
       </c>
       <c r="P353" t="inlineStr"/>
       <c r="Q353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="S353" t="n">
         <v>0</v>
       </c>
       <c r="T353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U353" t="n">
         <v>1666</v>
@@ -30565,7 +30565,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E354" t="n">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30621,18 +30621,18 @@
         </is>
       </c>
       <c r="Q354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="S354" t="n">
         <v>0</v>
       </c>
       <c r="T354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U354" t="n">
         <v>1777</v>
@@ -30657,7 +30657,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E355" t="n">
@@ -30683,7 +30683,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Georgia', 'Turkey', 'Portugal']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30709,18 +30709,18 @@
       </c>
       <c r="P355" t="inlineStr"/>
       <c r="Q355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="S355" t="n">
         <v>0</v>
       </c>
       <c r="T355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U355" t="n">
         <v>1777</v>

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,7 +573,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1941,7 +1941,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2021,7 +2021,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2109,7 +2109,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2539,7 +2539,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2619,7 +2619,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3153,7 +3153,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3751,7 +3751,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3831,7 +3831,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6587,7 +6587,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6667,7 +6667,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6751,7 +6751,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -9603,7 +9603,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -9683,7 +9683,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10123,7 +10123,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10373,7 +10373,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10453,7 +10453,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -12515,7 +12515,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -12595,7 +12595,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -12771,7 +12771,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -12859,7 +12859,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -13197,7 +13197,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -13277,7 +13277,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -13541,7 +13541,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -13967,7 +13967,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -14047,7 +14047,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -14131,7 +14131,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -14381,7 +14381,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14461,7 +14461,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -14545,7 +14545,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -14809,7 +14809,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -14971,7 +14971,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -15051,7 +15051,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -15565,7 +15565,7 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -15645,7 +15645,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -15729,7 +15729,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -16063,7 +16063,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16239,7 +16239,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -16581,7 +16581,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -16661,7 +16661,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -16745,7 +16745,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -17585,7 +17585,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -17611,11 +17611,11 @@
       </c>
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="S201" t="n">
@@ -17665,7 +17665,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -17691,11 +17691,11 @@
       </c>
       <c r="P202" t="inlineStr"/>
       <c r="Q202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="S202" t="n">
@@ -17749,7 +17749,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -17775,11 +17775,11 @@
       </c>
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="S203" t="n">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Albania']</t>
+          <t>['Switzerland', 'France', 'Albania']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17863,18 +17863,18 @@
       </c>
       <c r="P204" t="inlineStr"/>
       <c r="Q204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Albania']</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U204" t="n">
         <v>1759</v>
@@ -17937,11 +17937,11 @@
       </c>
       <c r="P205" t="inlineStr"/>
       <c r="Q205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="S205" t="n">
@@ -18021,11 +18021,11 @@
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="S206" t="n">
@@ -18109,11 +18109,11 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="S207" t="n">
@@ -18197,11 +18197,11 @@
       </c>
       <c r="P208" t="inlineStr"/>
       <c r="Q208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S208" t="n">
@@ -18285,11 +18285,11 @@
       </c>
       <c r="P209" t="inlineStr"/>
       <c r="Q209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S209" t="n">
@@ -18373,11 +18373,11 @@
       </c>
       <c r="P210" t="inlineStr"/>
       <c r="Q210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="S210" t="n">
@@ -18421,7 +18421,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -18447,11 +18447,11 @@
       </c>
       <c r="P211" t="inlineStr"/>
       <c r="Q211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S211" t="n">
@@ -18501,7 +18501,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -18527,11 +18527,11 @@
       </c>
       <c r="P212" t="inlineStr"/>
       <c r="Q212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S212" t="n">
@@ -18585,7 +18585,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -18611,11 +18611,11 @@
       </c>
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S213" t="n">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -18699,11 +18699,11 @@
       </c>
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S214" t="n">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -18787,11 +18787,11 @@
       </c>
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="S215" t="n">
@@ -18835,7 +18835,7 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -18915,7 +18915,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -19003,7 +19003,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -19267,7 +19267,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -19293,18 +19293,18 @@
       </c>
       <c r="P221" t="inlineStr"/>
       <c r="Q221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U221" t="n">
         <v>1755</v>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -19381,18 +19381,18 @@
       </c>
       <c r="P222" t="inlineStr"/>
       <c r="Q222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="S222" t="n">
         <v>0</v>
       </c>
       <c r="T222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U222" t="n">
         <v>1818</v>
@@ -19429,7 +19429,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -19509,7 +19509,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -19593,7 +19593,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -19769,7 +19769,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -19795,18 +19795,18 @@
       </c>
       <c r="P227" t="inlineStr"/>
       <c r="Q227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U227" t="n">
         <v>1875</v>
@@ -19843,7 +19843,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -19869,11 +19869,11 @@
       </c>
       <c r="P228" t="inlineStr"/>
       <c r="Q228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S228" t="n">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -19953,11 +19953,11 @@
       </c>
       <c r="P229" t="inlineStr"/>
       <c r="Q229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S229" t="n">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -20049,10 +20049,10 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U230" t="n">
         <v>1697</v>
@@ -20103,7 +20103,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -20129,18 +20129,18 @@
       </c>
       <c r="P231" t="inlineStr"/>
       <c r="Q231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U231" t="n">
         <v>1697</v>
@@ -20191,7 +20191,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -20225,10 +20225,10 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T232" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U232" t="n">
         <v>1697</v>
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -20305,18 +20305,18 @@
       </c>
       <c r="P233" t="inlineStr"/>
       <c r="Q233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T233" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U233" t="n">
         <v>1697</v>
@@ -20367,7 +20367,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -20401,10 +20401,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T234" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U234" t="n">
         <v>1697</v>
@@ -20455,7 +20455,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -20492,7 +20492,7 @@
         <v>0</v>
       </c>
       <c r="T235" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U235" t="n">
         <v>1666</v>
@@ -20543,7 +20543,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -20569,18 +20569,18 @@
       </c>
       <c r="P236" t="inlineStr"/>
       <c r="Q236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="S236" t="n">
         <v>1</v>
       </c>
       <c r="T236" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U236" t="n">
         <v>1697</v>
@@ -20631,7 +20631,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -20657,18 +20657,18 @@
       </c>
       <c r="P237" t="inlineStr"/>
       <c r="Q237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T237" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U237" t="n">
         <v>1666</v>
@@ -20705,7 +20705,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -20775,7 +20775,7 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -20855,7 +20855,7 @@
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -20939,7 +20939,7 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -21027,7 +21027,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -21053,18 +21053,18 @@
       </c>
       <c r="P242" t="inlineStr"/>
       <c r="Q242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U242" t="n">
         <v>1890</v>
@@ -21115,7 +21115,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -21141,18 +21141,18 @@
       </c>
       <c r="P243" t="inlineStr"/>
       <c r="Q243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S243" t="n">
         <v>0</v>
       </c>
       <c r="T243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U243" t="n">
         <v>1890</v>
@@ -21203,7 +21203,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -21229,18 +21229,18 @@
       </c>
       <c r="P244" t="inlineStr"/>
       <c r="Q244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S244" t="n">
         <v>0</v>
       </c>
       <c r="T244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U244" t="n">
         <v>1890</v>
@@ -21291,7 +21291,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -21317,18 +21317,18 @@
       </c>
       <c r="P245" t="inlineStr"/>
       <c r="Q245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S245" t="n">
         <v>0</v>
       </c>
       <c r="T245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U245" t="n">
         <v>1890</v>
@@ -21379,7 +21379,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -21405,18 +21405,18 @@
       </c>
       <c r="P246" t="inlineStr"/>
       <c r="Q246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S246" t="n">
         <v>0</v>
       </c>
       <c r="T246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U246" t="n">
         <v>2014</v>
@@ -21467,7 +21467,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -21493,18 +21493,18 @@
       </c>
       <c r="P247" t="inlineStr"/>
       <c r="Q247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S247" t="n">
         <v>0</v>
       </c>
       <c r="T247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U247" t="n">
         <v>2014</v>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -21581,18 +21581,18 @@
       </c>
       <c r="P248" t="inlineStr"/>
       <c r="Q248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S248" t="n">
         <v>0</v>
       </c>
       <c r="T248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U248" t="n">
         <v>1890</v>
@@ -21643,7 +21643,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -21669,18 +21669,18 @@
       </c>
       <c r="P249" t="inlineStr"/>
       <c r="Q249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S249" t="n">
         <v>0</v>
       </c>
       <c r="T249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U249" t="n">
         <v>1890</v>
@@ -21731,7 +21731,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -21757,18 +21757,18 @@
       </c>
       <c r="P250" t="inlineStr"/>
       <c r="Q250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S250" t="n">
         <v>0</v>
       </c>
       <c r="T250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U250" t="n">
         <v>1890</v>
@@ -21819,7 +21819,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -21845,18 +21845,18 @@
       </c>
       <c r="P251" t="inlineStr"/>
       <c r="Q251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="S251" t="n">
         <v>0</v>
       </c>
       <c r="T251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U251" t="n">
         <v>1890</v>
@@ -21893,7 +21893,7 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -21919,11 +21919,11 @@
       </c>
       <c r="P252" t="inlineStr"/>
       <c r="Q252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="S252" t="n">
@@ -21973,7 +21973,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -21999,11 +21999,11 @@
       </c>
       <c r="P253" t="inlineStr"/>
       <c r="Q253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="S253" t="n">
@@ -22047,7 +22047,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -22073,11 +22073,11 @@
       </c>
       <c r="P254" t="inlineStr"/>
       <c r="Q254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="S254" t="n">
@@ -22127,7 +22127,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -22153,11 +22153,11 @@
       </c>
       <c r="P255" t="inlineStr"/>
       <c r="Q255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="S255" t="n">
@@ -22215,7 +22215,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -22567,7 +22567,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -22835,7 +22835,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -23449,7 +23449,7 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -23475,11 +23475,11 @@
       </c>
       <c r="P270" t="inlineStr"/>
       <c r="Q270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S270" t="n">
@@ -23529,7 +23529,7 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -23555,11 +23555,11 @@
       </c>
       <c r="P271" t="inlineStr"/>
       <c r="Q271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S271" t="n">
@@ -23603,7 +23603,7 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -23629,11 +23629,11 @@
       </c>
       <c r="P272" t="inlineStr"/>
       <c r="Q272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S272" t="n">
@@ -23683,7 +23683,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -23709,11 +23709,11 @@
       </c>
       <c r="P273" t="inlineStr"/>
       <c r="Q273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="S273" t="n">
@@ -23767,7 +23767,7 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -23851,7 +23851,7 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -24467,7 +24467,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -24629,7 +24629,7 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -24709,7 +24709,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -24797,7 +24797,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -24885,7 +24885,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -24911,18 +24911,18 @@
       </c>
       <c r="P287" t="inlineStr"/>
       <c r="Q287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U287" t="n">
         <v>1825</v>
@@ -24973,7 +24973,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -25007,10 +25007,10 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U288" t="n">
         <v>1825</v>
@@ -25061,7 +25061,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -25087,18 +25087,18 @@
       </c>
       <c r="P289" t="inlineStr"/>
       <c r="Q289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T289" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U289" t="n">
         <v>1825</v>
@@ -25149,7 +25149,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -25175,18 +25175,18 @@
       </c>
       <c r="P290" t="inlineStr"/>
       <c r="Q290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>['England', 'Croatia']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T290" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U290" t="n">
         <v>1825</v>
@@ -25223,7 +25223,7 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -25249,11 +25249,11 @@
       </c>
       <c r="P291" t="inlineStr"/>
       <c r="Q291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S291" t="n">
@@ -25293,7 +25293,7 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -25319,11 +25319,11 @@
       </c>
       <c r="P292" t="inlineStr"/>
       <c r="Q292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S292" t="n">
@@ -25373,7 +25373,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -25407,10 +25407,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U293" t="n">
         <v>1656</v>
@@ -25457,7 +25457,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -25494,7 +25494,7 @@
         <v>0</v>
       </c>
       <c r="T294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U294" t="n">
         <v>1656</v>
@@ -25545,7 +25545,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -25571,18 +25571,18 @@
       </c>
       <c r="P295" t="inlineStr"/>
       <c r="Q295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U295" t="n">
         <v>1850</v>
@@ -25633,7 +25633,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -25659,18 +25659,18 @@
       </c>
       <c r="P296" t="inlineStr"/>
       <c r="Q296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S296" t="n">
         <v>0</v>
       </c>
       <c r="T296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U296" t="n">
         <v>1850</v>
@@ -25721,7 +25721,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -25758,7 +25758,7 @@
         <v>1</v>
       </c>
       <c r="T297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U297" t="n">
         <v>1656</v>
@@ -25809,7 +25809,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="T298" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U298" t="n">
         <v>1656</v>
@@ -25897,7 +25897,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -25934,7 +25934,7 @@
         <v>0</v>
       </c>
       <c r="T299" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U299" t="n">
         <v>1656</v>
@@ -25985,7 +25985,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -26022,7 +26022,7 @@
         <v>0</v>
       </c>
       <c r="T300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U300" t="n">
         <v>1656</v>
@@ -26073,7 +26073,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -26110,7 +26110,7 @@
         <v>0</v>
       </c>
       <c r="T301" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U301" t="n">
         <v>1656</v>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -26198,7 +26198,7 @@
         <v>0</v>
       </c>
       <c r="T302" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U302" t="n">
         <v>1656</v>
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -26275,18 +26275,18 @@
       </c>
       <c r="P303" t="inlineStr"/>
       <c r="Q303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S303" t="n">
         <v>1</v>
       </c>
       <c r="T303" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U303" t="n">
         <v>1850</v>
@@ -26337,7 +26337,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -26363,18 +26363,18 @@
       </c>
       <c r="P304" t="inlineStr"/>
       <c r="Q304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S304" t="n">
         <v>0</v>
       </c>
       <c r="T304" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U304" t="n">
         <v>1850</v>
@@ -26425,7 +26425,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -26451,18 +26451,18 @@
       </c>
       <c r="P305" t="inlineStr"/>
       <c r="Q305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S305" t="n">
         <v>0</v>
       </c>
       <c r="T305" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U305" t="n">
         <v>1850</v>
@@ -26513,7 +26513,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -26539,18 +26539,18 @@
       </c>
       <c r="P306" t="inlineStr"/>
       <c r="Q306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S306" t="n">
         <v>0</v>
       </c>
       <c r="T306" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U306" t="n">
         <v>1850</v>
@@ -26601,7 +26601,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -26638,7 +26638,7 @@
         <v>1</v>
       </c>
       <c r="T307" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U307" t="n">
         <v>1656</v>
@@ -26689,7 +26689,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -26726,7 +26726,7 @@
         <v>0</v>
       </c>
       <c r="T308" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U308" t="n">
         <v>1656</v>
@@ -26777,7 +26777,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -26814,7 +26814,7 @@
         <v>0</v>
       </c>
       <c r="T309" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U309" t="n">
         <v>1656</v>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="T310" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U310" t="n">
         <v>1656</v>
@@ -26953,7 +26953,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -26979,18 +26979,18 @@
       </c>
       <c r="P311" t="inlineStr"/>
       <c r="Q311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S311" t="n">
         <v>1</v>
       </c>
       <c r="T311" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U311" t="n">
         <v>1850</v>
@@ -27041,7 +27041,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -27067,18 +27067,18 @@
       </c>
       <c r="P312" t="inlineStr"/>
       <c r="Q312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S312" t="n">
         <v>0</v>
       </c>
       <c r="T312" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U312" t="n">
         <v>1850</v>
@@ -27129,7 +27129,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -27155,18 +27155,18 @@
       </c>
       <c r="P313" t="inlineStr"/>
       <c r="Q313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S313" t="n">
         <v>0</v>
       </c>
       <c r="T313" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U313" t="n">
         <v>1850</v>
@@ -27217,7 +27217,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -27243,18 +27243,18 @@
       </c>
       <c r="P314" t="inlineStr"/>
       <c r="Q314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="S314" t="n">
         <v>0</v>
       </c>
       <c r="T314" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U314" t="n">
         <v>1850</v>
@@ -27291,7 +27291,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -27317,11 +27317,11 @@
       </c>
       <c r="P315" t="inlineStr"/>
       <c r="Q315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>['France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="S315" t="n">
@@ -27375,7 +27375,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -27401,11 +27401,11 @@
       </c>
       <c r="P316" t="inlineStr"/>
       <c r="Q316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S316" t="n">
@@ -27463,7 +27463,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -27489,11 +27489,11 @@
       </c>
       <c r="P317" t="inlineStr"/>
       <c r="Q317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="S317" t="n">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -27577,11 +27577,11 @@
       </c>
       <c r="P318" t="inlineStr"/>
       <c r="Q318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S318" t="n">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -27727,7 +27727,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -27753,11 +27753,11 @@
       </c>
       <c r="P320" t="inlineStr"/>
       <c r="Q320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S320" t="n">
@@ -27815,7 +27815,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -27841,11 +27841,11 @@
       </c>
       <c r="P321" t="inlineStr"/>
       <c r="Q321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>['France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="S321" t="n">
@@ -27903,7 +27903,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -27929,11 +27929,11 @@
       </c>
       <c r="P322" t="inlineStr"/>
       <c r="Q322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="S322" t="n">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -28017,11 +28017,11 @@
       </c>
       <c r="P323" t="inlineStr"/>
       <c r="Q323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>['France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="S323" t="n">
@@ -28435,18 +28435,18 @@
       </c>
       <c r="P328" t="inlineStr"/>
       <c r="Q328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U328" t="n">
         <v>1770</v>
@@ -28483,7 +28483,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -28563,7 +28563,7 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -28651,7 +28651,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -28739,7 +28739,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -28765,11 +28765,11 @@
       </c>
       <c r="P332" t="inlineStr"/>
       <c r="Q332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="S332" t="n">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -28901,7 +28901,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -28981,7 +28981,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -29065,7 +29065,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -29139,7 +29139,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -29165,11 +29165,11 @@
       </c>
       <c r="P337" t="inlineStr"/>
       <c r="Q337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="S337" t="n">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -29249,18 +29249,18 @@
       </c>
       <c r="P338" t="inlineStr"/>
       <c r="Q338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U338" t="n">
         <v>1975</v>
@@ -29311,7 +29311,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -29337,18 +29337,18 @@
       </c>
       <c r="P339" t="inlineStr"/>
       <c r="Q339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U339" t="n">
         <v>1975</v>
@@ -29399,7 +29399,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -29425,18 +29425,18 @@
       </c>
       <c r="P340" t="inlineStr"/>
       <c r="Q340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S340" t="n">
         <v>0</v>
       </c>
       <c r="T340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U340" t="n">
         <v>2077</v>
@@ -29487,7 +29487,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -29513,18 +29513,18 @@
       </c>
       <c r="P341" t="inlineStr"/>
       <c r="Q341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U341" t="n">
         <v>1975</v>
@@ -29575,7 +29575,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -29601,18 +29601,18 @@
       </c>
       <c r="P342" t="inlineStr"/>
       <c r="Q342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T342" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U342" t="n">
         <v>1975</v>
@@ -29663,7 +29663,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -29689,18 +29689,18 @@
       </c>
       <c r="P343" t="inlineStr"/>
       <c r="Q343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="S343" t="n">
         <v>0</v>
       </c>
       <c r="T343" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U343" t="n">
         <v>2077</v>
@@ -29751,7 +29751,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -29777,18 +29777,18 @@
       </c>
       <c r="P344" t="inlineStr"/>
       <c r="Q344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T344" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U344" t="n">
         <v>1975</v>
@@ -29825,7 +29825,7 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Belgium', 'Romania']</t>
+          <t>['Romania', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -29851,11 +29851,11 @@
       </c>
       <c r="P345" t="inlineStr"/>
       <c r="Q345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania']</t>
+          <t>['Ukraine', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="S345" t="n">
@@ -29905,7 +29905,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -30019,11 +30019,11 @@
       </c>
       <c r="P347" t="inlineStr"/>
       <c r="Q347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="S347" t="n">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -30107,11 +30107,11 @@
       </c>
       <c r="P348" t="inlineStr"/>
       <c r="Q348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="S348" t="n">
@@ -30155,7 +30155,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -30235,7 +30235,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -30353,18 +30353,18 @@
         </is>
       </c>
       <c r="Q351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U351" t="n">
         <v>1666</v>
@@ -30415,7 +30415,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -30441,18 +30441,18 @@
       </c>
       <c r="P352" t="inlineStr"/>
       <c r="Q352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S352" t="n">
         <v>0</v>
       </c>
       <c r="T352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U352" t="n">
         <v>1777</v>
@@ -30503,7 +30503,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -30529,18 +30529,18 @@
       </c>
       <c r="P353" t="inlineStr"/>
       <c r="Q353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S353" t="n">
         <v>0</v>
       </c>
       <c r="T353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U353" t="n">
         <v>1666</v>
@@ -30591,7 +30591,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -30621,18 +30621,18 @@
         </is>
       </c>
       <c r="Q354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S354" t="n">
         <v>0</v>
       </c>
       <c r="T354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U354" t="n">
         <v>1777</v>
@@ -30683,7 +30683,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -30709,18 +30709,18 @@
       </c>
       <c r="P355" t="inlineStr"/>
       <c r="Q355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="S355" t="n">
         <v>0</v>
       </c>
       <c r="T355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U355" t="n">
         <v>1777</v>

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1995,7 +1995,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2087,7 +2087,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2211,7 +2211,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2581,7 +2581,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2673,7 +2673,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2797,7 +2797,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -6221,7 +6221,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6313,7 +6313,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6569,7 +6569,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7195,7 +7195,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -8173,7 +8173,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8265,7 +8265,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -10245,7 +10245,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10337,7 +10337,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10849,7 +10849,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -12321,7 +12321,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12413,7 +12413,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -13053,7 +13053,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -14525,7 +14525,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14617,7 +14617,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -14873,7 +14873,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -15129,7 +15129,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15243,7 +15243,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -15467,7 +15467,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -15595,7 +15595,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -16107,7 +16107,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16235,7 +16235,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -16363,7 +16363,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -16491,7 +16491,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -18059,7 +18059,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -18187,7 +18187,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -18315,7 +18315,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18443,7 +18443,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -18557,7 +18557,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18649,7 +18649,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18777,7 +18777,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18905,7 +18905,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -19033,7 +19033,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19161,7 +19161,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19289,7 +19289,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19659,7 +19659,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19751,7 +19751,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -19875,7 +19875,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -20003,7 +20003,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -20131,7 +20131,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -20589,7 +20589,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20717,7 +20717,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -20845,7 +20845,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -20973,7 +20973,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -21307,7 +21307,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21435,7 +21435,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21563,7 +21563,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21691,7 +21691,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -22277,7 +22277,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22519,7 +22519,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22615,7 +22615,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22871,7 +22871,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22999,7 +22999,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -23127,7 +23127,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23255,7 +23255,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -24083,7 +24083,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -24175,7 +24175,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24299,7 +24299,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24427,7 +24427,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24683,7 +24683,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24797,7 +24797,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24889,7 +24889,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -25013,7 +25013,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -25141,7 +25141,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Albania', 'Switzerland', 'France']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25255,7 +25255,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25347,7 +25347,7 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25471,7 +25471,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25599,7 +25599,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25727,7 +25727,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25855,7 +25855,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25969,7 +25969,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -26061,7 +26061,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -26185,7 +26185,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26313,7 +26313,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26441,7 +26441,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26903,7 +26903,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -27031,7 +27031,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27159,7 +27159,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -27401,7 +27401,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -27493,7 +27493,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -27617,7 +27617,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -27745,7 +27745,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -27987,7 +27987,7 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -28083,7 +28083,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -28211,7 +28211,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28339,7 +28339,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28467,7 +28467,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28595,7 +28595,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28723,7 +28723,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28851,7 +28851,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28979,7 +28979,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -29107,7 +29107,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -29291,7 +29291,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -29350,13 +29350,13 @@
         </is>
       </c>
       <c r="T239" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U239" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="V239" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W239" t="inlineStr">
         <is>
@@ -29364,13 +29364,13 @@
         </is>
       </c>
       <c r="X239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y239" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="Z239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA239" t="n">
         <v>0</v>
@@ -29393,10 +29393,10 @@
         <v>1833</v>
       </c>
       <c r="AG239" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AH239" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="240">
@@ -29671,7 +29671,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -29834,13 +29834,13 @@
         </is>
       </c>
       <c r="L243" t="n">
+        <v>9</v>
+      </c>
+      <c r="M243" t="n">
         <v>7</v>
       </c>
-      <c r="M243" t="n">
-        <v>6</v>
-      </c>
       <c r="N243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -29848,13 +29848,13 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S243" t="inlineStr">
         <is>
@@ -29962,13 +29962,13 @@
         </is>
       </c>
       <c r="L244" t="n">
+        <v>9</v>
+      </c>
+      <c r="M244" t="n">
         <v>7</v>
       </c>
-      <c r="M244" t="n">
-        <v>6</v>
-      </c>
       <c r="N244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
@@ -29976,13 +29976,13 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S244" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30159,7 +30159,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -30261,7 +30261,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -30287,7 +30287,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30296,53 +30296,53 @@
         </is>
       </c>
       <c r="L247" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M247" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="P247" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="n">
+        <v>1</v>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="P247" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q247" t="n">
+      <c r="T247" t="n">
+        <v>3</v>
+      </c>
+      <c r="U247" t="n">
         <v>-1</v>
       </c>
-      <c r="R247" t="n">
-        <v>3</v>
-      </c>
-      <c r="S247" t="inlineStr">
+      <c r="V247" t="n">
+        <v>3</v>
+      </c>
+      <c r="W247" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="T247" t="n">
-        <v>3</v>
-      </c>
-      <c r="U247" t="n">
+      <c r="X247" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y247" t="n">
         <v>-3</v>
       </c>
-      <c r="V247" t="n">
-        <v>0</v>
-      </c>
-      <c r="W247" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="X247" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y247" t="n">
-        <v>-2</v>
-      </c>
       <c r="Z247" t="n">
         <v>0</v>
       </c>
@@ -30351,7 +30351,7 @@
       </c>
       <c r="AB247" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="AC247" t="n">
@@ -30367,10 +30367,10 @@
         <v>1973</v>
       </c>
       <c r="AG247" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH247" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248">
@@ -30389,7 +30389,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -30424,41 +30424,41 @@
         </is>
       </c>
       <c r="L248" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M248" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N248" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="P248" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="n">
+        <v>1</v>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="P248" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q248" t="n">
-        <v>0</v>
-      </c>
-      <c r="R248" t="n">
-        <v>3</v>
-      </c>
-      <c r="S248" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
       <c r="T248" t="n">
         <v>3</v>
       </c>
       <c r="U248" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V248" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W248" t="inlineStr">
         <is>
@@ -30475,18 +30475,18 @@
         <v>0</v>
       </c>
       <c r="AA248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB248" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="AC248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE248" t="n">
         <v>1744</v>
@@ -30498,7 +30498,7 @@
         <v>0</v>
       </c>
       <c r="AH248" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="249">
@@ -30517,7 +30517,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -30543,7 +30543,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30552,53 +30552,53 @@
         </is>
       </c>
       <c r="L249" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M249" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="P249" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="n">
+        <v>1</v>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="P249" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q249" t="n">
+      <c r="T249" t="n">
+        <v>3</v>
+      </c>
+      <c r="U249" t="n">
         <v>-1</v>
       </c>
-      <c r="R249" t="n">
-        <v>3</v>
-      </c>
-      <c r="S249" t="inlineStr">
+      <c r="V249" t="n">
+        <v>3</v>
+      </c>
+      <c r="W249" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="T249" t="n">
-        <v>3</v>
-      </c>
-      <c r="U249" t="n">
+      <c r="X249" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y249" t="n">
         <v>-3</v>
       </c>
-      <c r="V249" t="n">
-        <v>0</v>
-      </c>
-      <c r="W249" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="X249" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y249" t="n">
-        <v>-2</v>
-      </c>
       <c r="Z249" t="n">
         <v>0</v>
       </c>
@@ -30607,14 +30607,14 @@
       </c>
       <c r="AB249" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="AC249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD249" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE249" t="n">
         <v>1744</v>
@@ -30623,10 +30623,10 @@
         <v>1973</v>
       </c>
       <c r="AG249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH249" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250">
@@ -30671,7 +30671,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30690,59 +30690,59 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R250" t="n">
+        <v>3</v>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="P250" t="n">
+      <c r="T250" t="n">
+        <v>3</v>
+      </c>
+      <c r="U250" t="n">
+        <v>-3</v>
+      </c>
+      <c r="V250" t="n">
+        <v>0</v>
+      </c>
+      <c r="W250" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="X250" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB250" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="AC250" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD250" t="n">
         <v>4</v>
-      </c>
-      <c r="Q250" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R250" t="n">
-        <v>1</v>
-      </c>
-      <c r="S250" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="T250" t="n">
-        <v>3</v>
-      </c>
-      <c r="U250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V250" t="n">
-        <v>0</v>
-      </c>
-      <c r="W250" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="X250" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y250" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Z250" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA250" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB250" t="inlineStr">
-        <is>
-          <t>['Belgium', 'Russia']</t>
-        </is>
-      </c>
-      <c r="AC250" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD250" t="n">
-        <v>2</v>
       </c>
       <c r="AE250" t="n">
         <v>1684</v>
@@ -30751,10 +30751,10 @@
         <v>2100</v>
       </c>
       <c r="AG250" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH250" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="251">
@@ -30773,7 +30773,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30811,7 +30811,7 @@
         <v>9</v>
       </c>
       <c r="M251" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N251" t="n">
         <v>3</v>
@@ -30839,7 +30839,7 @@
         <v>3</v>
       </c>
       <c r="U251" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V251" t="n">
         <v>0</v>
@@ -30867,10 +30867,10 @@
         </is>
       </c>
       <c r="AC251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD251" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE251" t="n">
         <v>1744</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="AH251" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252">
@@ -30927,7 +30927,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -30946,17 +30946,17 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q252" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R252" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S252" t="inlineStr">
         <is>
@@ -30974,28 +30974,28 @@
       </c>
       <c r="W252" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="X252" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y252" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="Z252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA252" t="n">
         <v>0</v>
       </c>
       <c r="AB252" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="AC252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD252" t="n">
         <v>4</v>
@@ -31007,10 +31007,10 @@
         <v>2100</v>
       </c>
       <c r="AG252" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH252" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="253">
@@ -31029,7 +31029,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -31055,7 +31055,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="AC253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD253" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE253" t="n">
         <v>1744</v>
@@ -31169,7 +31169,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31250,18 +31250,18 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31335,10 +31335,10 @@
         <v>0</v>
       </c>
       <c r="AE255" t="n">
-        <v>1814</v>
+        <v>1603</v>
       </c>
       <c r="AF255" t="n">
-        <v>1747</v>
+        <v>1949</v>
       </c>
       <c r="AG255" t="n">
         <v>-3</v>
@@ -31363,7 +31363,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -31374,18 +31374,18 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31404,31 +31404,31 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="P256" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="n">
+        <v>1</v>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="P256" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q256" t="n">
-        <v>1</v>
-      </c>
-      <c r="R256" t="n">
-        <v>3</v>
-      </c>
-      <c r="S256" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
       <c r="T256" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U256" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W256" t="inlineStr">
         <is>
@@ -31445,30 +31445,30 @@
         <v>1</v>
       </c>
       <c r="AA256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB256" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="AC256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE256" t="n">
-        <v>1603</v>
+        <v>1814</v>
       </c>
       <c r="AF256" t="n">
-        <v>1949</v>
+        <v>1747</v>
       </c>
       <c r="AG256" t="n">
         <v>-3</v>
       </c>
       <c r="AH256" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="257">
@@ -31513,7 +31513,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="AC257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD257" t="n">
         <v>1</v>
@@ -31615,7 +31615,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -31641,7 +31641,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31743,7 +31743,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -31769,7 +31769,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31871,7 +31871,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -31897,7 +31897,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -32231,7 +32231,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32359,7 +32359,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32487,7 +32487,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32615,7 +32615,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -32743,7 +32743,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -32857,7 +32857,7 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -32949,7 +32949,7 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -32958,13 +32958,13 @@
         </is>
       </c>
       <c r="L269" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
@@ -33000,27 +33000,27 @@
         </is>
       </c>
       <c r="X269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y269" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Z269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB269" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="AC269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE269" t="n">
         <v>1656</v>
@@ -33032,7 +33032,7 @@
         <v>-1</v>
       </c>
       <c r="AH269" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270">
@@ -33077,7 +33077,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33145,10 +33145,10 @@
         </is>
       </c>
       <c r="AC270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE270" t="n">
         <v>1850</v>
@@ -33179,7 +33179,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -33205,7 +33205,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -33276,7 +33276,7 @@
         <v>1</v>
       </c>
       <c r="AD271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE271" t="n">
         <v>1656</v>
@@ -33307,7 +33307,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -33333,7 +33333,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -33404,7 +33404,7 @@
         <v>0</v>
       </c>
       <c r="AD272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE272" t="n">
         <v>1656</v>
@@ -33435,7 +33435,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -33461,7 +33461,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -33532,7 +33532,7 @@
         <v>0</v>
       </c>
       <c r="AD273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE273" t="n">
         <v>1656</v>
@@ -33589,7 +33589,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -33608,31 +33608,31 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="P274" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>3</v>
+      </c>
+      <c r="R274" t="n">
+        <v>3</v>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="P274" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q274" t="n">
-        <v>0</v>
-      </c>
-      <c r="R274" t="n">
-        <v>1</v>
-      </c>
-      <c r="S274" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
       <c r="T274" t="n">
         <v>3</v>
       </c>
       <c r="U274" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="V274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W274" t="inlineStr">
         <is>
@@ -33649,18 +33649,18 @@
         <v>0</v>
       </c>
       <c r="AA274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB274" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="AC274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD274" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE274" t="n">
         <v>1850</v>
@@ -33672,7 +33672,7 @@
         <v>-2</v>
       </c>
       <c r="AH274" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="275">
@@ -33717,7 +33717,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -33736,31 +33736,31 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="P275" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>3</v>
+      </c>
+      <c r="R275" t="n">
+        <v>3</v>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="P275" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q275" t="n">
-        <v>0</v>
-      </c>
-      <c r="R275" t="n">
-        <v>1</v>
-      </c>
-      <c r="S275" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
       <c r="T275" t="n">
         <v>3</v>
       </c>
       <c r="U275" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="V275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W275" t="inlineStr">
         <is>
@@ -33777,18 +33777,18 @@
         <v>0</v>
       </c>
       <c r="AA275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB275" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="AC275" t="n">
         <v>0</v>
       </c>
       <c r="AD275" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE275" t="n">
         <v>1850</v>
@@ -33800,7 +33800,7 @@
         <v>-2</v>
       </c>
       <c r="AH275" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="276">
@@ -33819,7 +33819,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -33845,7 +33845,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -33913,10 +33913,10 @@
         </is>
       </c>
       <c r="AC276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD276" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE276" t="n">
         <v>1656</v>
@@ -33947,7 +33947,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -33973,7 +33973,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -34044,7 +34044,7 @@
         <v>0</v>
       </c>
       <c r="AD277" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE277" t="n">
         <v>1656</v>
@@ -34101,50 +34101,50 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L278" t="n">
         <v>5</v>
       </c>
       <c r="M278" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N278" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="P278" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>1</v>
+      </c>
+      <c r="R278" t="n">
+        <v>1</v>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="P278" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q278" t="n">
-        <v>0</v>
-      </c>
-      <c r="R278" t="n">
-        <v>1</v>
-      </c>
-      <c r="S278" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
       <c r="T278" t="n">
         <v>3</v>
       </c>
       <c r="U278" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="V278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W278" t="inlineStr">
         <is>
@@ -34161,18 +34161,18 @@
         <v>1</v>
       </c>
       <c r="AA278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB278" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="AC278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD278" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE278" t="n">
         <v>1850</v>
@@ -34181,10 +34181,10 @@
         <v>1796</v>
       </c>
       <c r="AG278" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH278" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="279">
@@ -34229,7 +34229,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -34248,31 +34248,31 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="P279" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>5</v>
+      </c>
+      <c r="R279" t="n">
+        <v>3</v>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="P279" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q279" t="n">
-        <v>0</v>
-      </c>
-      <c r="R279" t="n">
-        <v>1</v>
-      </c>
-      <c r="S279" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
       <c r="T279" t="n">
         <v>3</v>
       </c>
       <c r="U279" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="V279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W279" t="inlineStr">
         <is>
@@ -34289,18 +34289,18 @@
         <v>0</v>
       </c>
       <c r="AA279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB279" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="AC279" t="n">
         <v>0</v>
       </c>
       <c r="AD279" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE279" t="n">
         <v>1850</v>
@@ -34312,7 +34312,7 @@
         <v>-2</v>
       </c>
       <c r="AH279" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="280">
@@ -34343,7 +34343,7 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -34439,7 +34439,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -34567,7 +34567,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -34695,7 +34695,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -34823,7 +34823,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -34951,7 +34951,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -35079,7 +35079,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -35207,7 +35207,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -35335,7 +35335,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -35449,7 +35449,7 @@
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -35541,7 +35541,7 @@
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -35669,7 +35669,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -35797,7 +35797,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -35925,7 +35925,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Hungary', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -36039,7 +36039,7 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Albania', 'Italy', 'Spain']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -36131,7 +36131,7 @@
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Albania', 'Italy', 'Spain']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -36629,7 +36629,7 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -36721,7 +36721,7 @@
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -36845,7 +36845,7 @@
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -36959,7 +36959,7 @@
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -37055,7 +37055,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -37183,7 +37183,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -37311,7 +37311,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -37439,7 +37439,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -37567,7 +37567,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -37695,7 +37695,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -37823,7 +37823,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -37937,7 +37937,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Belgium', 'Romania']</t>
+          <t>['Belgium', 'Romania', 'Ukraine']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -38029,7 +38029,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -38157,7 +38157,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Ukraine', 'Slovakia']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -38285,7 +38285,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -38399,7 +38399,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -38491,7 +38491,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1995,7 +1995,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2333,7 +2333,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2927,7 +2927,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3649,7 +3649,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4499,7 +4499,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -7305,7 +7305,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -8155,7 +8155,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -9005,7 +9005,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -10833,7 +10833,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11569,7 +11569,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -12035,7 +12035,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -14969,7 +14969,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -15353,7 +15353,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -15723,7 +15723,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -15947,7 +15947,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -17551,7 +17551,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -17647,7 +17647,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -17775,7 +17775,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -18483,7 +18483,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18707,7 +18707,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19205,7 +19205,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19543,7 +19543,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19639,7 +19639,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -19767,7 +19767,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -19895,7 +19895,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -20023,7 +20023,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -20151,7 +20151,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -20393,7 +20393,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -20617,7 +20617,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -20745,7 +20745,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -21325,7 +21325,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21361,11 +21361,11 @@
       <c r="Y173" t="inlineStr"/>
       <c r="Z173" t="inlineStr"/>
       <c r="AA173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB173" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="AC173" t="n">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Albania', 'Switzerland', 'France']</t>
+          <t>['France', 'Switzerland', 'Albania']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21492,7 +21492,7 @@
         <v>1</v>
       </c>
       <c r="AD174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE174" t="n">
         <v>-2</v>
@@ -21535,7 +21535,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21571,11 +21571,11 @@
       <c r="Y175" t="inlineStr"/>
       <c r="Z175" t="inlineStr"/>
       <c r="AA175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="AC175" t="n">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -21702,7 +21702,7 @@
         <v>0</v>
       </c>
       <c r="AD176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE176" t="n">
         <v>-3</v>
@@ -21759,7 +21759,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -21830,7 +21830,7 @@
         <v>0</v>
       </c>
       <c r="AD177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE177" t="n">
         <v>-3</v>
@@ -21887,7 +21887,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -21958,7 +21958,7 @@
         <v>0</v>
       </c>
       <c r="AD178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE178" t="n">
         <v>-3</v>
@@ -22001,7 +22001,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -22037,11 +22037,11 @@
       <c r="Y179" t="inlineStr"/>
       <c r="Z179" t="inlineStr"/>
       <c r="AA179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB179" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="AC179" t="n">
@@ -22097,7 +22097,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22168,7 +22168,7 @@
         <v>0</v>
       </c>
       <c r="AD180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE180" t="n">
         <v>-2</v>
@@ -22225,7 +22225,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22296,7 +22296,7 @@
         <v>0</v>
       </c>
       <c r="AD181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE181" t="n">
         <v>-3</v>
@@ -22339,7 +22339,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22435,7 +22435,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22623,24 +22623,24 @@
         <v>0</v>
       </c>
       <c r="AA184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB184" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="AC184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE184" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF184" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AG184" t="n">
         <v>1755</v>
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22751,24 +22751,24 @@
         <v>0</v>
       </c>
       <c r="AA185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB185" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="AC185" t="n">
         <v>0</v>
       </c>
       <c r="AD185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE185" t="n">
         <v>-2</v>
       </c>
       <c r="AF185" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AG185" t="n">
         <v>1818</v>
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="AC186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD186" t="n">
         <v>1</v>
@@ -22947,7 +22947,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -24295,7 +24295,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24391,7 +24391,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Belgium']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Ireland', 'Belgium']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24633,7 +24633,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -24985,7 +24985,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25391,11 +25391,11 @@
       <c r="Y207" t="inlineStr"/>
       <c r="Z207" t="inlineStr"/>
       <c r="AA207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB207" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="AC207" t="n">
@@ -25511,21 +25511,21 @@
         <v>1</v>
       </c>
       <c r="AA208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB208" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="AC208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE208" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF208" t="n">
         <v>-2</v>
@@ -25639,24 +25639,24 @@
         <v>0</v>
       </c>
       <c r="AA209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB209" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="AC209" t="n">
         <v>0</v>
       </c>
       <c r="AD209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE209" t="n">
         <v>-3</v>
       </c>
       <c r="AF209" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG209" t="n">
         <v>1603</v>
@@ -25767,24 +25767,24 @@
         <v>0</v>
       </c>
       <c r="AA210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB210" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="AC210" t="n">
         <v>0</v>
       </c>
       <c r="AD210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE210" t="n">
         <v>-3</v>
       </c>
       <c r="AF210" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="AG210" t="n">
         <v>1603</v>
@@ -25895,24 +25895,24 @@
         <v>0</v>
       </c>
       <c r="AA211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB211" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="AC211" t="n">
         <v>0</v>
       </c>
       <c r="AD211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE211" t="n">
         <v>-3</v>
       </c>
       <c r="AF211" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AG211" t="n">
         <v>1603</v>
@@ -25949,7 +25949,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -25985,11 +25985,11 @@
       <c r="Y212" t="inlineStr"/>
       <c r="Z212" t="inlineStr"/>
       <c r="AA212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB212" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="AC212" t="n">
@@ -26045,7 +26045,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26105,24 +26105,24 @@
         <v>0</v>
       </c>
       <c r="AA213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB213" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="AC213" t="n">
         <v>1</v>
       </c>
       <c r="AD213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE213" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF213" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG213" t="n">
         <v>1744</v>
@@ -26173,7 +26173,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26241,10 +26241,10 @@
         </is>
       </c>
       <c r="AC214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE214" t="n">
         <v>0</v>
@@ -26301,7 +26301,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26361,24 +26361,24 @@
         <v>0</v>
       </c>
       <c r="AA215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="AC215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD215" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE215" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF215" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG215" t="n">
         <v>1744</v>
@@ -26429,7 +26429,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Russia', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -26489,24 +26489,24 @@
         <v>0</v>
       </c>
       <c r="AA216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="AC216" t="n">
         <v>1</v>
       </c>
       <c r="AD216" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE216" t="n">
         <v>0</v>
       </c>
       <c r="AF216" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AG216" t="n">
         <v>1684</v>
@@ -26557,7 +26557,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -26617,24 +26617,24 @@
         <v>0</v>
       </c>
       <c r="AA217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB217" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="AC217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD217" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE217" t="n">
         <v>0</v>
       </c>
       <c r="AF217" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG217" t="n">
         <v>1744</v>
@@ -26685,7 +26685,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26745,18 +26745,18 @@
         <v>0</v>
       </c>
       <c r="AA218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB218" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="AC218" t="n">
         <v>0</v>
       </c>
       <c r="AD218" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE218" t="n">
         <v>0</v>
@@ -26813,7 +26813,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -26873,18 +26873,18 @@
         <v>0</v>
       </c>
       <c r="AA219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB219" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'Finland']</t>
         </is>
       </c>
       <c r="AC219" t="n">
         <v>0</v>
       </c>
       <c r="AD219" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE219" t="n">
         <v>0</v>
@@ -27649,7 +27649,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -27745,7 +27745,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -27813,7 +27813,7 @@
         </is>
       </c>
       <c r="AC227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD227" t="n">
         <v>1</v>
@@ -27873,7 +27873,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -28129,7 +28129,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28257,7 +28257,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28385,7 +28385,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28513,7 +28513,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28641,7 +28641,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28769,7 +28769,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28897,7 +28897,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -29011,7 +29011,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -29047,11 +29047,11 @@
       <c r="Y237" t="inlineStr"/>
       <c r="Z237" t="inlineStr"/>
       <c r="AA237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB237" t="inlineStr">
         <is>
-          <t>['France', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="AC237" t="n">
@@ -29107,7 +29107,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -29363,7 +29363,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -29491,7 +29491,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Germany']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -29619,7 +29619,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -29747,7 +29747,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30117,7 +30117,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Scotland', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -30213,7 +30213,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Scotland', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30273,24 +30273,24 @@
         <v>1</v>
       </c>
       <c r="AA247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB247" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="AC247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE247" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="AF247" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AG247" t="n">
         <v>1805</v>
@@ -30341,7 +30341,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Scotland', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -30401,24 +30401,24 @@
         <v>1</v>
       </c>
       <c r="AA248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB248" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="AC248" t="n">
         <v>0</v>
       </c>
       <c r="AD248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE248" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF248" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AG248" t="n">
         <v>1805</v>
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Switzerland', 'Hungary', 'Germany']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30540,7 +30540,7 @@
         <v>1</v>
       </c>
       <c r="AD249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE249" t="n">
         <v>-2</v>
@@ -30583,7 +30583,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Albania', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30679,7 +30679,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31049,7 +31049,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31085,11 +31085,11 @@
       <c r="Y254" t="inlineStr"/>
       <c r="Z254" t="inlineStr"/>
       <c r="AA254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB254" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="AC254" t="n">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31213,10 +31213,10 @@
         </is>
       </c>
       <c r="AC255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE255" t="n">
         <v>-3</v>
@@ -31273,7 +31273,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31344,7 +31344,7 @@
         <v>0</v>
       </c>
       <c r="AD256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE256" t="n">
         <v>-3</v>
@@ -31401,7 +31401,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31472,7 +31472,7 @@
         <v>0</v>
       </c>
       <c r="AD257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE257" t="n">
         <v>-4</v>
@@ -31529,7 +31529,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31600,7 +31600,7 @@
         <v>0</v>
       </c>
       <c r="AD258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE258" t="n">
         <v>-4</v>
@@ -31657,7 +31657,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31728,7 +31728,7 @@
         <v>0</v>
       </c>
       <c r="AD259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE259" t="n">
         <v>-4</v>
@@ -31785,7 +31785,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -31856,7 +31856,7 @@
         <v>0</v>
       </c>
       <c r="AD260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE260" t="n">
         <v>-3</v>
@@ -31913,7 +31913,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -31984,7 +31984,7 @@
         <v>0</v>
       </c>
       <c r="AD261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE261" t="n">
         <v>-3</v>
@@ -32027,7 +32027,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -32109,7 +32109,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Belgium', 'Romania']</t>
+          <t>['Ukraine', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32145,18 +32145,18 @@
       <c r="Y263" t="inlineStr"/>
       <c r="Z263" t="inlineStr"/>
       <c r="AA263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB263" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania']</t>
+          <t>['Ukraine', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="AC263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE263" t="inlineStr"/>
       <c r="AF263" t="inlineStr"/>
@@ -32205,7 +32205,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
+          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3649,7 +3649,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5477,7 +5477,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -6455,7 +6455,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7305,7 +7305,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9727,7 +9727,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -12035,7 +12035,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13383,7 +13383,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13607,7 +13607,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -14119,7 +14119,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -14247,7 +14247,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -14745,7 +14745,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -15481,7 +15481,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -15609,7 +15609,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -16573,7 +16573,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -16669,7 +16669,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -17053,7 +17053,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17309,7 +17309,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -17551,7 +17551,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -17647,7 +17647,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -17775,7 +17775,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -17985,7 +17985,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -18113,7 +18113,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18369,7 +18369,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -18483,7 +18483,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18707,7 +18707,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19205,7 +19205,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19543,7 +19543,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19767,7 +19767,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -20023,7 +20023,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -20151,7 +20151,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -20489,7 +20489,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20859,7 +20859,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -20955,7 +20955,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -21211,7 +21211,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21325,7 +21325,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Albania']</t>
+          <t>['Albania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21535,7 +21535,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -21759,7 +21759,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -21887,7 +21887,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -22001,7 +22001,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -22097,7 +22097,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22225,7 +22225,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22339,7 +22339,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22435,7 +22435,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22947,7 +22947,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23061,7 +23061,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23097,11 +23097,11 @@
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB188" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="AC188" t="n">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23225,10 +23225,10 @@
         </is>
       </c>
       <c r="AC189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE189" t="n">
         <v>-2</v>
@@ -23285,7 +23285,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23356,7 +23356,7 @@
         <v>1</v>
       </c>
       <c r="AD190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE190" t="n">
         <v>-3</v>
@@ -23413,7 +23413,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23484,7 +23484,7 @@
         <v>1</v>
       </c>
       <c r="AD191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE191" t="n">
         <v>-2</v>
@@ -23541,7 +23541,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -23612,7 +23612,7 @@
         <v>1</v>
       </c>
       <c r="AD192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE192" t="n">
         <v>-3</v>
@@ -23669,7 +23669,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -23740,7 +23740,7 @@
         <v>1</v>
       </c>
       <c r="AD193" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE193" t="n">
         <v>-2</v>
@@ -23797,7 +23797,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -23868,7 +23868,7 @@
         <v>1</v>
       </c>
       <c r="AD194" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE194" t="n">
         <v>-3</v>
@@ -23925,7 +23925,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -23996,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="AD195" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE195" t="n">
         <v>-1</v>
@@ -24053,7 +24053,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24124,7 +24124,7 @@
         <v>1</v>
       </c>
       <c r="AD196" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE196" t="n">
         <v>-1</v>
@@ -24181,7 +24181,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24252,7 +24252,7 @@
         <v>0</v>
       </c>
       <c r="AD197" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE197" t="n">
         <v>-2</v>
@@ -24295,7 +24295,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24391,7 +24391,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24633,7 +24633,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -24985,7 +24985,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25355,7 +25355,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25707,7 +25707,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25835,7 +25835,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -25949,7 +25949,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -26045,7 +26045,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26173,7 +26173,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26301,7 +26301,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26927,7 +26927,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27151,7 +27151,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -27407,7 +27407,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -27535,7 +27535,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -27649,7 +27649,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -27685,11 +27685,11 @@
       <c r="Y226" t="inlineStr"/>
       <c r="Z226" t="inlineStr"/>
       <c r="AA226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB226" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="AC226" t="n">
@@ -27745,7 +27745,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -27813,10 +27813,10 @@
         </is>
       </c>
       <c r="AC227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE227" t="n">
         <v>-2</v>
@@ -27873,7 +27873,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -27944,7 +27944,7 @@
         <v>1</v>
       </c>
       <c r="AD228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE228" t="n">
         <v>-2</v>
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -28072,7 +28072,7 @@
         <v>0</v>
       </c>
       <c r="AD229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE229" t="n">
         <v>-2</v>
@@ -28129,7 +28129,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28200,7 +28200,7 @@
         <v>0</v>
       </c>
       <c r="AD230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE230" t="n">
         <v>-2</v>
@@ -28257,7 +28257,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28328,7 +28328,7 @@
         <v>0</v>
       </c>
       <c r="AD231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE231" t="n">
         <v>-2</v>
@@ -28385,7 +28385,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28456,7 +28456,7 @@
         <v>0</v>
       </c>
       <c r="AD232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE232" t="n">
         <v>-2</v>
@@ -28513,7 +28513,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="AD233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE233" t="n">
         <v>-2</v>
@@ -28641,7 +28641,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28712,7 +28712,7 @@
         <v>0</v>
       </c>
       <c r="AD234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE234" t="n">
         <v>-2</v>
@@ -28769,7 +28769,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="AD235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE235" t="n">
         <v>-2</v>
@@ -28897,7 +28897,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="AD236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE236" t="n">
         <v>-2</v>
@@ -29011,7 +29011,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -29107,7 +29107,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -29235,7 +29235,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -29363,7 +29363,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -29491,7 +29491,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Germany']</t>
+          <t>['Hungary', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -29619,7 +29619,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -29747,7 +29747,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30117,7 +30117,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -30153,11 +30153,11 @@
       <c r="Y246" t="inlineStr"/>
       <c r="Z246" t="inlineStr"/>
       <c r="AA246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB246" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="AC246" t="n">
@@ -30213,7 +30213,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30281,10 +30281,10 @@
         </is>
       </c>
       <c r="AC247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE247" t="n">
         <v>-1</v>
@@ -30341,7 +30341,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Scotland', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -30412,7 +30412,7 @@
         <v>0</v>
       </c>
       <c r="AD248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE248" t="n">
         <v>-1</v>
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Hungary', 'Germany']</t>
+          <t>['Hungary', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30540,7 +30540,7 @@
         <v>1</v>
       </c>
       <c r="AD249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE249" t="n">
         <v>-2</v>
@@ -30583,7 +30583,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30679,7 +30679,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31049,7 +31049,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31401,7 +31401,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31529,7 +31529,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31657,7 +31657,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31785,7 +31785,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -31913,7 +31913,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -32027,7 +32027,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['Denmark', 'Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -32109,7 +32109,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
+          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32447,7 +32447,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -32543,7 +32543,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -32671,7 +32671,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -32799,7 +32799,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1995,7 +1995,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2927,7 +2927,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4499,7 +4499,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8155,7 +8155,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -9005,7 +9005,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -10833,7 +10833,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11569,7 +11569,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -14969,7 +14969,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -15353,7 +15353,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -15723,7 +15723,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -15947,7 +15947,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -16459,7 +16459,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -17889,7 +17889,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -17985,7 +17985,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -18113,7 +18113,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18369,7 +18369,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18707,7 +18707,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19205,7 +19205,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19639,7 +19639,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -19895,7 +19895,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -20489,7 +20489,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20617,7 +20617,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -20745,7 +20745,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -21325,7 +21325,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Romania', 'France', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Albania', 'France', 'Switzerland']</t>
+          <t>['Switzerland', 'Albania', 'France']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22947,7 +22947,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23061,7 +23061,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23285,7 +23285,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23413,7 +23413,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23541,7 +23541,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -23669,7 +23669,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -23797,7 +23797,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -23925,7 +23925,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24181,7 +24181,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24295,7 +24295,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24391,7 +24391,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24633,7 +24633,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -24985,7 +24985,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25355,7 +25355,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25707,7 +25707,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25835,7 +25835,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -25949,7 +25949,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -26045,7 +26045,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26173,7 +26173,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26301,7 +26301,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26429,7 +26429,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Russia', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Russia', 'Denmark']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -26685,7 +26685,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26813,7 +26813,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -26927,7 +26927,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27151,7 +27151,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -27407,7 +27407,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -27535,7 +27535,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -29011,7 +29011,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -29491,7 +29491,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Germany']</t>
+          <t>['Germany', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -29747,7 +29747,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30117,7 +30117,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -30213,7 +30213,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30341,7 +30341,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Hungary', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30583,7 +30583,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30679,7 +30679,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31049,7 +31049,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31401,7 +31401,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31529,7 +31529,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31657,7 +31657,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31785,7 +31785,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -31913,7 +31913,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -32063,11 +32063,11 @@
       <c r="Y262" t="inlineStr"/>
       <c r="Z262" t="inlineStr"/>
       <c r="AA262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB262" t="inlineStr">
         <is>
-          <t>['England', 'Denmark']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="AC262" t="n">
@@ -32109,7 +32109,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Romania', 'Ukraine', 'Belgium']</t>
+          <t>['Belgium', 'Ukraine', 'Romania']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Ukraine', 'Slovakia']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32447,7 +32447,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2333,7 +2333,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4499,7 +4499,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5477,7 +5477,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -7305,7 +7305,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8155,7 +8155,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13607,7 +13607,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -15723,7 +15723,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -15947,7 +15947,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -16459,7 +16459,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -16573,7 +16573,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -16669,7 +16669,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -17053,7 +17053,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17309,7 +17309,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -17551,7 +17551,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -17647,7 +17647,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -17775,7 +17775,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -17889,7 +17889,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -17985,7 +17985,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -18113,7 +18113,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18369,7 +18369,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -19205,7 +19205,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19320,31 +19320,31 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="P156" t="n">
         <v>4</v>
       </c>
       <c r="Q156" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="T156" t="n">
         <v>4</v>
       </c>
       <c r="U156" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W156" t="inlineStr">
         <is>
@@ -19365,20 +19365,20 @@
       </c>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="AC156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE156" t="n">
         <v>0</v>
       </c>
       <c r="AF156" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AG156" t="n">
         <v>1780</v>
@@ -19429,7 +19429,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Greece']</t>
+          <t>['Greece', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -19500,7 +19500,7 @@
         <v>1</v>
       </c>
       <c r="AD157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE157" t="n">
         <v>0</v>
@@ -19767,7 +19767,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -19786,7 +19786,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="P160" t="n">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="T160" t="n">
@@ -19831,14 +19831,14 @@
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="AC160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE160" t="n">
         <v>0</v>
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="AC161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE161" t="n">
         <v>-1</v>
@@ -20094,7 +20094,7 @@
         <v>1</v>
       </c>
       <c r="AD162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE162" t="n">
         <v>0</v>
@@ -20222,7 +20222,7 @@
         <v>0</v>
       </c>
       <c r="AD163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE163" t="n">
         <v>-2</v>
@@ -20350,7 +20350,7 @@
         <v>0</v>
       </c>
       <c r="AD164" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE164" t="n">
         <v>-3</v>
@@ -20393,7 +20393,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -21325,7 +21325,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Romania']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21535,7 +21535,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -21759,7 +21759,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -21887,7 +21887,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -22339,7 +22339,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22435,7 +22435,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22947,7 +22947,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23061,7 +23061,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23285,7 +23285,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23399,7 +23399,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23495,7 +23495,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -23623,7 +23623,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -23751,7 +23751,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -23879,7 +23879,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -24007,7 +24007,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24135,7 +24135,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24263,7 +24263,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24391,7 +24391,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24633,7 +24633,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -24985,7 +24985,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25355,7 +25355,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25707,7 +25707,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25835,7 +25835,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Russia', 'Denmark', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -25996,29 +25996,29 @@
       </c>
       <c r="S212" t="inlineStr">
         <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="T212" t="n">
+        <v>3</v>
+      </c>
+      <c r="U212" t="n">
+        <v>-4</v>
+      </c>
+      <c r="V212" t="n">
+        <v>0</v>
+      </c>
+      <c r="W212" t="inlineStr">
+        <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="T212" t="n">
-        <v>3</v>
-      </c>
-      <c r="U212" t="n">
+      <c r="X212" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y212" t="n">
         <v>-1</v>
       </c>
-      <c r="V212" t="n">
-        <v>0</v>
-      </c>
-      <c r="W212" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="X212" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y212" t="n">
-        <v>-4</v>
-      </c>
       <c r="Z212" t="n">
         <v>0</v>
       </c>
@@ -26027,20 +26027,20 @@
       </c>
       <c r="AB212" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="AC212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE212" t="n">
         <v>0</v>
       </c>
       <c r="AF212" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="AG212" t="n">
         <v>1744</v>
@@ -26091,7 +26091,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26124,29 +26124,29 @@
       </c>
       <c r="S213" t="inlineStr">
         <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="T213" t="n">
+        <v>3</v>
+      </c>
+      <c r="U213" t="n">
+        <v>-4</v>
+      </c>
+      <c r="V213" t="n">
+        <v>0</v>
+      </c>
+      <c r="W213" t="inlineStr">
+        <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="T213" t="n">
-        <v>3</v>
-      </c>
-      <c r="U213" t="n">
+      <c r="X213" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y213" t="n">
         <v>-2</v>
       </c>
-      <c r="V213" t="n">
-        <v>0</v>
-      </c>
-      <c r="W213" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="X213" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y213" t="n">
-        <v>-4</v>
-      </c>
       <c r="Z213" t="n">
         <v>0</v>
       </c>
@@ -26155,20 +26155,20 @@
       </c>
       <c r="AB213" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="AC213" t="n">
         <v>0</v>
       </c>
       <c r="AD213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE213" t="n">
         <v>0</v>
       </c>
       <c r="AF213" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AG213" t="n">
         <v>1684</v>
@@ -26219,7 +26219,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26252,29 +26252,29 @@
       </c>
       <c r="S214" t="inlineStr">
         <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>3</v>
+      </c>
+      <c r="U214" t="n">
+        <v>-5</v>
+      </c>
+      <c r="V214" t="n">
+        <v>0</v>
+      </c>
+      <c r="W214" t="inlineStr">
+        <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="T214" t="n">
-        <v>3</v>
-      </c>
-      <c r="U214" t="n">
+      <c r="X214" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y214" t="n">
         <v>-2</v>
       </c>
-      <c r="V214" t="n">
-        <v>0</v>
-      </c>
-      <c r="W214" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="X214" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y214" t="n">
-        <v>-5</v>
-      </c>
       <c r="Z214" t="n">
         <v>0</v>
       </c>
@@ -26283,20 +26283,20 @@
       </c>
       <c r="AB214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Belgium', 'Denmark', 'Russia']</t>
         </is>
       </c>
       <c r="AC214" t="n">
         <v>0</v>
       </c>
       <c r="AD214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE214" t="n">
         <v>0</v>
       </c>
       <c r="AF214" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="AG214" t="n">
         <v>1744</v>
@@ -26333,7 +26333,7 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26429,7 +26429,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -26685,7 +26685,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26813,7 +26813,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -26927,7 +26927,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27151,7 +27151,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -27407,7 +27407,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -27535,7 +27535,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -27649,7 +27649,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -27745,7 +27745,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -28129,7 +28129,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28257,7 +28257,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28385,7 +28385,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28513,7 +28513,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28641,7 +28641,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28769,7 +28769,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28897,7 +28897,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -29107,7 +29107,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -29235,7 +29235,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -29363,7 +29363,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -29619,7 +29619,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -30117,7 +30117,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -30213,7 +30213,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30341,7 +30341,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30583,7 +30583,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30679,7 +30679,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31131,7 +31131,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31227,7 +31227,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31355,7 +31355,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31483,7 +31483,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31611,7 +31611,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31739,7 +31739,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -31867,7 +31867,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -31995,7 +31995,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -32109,7 +32109,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia', 'Ukraine']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32447,7 +32447,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -32543,7 +32543,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -32671,7 +32671,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -32799,7 +32799,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1995,7 +1995,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2333,7 +2333,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4499,7 +4499,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -7305,7 +7305,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9005,7 +9005,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9727,7 +9727,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10833,7 +10833,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11569,7 +11569,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11811,7 +11811,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -12035,7 +12035,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13383,7 +13383,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -14119,7 +14119,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -14247,7 +14247,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -16459,7 +16459,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -16573,7 +16573,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -16669,7 +16669,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -17053,7 +17053,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17309,7 +17309,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -17985,7 +17985,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -18113,7 +18113,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18369,7 +18369,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18707,7 +18707,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -18835,7 +18835,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -19205,7 +19205,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -19301,7 +19301,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19543,7 +19543,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19639,7 +19639,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -19767,7 +19767,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -19895,7 +19895,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -20023,7 +20023,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -20151,7 +20151,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -20393,7 +20393,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -20489,7 +20489,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20617,7 +20617,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -20745,7 +20745,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -20859,7 +20859,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -20955,7 +20955,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -21211,7 +21211,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21325,7 +21325,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Albania', 'France']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -22001,7 +22001,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -22097,7 +22097,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22225,7 +22225,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22339,7 +22339,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22435,7 +22435,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22947,7 +22947,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23061,7 +23061,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23285,7 +23285,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23413,7 +23413,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23541,7 +23541,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -23669,7 +23669,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -23797,7 +23797,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -23925,7 +23925,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24181,7 +24181,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24295,7 +24295,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Sweden']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24391,7 +24391,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ireland', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ireland', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24633,7 +24633,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -24985,7 +24985,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -25355,7 +25355,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25707,7 +25707,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25835,7 +25835,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -25949,7 +25949,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -26045,7 +26045,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26173,7 +26173,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26301,7 +26301,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26429,7 +26429,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -26685,7 +26685,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26813,7 +26813,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -26927,7 +26927,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27023,7 +27023,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27151,7 +27151,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -27407,7 +27407,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -27535,7 +27535,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -28129,7 +28129,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28257,7 +28257,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28385,7 +28385,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28513,7 +28513,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28641,7 +28641,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28769,7 +28769,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28897,7 +28897,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -29011,7 +29011,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -29107,7 +29107,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -29235,7 +29235,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -29363,7 +29363,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -29619,7 +29619,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -29747,7 +29747,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30117,7 +30117,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -30213,7 +30213,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30341,7 +30341,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -30469,7 +30469,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Hungary', 'Germany']</t>
+          <t>['Hungary', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30583,7 +30583,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30679,7 +30679,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31049,7 +31049,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31401,7 +31401,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31529,7 +31529,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31657,7 +31657,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31785,7 +31785,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -31913,7 +31913,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -32027,7 +32027,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -32109,7 +32109,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Ukraine']</t>
+          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32447,7 +32447,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -32543,7 +32543,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -32671,7 +32671,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -32799,7 +32799,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -658,7 +658,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2213,7 +2213,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3321,7 +3321,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4161,7 +4161,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5144,7 +5144,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -6270,7 +6270,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -7396,7 +7396,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -8518,7 +8518,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -8947,7 +8947,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -9090,7 +9090,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -9362,7 +9362,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -9787,7 +9787,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -10439,7 +10439,7 @@
       <c r="AK71" t="inlineStr"/>
       <c r="AL71" t="inlineStr"/>
       <c r="AM71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -12454,7 +12454,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -12736,7 +12736,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -12879,7 +12879,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -13165,7 +13165,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -13308,7 +13308,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -13580,7 +13580,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -13862,7 +13862,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -14005,7 +14005,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -14434,7 +14434,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -14577,7 +14577,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -14706,7 +14706,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -14988,7 +14988,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -15403,7 +15403,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -15497,7 +15497,7 @@
       <c r="AK107" t="inlineStr"/>
       <c r="AL107" t="inlineStr"/>
       <c r="AM107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -15542,7 +15542,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -15685,7 +15685,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -16114,7 +16114,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -16400,7 +16400,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -16543,7 +16543,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -16686,7 +16686,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -16958,7 +16958,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -17097,7 +17097,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -17240,7 +17240,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -17669,7 +17669,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -17812,7 +17812,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -17955,7 +17955,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -18509,7 +18509,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -18652,7 +18652,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -18795,7 +18795,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -18938,7 +18938,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -20064,7 +20064,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -20193,7 +20193,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -20475,7 +20475,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -20698,7 +20698,7 @@
       <c r="AK144" t="inlineStr"/>
       <c r="AL144" t="inlineStr"/>
       <c r="AM144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -20886,7 +20886,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -21029,7 +21029,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -21172,7 +21172,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -21301,7 +21301,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -21440,7 +21440,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -21726,7 +21726,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -21869,7 +21869,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -22012,7 +22012,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -23535,7 +23535,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -23817,7 +23817,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -23960,7 +23960,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -24089,7 +24089,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -24183,7 +24183,7 @@
       <c r="AK169" t="inlineStr"/>
       <c r="AL169" t="inlineStr"/>
       <c r="AM169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -24228,7 +24228,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -24371,7 +24371,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -24514,7 +24514,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -24643,7 +24643,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -24737,7 +24737,7 @@
       <c r="AK173" t="inlineStr"/>
       <c r="AL173" t="inlineStr"/>
       <c r="AM173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -24782,7 +24782,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Albania']</t>
+          <t>['Albania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -24911,7 +24911,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -25050,7 +25050,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -25193,7 +25193,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -25336,7 +25336,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -25876,7 +25876,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -26015,7 +26015,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -26158,7 +26158,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -26301,7 +26301,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -26444,7 +26444,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -26587,7 +26587,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -26810,7 +26810,7 @@
       <c r="AK188" t="inlineStr"/>
       <c r="AL188" t="inlineStr"/>
       <c r="AM188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -28128,7 +28128,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -28267,7 +28267,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Italy', 'Ireland', 'Belgium']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -28410,7 +28410,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Italy', 'Ireland', 'Belgium']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -29379,7 +29379,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -29518,7 +29518,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -29661,7 +29661,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -29804,7 +29804,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -29947,7 +29947,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -30215,7 +30215,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -30358,7 +30358,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -30501,7 +30501,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -30644,7 +30644,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -30787,7 +30787,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -30930,7 +30930,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -31073,7 +31073,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -31202,7 +31202,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -32042,7 +32042,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -32181,7 +32181,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -32324,7 +32324,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -32467,7 +32467,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -32610,7 +32610,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -32753,7 +32753,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -32896,7 +32896,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -33039,7 +33039,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -33182,7 +33182,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -33325,7 +33325,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -33468,7 +33468,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -33736,7 +33736,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -33879,7 +33879,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -34022,7 +34022,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -34165,7 +34165,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Hungary']</t>
+          <t>['Germany', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -34308,7 +34308,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -34594,7 +34594,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -34866,7 +34866,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -35005,7 +35005,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -35148,7 +35148,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -35291,7 +35291,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -35420,7 +35420,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -35559,7 +35559,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -35702,7 +35702,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -35845,7 +35845,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -35974,7 +35974,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -36113,7 +36113,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -36256,7 +36256,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -36399,7 +36399,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -36542,7 +36542,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -36685,7 +36685,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -36828,7 +36828,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -36971,7 +36971,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -37100,7 +37100,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia', 'Denmark']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -37225,7 +37225,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -37364,7 +37364,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -37507,7 +37507,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -37636,7 +37636,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -37775,7 +37775,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -37918,7 +37918,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -38061,7 +38061,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -38204,7 +38204,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -38302,7 +38302,7 @@
         <v>1749</v>
       </c>
       <c r="AM270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -38347,7 +38347,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -698,7 +698,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2539,7 +2539,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3034,7 +3034,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3871,7 +3871,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="AU27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="AU28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="AU30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="AU32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -7396,7 +7396,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -8074,7 +8074,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="AU52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="AU54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="AU56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -11102,7 +11102,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -11269,7 +11269,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -11782,7 +11782,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -14782,7 +14782,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -14949,7 +14949,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -15120,7 +15120,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -15291,7 +15291,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -15462,7 +15462,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -15633,7 +15633,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -15975,7 +15975,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -17482,7 +17482,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -17647,7 +17647,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -17818,7 +17818,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -17989,7 +17989,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -18160,7 +18160,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -18286,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="AU106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -20164,7 +20164,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -20331,7 +20331,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -20502,7 +20502,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -21015,7 +21015,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -21186,7 +21186,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -21357,7 +21357,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -21514,7 +21514,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -21681,7 +21681,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -21852,7 +21852,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -23872,7 +23872,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -24518,7 +24518,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -24856,7 +24856,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -25027,7 +25027,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -25198,7 +25198,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -25355,7 +25355,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -26351,7 +26351,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -26516,7 +26516,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -28188,7 +28188,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -28357,7 +28357,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -28528,7 +28528,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -29349,7 +29349,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -29514,7 +29514,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Albania', 'Switzerland', 'France']</t>
+          <t>['Switzerland', 'Albania', 'France']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -29669,7 +29669,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -29836,7 +29836,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -30007,7 +30007,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -30178,7 +30178,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -30335,7 +30335,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -30502,7 +30502,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -30673,7 +30673,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Poland', 'Germany']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -31830,7 +31830,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -31997,7 +31997,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -32168,7 +32168,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -32339,7 +32339,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -32510,7 +32510,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -32681,7 +32681,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -32852,7 +32852,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -33023,7 +33023,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -33194,7 +33194,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -33363,7 +33363,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -33685,7 +33685,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -33856,7 +33856,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -34013,7 +34013,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -34180,7 +34180,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -34349,7 +34349,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -34518,7 +34518,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -34687,7 +34687,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -34856,7 +34856,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -35178,7 +35178,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -35349,7 +35349,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -35520,7 +35520,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -35691,7 +35691,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -35848,7 +35848,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -36015,7 +36015,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -36184,7 +36184,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -36353,7 +36353,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -36522,7 +36522,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Denmark']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -36693,7 +36693,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -36819,7 +36819,7 @@
         <v>1</v>
       </c>
       <c r="AU217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -36864,7 +36864,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -36990,7 +36990,7 @@
         <v>1</v>
       </c>
       <c r="AU218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -37035,7 +37035,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -37161,7 +37161,7 @@
         <v>1</v>
       </c>
       <c r="AU219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -37192,7 +37192,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -37359,7 +37359,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -37530,7 +37530,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -37699,7 +37699,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -37870,7 +37870,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -38039,7 +38039,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -38196,7 +38196,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -38363,7 +38363,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -38534,7 +38534,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -38703,7 +38703,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -38872,7 +38872,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -39041,7 +39041,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -39210,7 +39210,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -39379,7 +39379,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -39548,7 +39548,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -39717,7 +39717,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -39888,7 +39888,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -40043,7 +40043,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -40210,7 +40210,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -40379,7 +40379,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -40548,7 +40548,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -40717,7 +40717,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'France']</t>
+          <t>['Hungary', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -40886,7 +40886,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -41055,7 +41055,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -41226,7 +41226,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -41395,7 +41395,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Portugal', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -41552,7 +41552,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -41717,7 +41717,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -41886,7 +41886,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -42055,7 +42055,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Switzerland', 'Hungary', 'Germany']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -42210,7 +42210,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -42377,7 +42377,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -42546,7 +42546,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -42717,7 +42717,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -42872,7 +42872,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -43039,7 +43039,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -43210,7 +43210,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -43381,7 +43381,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -43552,7 +43552,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -43723,7 +43723,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -43894,7 +43894,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -44065,7 +44065,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -44222,7 +44222,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -44375,7 +44375,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -44497,7 +44497,7 @@
         <v>1</v>
       </c>
       <c r="AU263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -44542,7 +44542,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia', 'Ukraine']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -44713,7 +44713,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -44839,7 +44839,7 @@
         <v>1</v>
       </c>
       <c r="AU265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -44870,7 +44870,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -45206,7 +45206,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -45377,7 +45377,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -45548,7 +45548,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -45719,7 +45719,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -698,7 +698,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2539,7 +2539,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3871,7 +3871,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4869,7 +4869,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -6046,7 +6046,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="AU35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="AU42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="AU45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="AU46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="AU47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -11224,7 +11224,7 @@
         <v>-1</v>
       </c>
       <c r="AU64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -11908,7 +11908,7 @@
         <v>-1</v>
       </c>
       <c r="AU68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -12250,7 +12250,7 @@
         <v>-1</v>
       </c>
       <c r="AU70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -14782,7 +14782,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -14904,7 +14904,7 @@
         <v>-1</v>
       </c>
       <c r="AU86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -14949,7 +14949,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -15120,7 +15120,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -15246,7 +15246,7 @@
         <v>-1</v>
       </c>
       <c r="AU88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -15291,7 +15291,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -15462,7 +15462,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -15588,7 +15588,7 @@
         <v>-1</v>
       </c>
       <c r="AU90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -15633,7 +15633,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -15930,7 +15930,7 @@
         <v>-1</v>
       </c>
       <c r="AU92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -15975,7 +15975,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -16101,7 +16101,7 @@
         <v>-1</v>
       </c>
       <c r="AU93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -16132,7 +16132,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -16299,7 +16299,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -16470,7 +16470,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -16641,7 +16641,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -16812,7 +16812,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -17154,7 +17154,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -17325,7 +17325,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -17773,7 +17773,7 @@
         <v>-1</v>
       </c>
       <c r="AU103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -17944,7 +17944,7 @@
         <v>-1</v>
       </c>
       <c r="AU104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -18115,7 +18115,7 @@
         <v>-1</v>
       </c>
       <c r="AU105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -18160,7 +18160,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -18317,7 +18317,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -18482,7 +18482,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -18651,7 +18651,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -18820,7 +18820,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -18989,7 +18989,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -19158,7 +19158,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -19329,7 +19329,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -19500,7 +19500,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -19671,7 +19671,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -19840,7 +19840,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -20009,7 +20009,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -20164,7 +20164,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -20331,7 +20331,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -20502,7 +20502,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -21015,7 +21015,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -21186,7 +21186,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -21357,7 +21357,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -22023,7 +22023,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -22149,7 +22149,7 @@
         <v>0</v>
       </c>
       <c r="AU129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -22194,7 +22194,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -22365,7 +22365,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -22536,7 +22536,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -22693,7 +22693,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -22858,7 +22858,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -23027,7 +23027,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -23365,7 +23365,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -23534,7 +23534,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -23703,7 +23703,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -23872,7 +23872,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -24811,7 +24811,7 @@
         <v>0</v>
       </c>
       <c r="AU145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -24856,7 +24856,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -25027,7 +25027,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -25198,7 +25198,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -26351,7 +26351,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -26642,7 +26642,7 @@
         <v>1</v>
       </c>
       <c r="AU156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -26687,7 +26687,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Greece', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Greece']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -26964,7 +26964,7 @@
         <v>-1</v>
       </c>
       <c r="AU158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -27306,7 +27306,7 @@
         <v>-1</v>
       </c>
       <c r="AU160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -27648,7 +27648,7 @@
         <v>-1</v>
       </c>
       <c r="AU162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -28188,7 +28188,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -28685,7 +28685,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -28850,7 +28850,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -29192,7 +29192,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -29349,7 +29349,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -29514,7 +29514,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Albania', 'France']</t>
+          <t>['Switzerland', 'France', 'Albania']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -29669,7 +29669,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -29836,7 +29836,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -30007,7 +30007,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -30178,7 +30178,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -30335,7 +30335,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -30502,7 +30502,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -30673,7 +30673,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -30830,7 +30830,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -30997,7 +30997,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -31830,7 +31830,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -31997,7 +31997,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -32168,7 +32168,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -32339,7 +32339,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -32510,7 +32510,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -32681,7 +32681,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -32852,7 +32852,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -33023,7 +33023,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -33194,7 +33194,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -33363,7 +33363,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -33685,7 +33685,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -33856,7 +33856,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'Ireland']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -34013,7 +34013,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -34180,7 +34180,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -34349,7 +34349,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -34518,7 +34518,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -34687,7 +34687,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -34856,7 +34856,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -35011,7 +35011,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -35178,7 +35178,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -35349,7 +35349,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -35520,7 +35520,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -35691,7 +35691,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -35848,7 +35848,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -36015,7 +36015,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -36184,7 +36184,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -36353,7 +36353,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -36522,7 +36522,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Denmark']</t>
+          <t>['Denmark', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -36648,7 +36648,7 @@
         <v>-1</v>
       </c>
       <c r="AU216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -36693,7 +36693,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -36864,7 +36864,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -37035,7 +37035,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -37192,7 +37192,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -37359,7 +37359,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -37530,7 +37530,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -37699,7 +37699,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -37870,7 +37870,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -38039,7 +38039,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -40043,7 +40043,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -40210,7 +40210,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -40379,7 +40379,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -40548,7 +40548,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -40717,7 +40717,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -40886,7 +40886,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -41055,7 +41055,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -41226,7 +41226,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -41395,7 +41395,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Germany']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -42055,7 +42055,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Hungary', 'Germany']</t>
+          <t>['Switzerland', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -42377,7 +42377,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -42546,7 +42546,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -42717,7 +42717,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -42872,7 +42872,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -43039,7 +43039,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -43210,7 +43210,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -43381,7 +43381,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -43552,7 +43552,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -43723,7 +43723,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -43894,7 +43894,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -44065,7 +44065,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -44222,7 +44222,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Denmark', 'Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -44375,7 +44375,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Slovakia', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -44497,7 +44497,7 @@
         <v>1</v>
       </c>
       <c r="AU263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -44542,7 +44542,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Ukraine']</t>
+          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -44713,7 +44713,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Slovakia', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -44839,7 +44839,7 @@
         <v>1</v>
       </c>
       <c r="AU265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -44870,7 +44870,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -45035,7 +45035,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -45206,7 +45206,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -45377,7 +45377,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -45548,7 +45548,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -45719,7 +45719,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="AU45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="AU46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="AU47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -20457,7 +20457,7 @@
         <v>0</v>
       </c>
       <c r="AU119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -21141,7 +21141,7 @@
         <v>0</v>
       </c>
       <c r="AU123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -21636,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="AU126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -22149,7 +22149,7 @@
         <v>0</v>
       </c>
       <c r="AU129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -22320,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="AU130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="AU144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -24811,7 +24811,7 @@
         <v>0</v>
       </c>
       <c r="AU145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -31952,7 +31952,7 @@
         <v>0</v>
       </c>
       <c r="AU188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -38318,7 +38318,7 @@
         <v>0</v>
       </c>
       <c r="AU226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -44344,7 +44344,7 @@
         <v>0</v>
       </c>
       <c r="AU262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU271"/>
+  <dimension ref="A1:AR271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,21 +651,6 @@
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>lagging_team</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>leading_team</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>lagging_won</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
           <t>suspense</t>
         </is>
       </c>
@@ -698,7 +683,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -806,18 +791,7 @@
       <c r="AQ2" t="n">
         <v>1</v>
       </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="n">
+      <c r="AR2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -975,18 +949,7 @@
       <c r="AQ3" t="n">
         <v>1</v>
       </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="n">
+      <c r="AR3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,18 +1107,7 @@
       <c r="AQ4" t="n">
         <v>1</v>
       </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="n">
+      <c r="AR4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1313,18 +1265,7 @@
       <c r="AQ5" t="n">
         <v>1</v>
       </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="n">
+      <c r="AR5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1482,18 +1423,7 @@
       <c r="AQ6" t="n">
         <v>1</v>
       </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="n">
+      <c r="AR6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1651,18 +1581,7 @@
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="n">
+      <c r="AR7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,7 +1627,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1820,18 +1739,7 @@
       <c r="AQ8" t="n">
         <v>1</v>
       </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="n">
+      <c r="AR8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1877,7 +1785,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1989,18 +1897,7 @@
       <c r="AQ9" t="n">
         <v>1</v>
       </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AS9" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="n">
+      <c r="AR9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2046,7 +1943,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2158,18 +2055,7 @@
       <c r="AQ10" t="n">
         <v>1</v>
       </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="n">
+      <c r="AR10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2215,7 +2101,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2327,18 +2213,7 @@
       <c r="AQ11" t="n">
         <v>1</v>
       </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="n">
+      <c r="AR11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2384,7 +2259,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2496,18 +2371,7 @@
       <c r="AQ12" t="n">
         <v>1</v>
       </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="n">
+      <c r="AR12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,20 +2511,7 @@
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
+      <c r="AR13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,7 +2557,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2818,20 +2669,7 @@
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
+      <c r="AR14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2877,7 +2715,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2989,20 +2827,7 @@
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>West Germany</t>
-        </is>
-      </c>
-      <c r="AS15" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
+      <c r="AR15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,20 +2967,7 @@
       <c r="AQ16" t="n">
         <v>0</v>
       </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU16" t="n">
+      <c r="AR16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3313,20 +3125,7 @@
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU17" t="n">
+      <c r="AR17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3484,20 +3283,7 @@
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
-      <c r="AR18" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU18" t="n">
+      <c r="AR18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3655,20 +3441,7 @@
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT19" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU19" t="n">
+      <c r="AR19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,20 +3599,7 @@
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
-      <c r="AR20" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS20" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU20" t="n">
+      <c r="AR20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3979,20 +3739,7 @@
       <c r="AQ21" t="n">
         <v>0</v>
       </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AS21" t="inlineStr">
-        <is>
-          <t>Soviet Union</t>
-        </is>
-      </c>
-      <c r="AT21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU21" t="n">
+      <c r="AR21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4038,7 +3785,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4150,18 +3897,7 @@
       <c r="AQ22" t="n">
         <v>1</v>
       </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="n">
+      <c r="AR22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4207,7 +3943,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4319,18 +4055,7 @@
       <c r="AQ23" t="n">
         <v>1</v>
       </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AS23" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="n">
+      <c r="AR23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4376,7 +4101,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4488,18 +4213,7 @@
       <c r="AQ24" t="n">
         <v>1</v>
       </c>
-      <c r="AR24" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AS24" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="n">
+      <c r="AR24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4545,7 +4259,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4657,18 +4371,7 @@
       <c r="AQ25" t="n">
         <v>1</v>
       </c>
-      <c r="AR25" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AS25" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="n">
+      <c r="AR25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,18 +4529,7 @@
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="AS26" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="n">
+      <c r="AR26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4977,20 +4669,7 @@
       <c r="AQ27" t="n">
         <v>0</v>
       </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AS27" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU27" t="n">
+      <c r="AR27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5148,20 +4827,7 @@
       <c r="AQ28" t="n">
         <v>0</v>
       </c>
-      <c r="AR28" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AS28" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="n">
+      <c r="AR28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5319,20 +4985,7 @@
       <c r="AQ29" t="n">
         <v>0</v>
       </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS29" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AT29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU29" t="n">
+      <c r="AR29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5378,7 +5031,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5490,20 +5143,7 @@
       <c r="AQ30" t="n">
         <v>0</v>
       </c>
-      <c r="AR30" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS30" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU30" t="n">
+      <c r="AR30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5661,20 +5301,7 @@
       <c r="AQ31" t="n">
         <v>0</v>
       </c>
-      <c r="AR31" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AS31" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU31" t="n">
+      <c r="AR31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5832,20 +5459,7 @@
       <c r="AQ32" t="n">
         <v>0</v>
       </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AS32" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="n">
+      <c r="AR32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6003,18 +5617,7 @@
       <c r="AQ33" t="n">
         <v>1</v>
       </c>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AS33" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="n">
+      <c r="AR33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,20 +5757,7 @@
       <c r="AQ34" t="n">
         <v>0</v>
       </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>Commonwealth of Independent States</t>
-        </is>
-      </c>
-      <c r="AS34" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU34" t="n">
+      <c r="AR34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6325,20 +5915,7 @@
       <c r="AQ35" t="n">
         <v>0</v>
       </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>Commonwealth of Independent States</t>
-        </is>
-      </c>
-      <c r="AS35" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU35" t="n">
+      <c r="AR35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6496,20 +6073,7 @@
       <c r="AQ36" t="n">
         <v>0</v>
       </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU36" t="n">
+      <c r="AR36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6667,20 +6231,7 @@
       <c r="AQ37" t="n">
         <v>0</v>
       </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS37" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU37" t="n">
+      <c r="AR37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6838,20 +6389,7 @@
       <c r="AQ38" t="n">
         <v>0</v>
       </c>
-      <c r="AR38" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS38" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU38" t="n">
+      <c r="AR38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7009,20 +6547,7 @@
       <c r="AQ39" t="n">
         <v>0</v>
       </c>
-      <c r="AR39" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS39" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT39" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU39" t="n">
+      <c r="AR39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7180,20 +6705,7 @@
       <c r="AQ40" t="n">
         <v>0</v>
       </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS40" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU40" t="n">
+      <c r="AR40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7351,20 +6863,7 @@
       <c r="AQ41" t="n">
         <v>0</v>
       </c>
-      <c r="AR41" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS41" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT41" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU41" t="n">
+      <c r="AR41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7396,7 +6895,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7504,20 +7003,7 @@
       <c r="AQ42" t="n">
         <v>0</v>
       </c>
-      <c r="AR42" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS42" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
+      <c r="AR42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7563,7 +7049,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -7675,18 +7161,7 @@
       <c r="AQ43" t="n">
         <v>1</v>
       </c>
-      <c r="AR43" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AS43" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="AT43" t="inlineStr"/>
-      <c r="AU43" t="n">
+      <c r="AR43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7732,7 +7207,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7844,20 +7319,7 @@
       <c r="AQ44" t="n">
         <v>0</v>
       </c>
-      <c r="AR44" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="AS44" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
+      <c r="AR44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,7 +7365,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -8015,20 +7477,7 @@
       <c r="AQ45" t="n">
         <v>0</v>
       </c>
-      <c r="AR45" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS45" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
+      <c r="AR45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8074,7 +7523,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -8186,20 +7635,7 @@
       <c r="AQ46" t="n">
         <v>0</v>
       </c>
-      <c r="AR46" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS46" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="AT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU46" t="n">
+      <c r="AR46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8245,7 +7681,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -8357,20 +7793,7 @@
       <c r="AQ47" t="n">
         <v>0</v>
       </c>
-      <c r="AR47" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS47" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="AT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU47" t="n">
+      <c r="AR47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8416,7 +7839,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -8528,20 +7951,7 @@
       <c r="AQ48" t="n">
         <v>0</v>
       </c>
-      <c r="AR48" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="AS48" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU48" t="n">
+      <c r="AR48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8587,7 +7997,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -8699,21 +8109,8 @@
       <c r="AQ49" t="n">
         <v>0</v>
       </c>
-      <c r="AR49" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="AS49" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>0</v>
+      <c r="AR49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -8852,20 +8249,7 @@
       <c r="AQ50" t="n">
         <v>0</v>
       </c>
-      <c r="AR50" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="AS50" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU50" t="n">
+      <c r="AR50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9023,20 +8407,7 @@
       <c r="AQ51" t="n">
         <v>0</v>
       </c>
-      <c r="AR51" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="AS51" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU51" t="n">
+      <c r="AR51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9194,20 +8565,7 @@
       <c r="AQ52" t="n">
         <v>0</v>
       </c>
-      <c r="AR52" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS52" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU52" t="n">
+      <c r="AR52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9365,20 +8723,7 @@
       <c r="AQ53" t="n">
         <v>0</v>
       </c>
-      <c r="AR53" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS53" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU53" t="n">
+      <c r="AR53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9536,20 +8881,7 @@
       <c r="AQ54" t="n">
         <v>0</v>
       </c>
-      <c r="AR54" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS54" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU54" t="n">
+      <c r="AR54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9707,20 +9039,7 @@
       <c r="AQ55" t="n">
         <v>0</v>
       </c>
-      <c r="AR55" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AS55" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AT55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU55" t="n">
+      <c r="AR55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9878,20 +9197,7 @@
       <c r="AQ56" t="n">
         <v>0</v>
       </c>
-      <c r="AR56" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS56" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU56" t="n">
+      <c r="AR56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10031,20 +9337,7 @@
       <c r="AQ57" t="n">
         <v>0</v>
       </c>
-      <c r="AR57" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS57" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU57" t="n">
+      <c r="AR57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10202,20 +9495,7 @@
       <c r="AQ58" t="n">
         <v>0</v>
       </c>
-      <c r="AR58" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS58" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU58" t="n">
+      <c r="AR58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10373,20 +9653,7 @@
       <c r="AQ59" t="n">
         <v>0</v>
       </c>
-      <c r="AR59" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS59" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT59" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU59" t="n">
+      <c r="AR59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10544,20 +9811,7 @@
       <c r="AQ60" t="n">
         <v>0</v>
       </c>
-      <c r="AR60" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS60" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT60" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU60" t="n">
+      <c r="AR60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10715,20 +9969,7 @@
       <c r="AQ61" t="n">
         <v>0</v>
       </c>
-      <c r="AR61" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS61" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT61" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU61" t="n">
+      <c r="AR61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10886,20 +10127,7 @@
       <c r="AQ62" t="n">
         <v>0</v>
       </c>
-      <c r="AR62" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS62" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT62" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU62" t="n">
+      <c r="AR62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11057,20 +10285,7 @@
       <c r="AQ63" t="n">
         <v>0</v>
       </c>
-      <c r="AR63" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS63" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT63" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU63" t="n">
+      <c r="AR63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11102,7 +10317,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -11210,20 +10425,7 @@
       <c r="AQ64" t="n">
         <v>0</v>
       </c>
-      <c r="AR64" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS64" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT64" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU64" t="n">
+      <c r="AR64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11269,7 +10471,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -11381,20 +10583,7 @@
       <c r="AQ65" t="n">
         <v>0</v>
       </c>
-      <c r="AR65" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS65" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT65" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU65" t="n">
+      <c r="AR65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11440,7 +10629,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -11552,20 +10741,7 @@
       <c r="AQ66" t="n">
         <v>0</v>
       </c>
-      <c r="AR66" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS66" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT66" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU66" t="n">
+      <c r="AR66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11611,7 +10787,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -11723,20 +10899,7 @@
       <c r="AQ67" t="n">
         <v>0</v>
       </c>
-      <c r="AR67" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS67" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT67" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU67" t="n">
+      <c r="AR67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11782,7 +10945,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -11894,20 +11057,7 @@
       <c r="AQ68" t="n">
         <v>0</v>
       </c>
-      <c r="AR68" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS68" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT68" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU68" t="n">
+      <c r="AR68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11953,7 +11103,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -12065,20 +11215,7 @@
       <c r="AQ69" t="n">
         <v>0</v>
       </c>
-      <c r="AR69" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS69" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT69" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU69" t="n">
+      <c r="AR69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12124,7 +11261,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -12236,20 +11373,7 @@
       <c r="AQ70" t="n">
         <v>0</v>
       </c>
-      <c r="AR70" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS70" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT70" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU70" t="n">
+      <c r="AR70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12281,7 +11405,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -12389,18 +11513,7 @@
       <c r="AQ71" t="n">
         <v>1</v>
       </c>
-      <c r="AR71" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS71" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AT71" t="inlineStr"/>
-      <c r="AU71" t="n">
+      <c r="AR71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12446,7 +11559,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -12558,18 +11671,7 @@
       <c r="AQ72" t="n">
         <v>1</v>
       </c>
-      <c r="AR72" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS72" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AT72" t="inlineStr"/>
-      <c r="AU72" t="n">
+      <c r="AR72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12615,7 +11717,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -12727,18 +11829,7 @@
       <c r="AQ73" t="n">
         <v>1</v>
       </c>
-      <c r="AR73" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AS73" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AT73" t="inlineStr"/>
-      <c r="AU73" t="n">
+      <c r="AR73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12784,7 +11875,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -12896,18 +11987,7 @@
       <c r="AQ74" t="n">
         <v>1</v>
       </c>
-      <c r="AR74" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AS74" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AT74" t="inlineStr"/>
-      <c r="AU74" t="n">
+      <c r="AR74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12953,7 +12033,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -13065,18 +12145,7 @@
       <c r="AQ75" t="n">
         <v>1</v>
       </c>
-      <c r="AR75" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AS75" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AT75" t="inlineStr"/>
-      <c r="AU75" t="n">
+      <c r="AR75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13122,7 +12191,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -13234,18 +12303,7 @@
       <c r="AQ76" t="n">
         <v>1</v>
       </c>
-      <c r="AR76" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AS76" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AT76" t="inlineStr"/>
-      <c r="AU76" t="n">
+      <c r="AR76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13385,20 +12443,7 @@
       <c r="AQ77" t="n">
         <v>0</v>
       </c>
-      <c r="AR77" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AS77" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT77" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU77" t="n">
+      <c r="AR77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13444,7 +12489,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -13556,18 +12601,7 @@
       <c r="AQ78" t="n">
         <v>1</v>
       </c>
-      <c r="AR78" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AS78" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AT78" t="inlineStr"/>
-      <c r="AU78" t="n">
+      <c r="AR78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13613,7 +12647,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -13725,18 +12759,7 @@
       <c r="AQ79" t="n">
         <v>1</v>
       </c>
-      <c r="AR79" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AS79" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AT79" t="inlineStr"/>
-      <c r="AU79" t="n">
+      <c r="AR79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13894,18 +12917,7 @@
       <c r="AQ80" t="n">
         <v>1</v>
       </c>
-      <c r="AR80" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AS80" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT80" t="inlineStr"/>
-      <c r="AU80" t="n">
+      <c r="AR80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14063,18 +13075,7 @@
       <c r="AQ81" t="n">
         <v>1</v>
       </c>
-      <c r="AR81" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AS81" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT81" t="inlineStr"/>
-      <c r="AU81" t="n">
+      <c r="AR81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14232,18 +13233,7 @@
       <c r="AQ82" t="n">
         <v>1</v>
       </c>
-      <c r="AR82" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AS82" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT82" t="inlineStr"/>
-      <c r="AU82" t="n">
+      <c r="AR82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14401,18 +13391,7 @@
       <c r="AQ83" t="n">
         <v>1</v>
       </c>
-      <c r="AR83" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AS83" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT83" t="inlineStr"/>
-      <c r="AU83" t="n">
+      <c r="AR83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14570,18 +13549,7 @@
       <c r="AQ84" t="n">
         <v>1</v>
       </c>
-      <c r="AR84" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AS84" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT84" t="inlineStr"/>
-      <c r="AU84" t="n">
+      <c r="AR84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14627,7 +13595,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -14739,18 +13707,7 @@
       <c r="AQ85" t="n">
         <v>1</v>
       </c>
-      <c r="AR85" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AS85" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AT85" t="inlineStr"/>
-      <c r="AU85" t="n">
+      <c r="AR85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14782,7 +13739,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -14890,20 +13847,7 @@
       <c r="AQ86" t="n">
         <v>0</v>
       </c>
-      <c r="AR86" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS86" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="AT86" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU86" t="n">
+      <c r="AR86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14949,7 +13893,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -15061,20 +14005,7 @@
       <c r="AQ87" t="n">
         <v>0</v>
       </c>
-      <c r="AR87" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS87" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="AT87" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU87" t="n">
+      <c r="AR87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15120,7 +14051,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -15232,20 +14163,7 @@
       <c r="AQ88" t="n">
         <v>0</v>
       </c>
-      <c r="AR88" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS88" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="AT88" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU88" t="n">
+      <c r="AR88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15291,7 +14209,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -15403,20 +14321,7 @@
       <c r="AQ89" t="n">
         <v>0</v>
       </c>
-      <c r="AR89" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS89" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="AT89" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU89" t="n">
+      <c r="AR89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15462,7 +14367,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -15574,20 +14479,7 @@
       <c r="AQ90" t="n">
         <v>0</v>
       </c>
-      <c r="AR90" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS90" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="AT90" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU90" t="n">
+      <c r="AR90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15633,7 +14525,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -15745,20 +14637,7 @@
       <c r="AQ91" t="n">
         <v>0</v>
       </c>
-      <c r="AR91" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS91" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="AT91" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU91" t="n">
+      <c r="AR91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15804,7 +14683,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -15916,20 +14795,7 @@
       <c r="AQ92" t="n">
         <v>0</v>
       </c>
-      <c r="AR92" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS92" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="AT92" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU92" t="n">
+      <c r="AR92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15975,7 +14841,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -16087,20 +14953,7 @@
       <c r="AQ93" t="n">
         <v>0</v>
       </c>
-      <c r="AR93" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="AS93" t="inlineStr">
-        <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
-      <c r="AT93" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU93" t="n">
+      <c r="AR93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16240,20 +15093,7 @@
       <c r="AQ94" t="n">
         <v>0</v>
       </c>
-      <c r="AR94" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS94" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT94" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU94" t="n">
+      <c r="AR94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16411,20 +15251,7 @@
       <c r="AQ95" t="n">
         <v>0</v>
       </c>
-      <c r="AR95" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS95" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT95" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU95" t="n">
+      <c r="AR95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16582,20 +15409,7 @@
       <c r="AQ96" t="n">
         <v>0</v>
       </c>
-      <c r="AR96" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS96" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT96" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU96" t="n">
+      <c r="AR96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16753,20 +15567,7 @@
       <c r="AQ97" t="n">
         <v>0</v>
       </c>
-      <c r="AR97" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS97" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT97" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU97" t="n">
+      <c r="AR97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16924,20 +15725,7 @@
       <c r="AQ98" t="n">
         <v>0</v>
       </c>
-      <c r="AR98" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS98" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT98" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU98" t="n">
+      <c r="AR98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17095,20 +15883,7 @@
       <c r="AQ99" t="n">
         <v>0</v>
       </c>
-      <c r="AR99" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS99" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AT99" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU99" t="n">
+      <c r="AR99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17266,20 +16041,7 @@
       <c r="AQ100" t="n">
         <v>0</v>
       </c>
-      <c r="AR100" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS100" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AT100" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU100" t="n">
+      <c r="AR100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17437,20 +16199,7 @@
       <c r="AQ101" t="n">
         <v>0</v>
       </c>
-      <c r="AR101" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS101" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AT101" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU101" t="n">
+      <c r="AR101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17482,7 +16231,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -17590,18 +16339,7 @@
       <c r="AQ102" t="n">
         <v>1</v>
       </c>
-      <c r="AR102" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AS102" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT102" t="inlineStr"/>
-      <c r="AU102" t="n">
+      <c r="AR102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17647,7 +16385,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -17759,20 +16497,7 @@
       <c r="AQ103" t="n">
         <v>0</v>
       </c>
-      <c r="AR103" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AS103" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="AT103" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU103" t="n">
+      <c r="AR103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17818,7 +16543,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -17930,20 +16655,7 @@
       <c r="AQ104" t="n">
         <v>0</v>
       </c>
-      <c r="AR104" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AS104" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="AT104" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU104" t="n">
+      <c r="AR104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17989,7 +16701,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -18101,20 +16813,7 @@
       <c r="AQ105" t="n">
         <v>0</v>
       </c>
-      <c r="AR105" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AS105" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="AT105" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU105" t="n">
+      <c r="AR105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18272,20 +16971,7 @@
       <c r="AQ106" t="n">
         <v>0</v>
       </c>
-      <c r="AR106" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AS106" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="AT106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU106" t="n">
+      <c r="AR106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18425,18 +17111,7 @@
       <c r="AQ107" t="n">
         <v>1</v>
       </c>
-      <c r="AR107" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS107" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT107" t="inlineStr"/>
-      <c r="AU107" t="n">
+      <c r="AR107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18594,18 +17269,7 @@
       <c r="AQ108" t="n">
         <v>1</v>
       </c>
-      <c r="AR108" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AS108" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT108" t="inlineStr"/>
-      <c r="AU108" t="n">
+      <c r="AR108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18763,18 +17427,7 @@
       <c r="AQ109" t="n">
         <v>1</v>
       </c>
-      <c r="AR109" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AS109" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT109" t="inlineStr"/>
-      <c r="AU109" t="n">
+      <c r="AR109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18932,18 +17585,7 @@
       <c r="AQ110" t="n">
         <v>1</v>
       </c>
-      <c r="AR110" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AS110" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT110" t="inlineStr"/>
-      <c r="AU110" t="n">
+      <c r="AR110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19101,18 +17743,7 @@
       <c r="AQ111" t="n">
         <v>1</v>
       </c>
-      <c r="AR111" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS111" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT111" t="inlineStr"/>
-      <c r="AU111" t="n">
+      <c r="AR111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19270,20 +17901,7 @@
       <c r="AQ112" t="n">
         <v>0</v>
       </c>
-      <c r="AR112" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS112" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AT112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU112" t="n">
+      <c r="AR112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19441,20 +18059,7 @@
       <c r="AQ113" t="n">
         <v>0</v>
       </c>
-      <c r="AR113" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS113" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AT113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU113" t="n">
+      <c r="AR113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19612,20 +18217,7 @@
       <c r="AQ114" t="n">
         <v>0</v>
       </c>
-      <c r="AR114" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS114" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AT114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU114" t="n">
+      <c r="AR114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19783,18 +18375,7 @@
       <c r="AQ115" t="n">
         <v>1</v>
       </c>
-      <c r="AR115" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS115" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT115" t="inlineStr"/>
-      <c r="AU115" t="n">
+      <c r="AR115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19952,18 +18533,7 @@
       <c r="AQ116" t="n">
         <v>1</v>
       </c>
-      <c r="AR116" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS116" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT116" t="inlineStr"/>
-      <c r="AU116" t="n">
+      <c r="AR116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20121,18 +18691,7 @@
       <c r="AQ117" t="n">
         <v>1</v>
       </c>
-      <c r="AR117" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS117" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT117" t="inlineStr"/>
-      <c r="AU117" t="n">
+      <c r="AR117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20272,20 +18831,7 @@
       <c r="AQ118" t="n">
         <v>0</v>
       </c>
-      <c r="AR118" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS118" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU118" t="n">
+      <c r="AR118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20443,20 +18989,7 @@
       <c r="AQ119" t="n">
         <v>0</v>
       </c>
-      <c r="AR119" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS119" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AT119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU119" t="n">
+      <c r="AR119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20614,20 +19147,7 @@
       <c r="AQ120" t="n">
         <v>0</v>
       </c>
-      <c r="AR120" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="AS120" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AT120" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU120" t="n">
+      <c r="AR120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20785,20 +19305,7 @@
       <c r="AQ121" t="n">
         <v>0</v>
       </c>
-      <c r="AR121" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="AS121" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT121" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU121" t="n">
+      <c r="AR121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20956,20 +19463,7 @@
       <c r="AQ122" t="n">
         <v>0</v>
       </c>
-      <c r="AR122" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS122" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU122" t="n">
+      <c r="AR122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21127,20 +19621,7 @@
       <c r="AQ123" t="n">
         <v>0</v>
       </c>
-      <c r="AR123" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS123" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AT123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU123" t="n">
+      <c r="AR123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21298,20 +19779,7 @@
       <c r="AQ124" t="n">
         <v>0</v>
       </c>
-      <c r="AR124" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS124" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU124" t="n">
+      <c r="AR124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21469,20 +19937,7 @@
       <c r="AQ125" t="n">
         <v>0</v>
       </c>
-      <c r="AR125" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS125" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU125" t="n">
+      <c r="AR125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21514,7 +19969,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -21622,20 +20077,7 @@
       <c r="AQ126" t="n">
         <v>0</v>
       </c>
-      <c r="AR126" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AS126" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU126" t="n">
+      <c r="AR126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21681,7 +20123,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -21793,20 +20235,7 @@
       <c r="AQ127" t="n">
         <v>0</v>
       </c>
-      <c r="AR127" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AS127" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU127" t="n">
+      <c r="AR127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21852,7 +20281,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -21964,21 +20393,8 @@
       <c r="AQ128" t="n">
         <v>0</v>
       </c>
-      <c r="AR128" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AS128" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU128" t="n">
-        <v>0</v>
+      <c r="AR128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -22023,7 +20439,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -22135,20 +20551,7 @@
       <c r="AQ129" t="n">
         <v>0</v>
       </c>
-      <c r="AR129" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AS129" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU129" t="n">
+      <c r="AR129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22194,7 +20597,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -22306,20 +20709,7 @@
       <c r="AQ130" t="n">
         <v>0</v>
       </c>
-      <c r="AR130" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AS130" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU130" t="n">
+      <c r="AR130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22365,7 +20755,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -22477,20 +20867,7 @@
       <c r="AQ131" t="n">
         <v>0</v>
       </c>
-      <c r="AR131" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AS131" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU131" t="n">
+      <c r="AR131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22536,7 +20913,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -22648,20 +21025,7 @@
       <c r="AQ132" t="n">
         <v>0</v>
       </c>
-      <c r="AR132" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AS132" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU132" t="n">
+      <c r="AR132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22693,7 +21057,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -22801,18 +21165,7 @@
       <c r="AQ133" t="n">
         <v>1</v>
       </c>
-      <c r="AR133" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS133" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT133" t="inlineStr"/>
-      <c r="AU133" t="n">
+      <c r="AR133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22858,7 +21211,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -22970,18 +21323,7 @@
       <c r="AQ134" t="n">
         <v>1</v>
       </c>
-      <c r="AR134" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS134" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT134" t="inlineStr"/>
-      <c r="AU134" t="n">
+      <c r="AR134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23027,7 +21369,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -23139,18 +21481,7 @@
       <c r="AQ135" t="n">
         <v>1</v>
       </c>
-      <c r="AR135" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS135" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT135" t="inlineStr"/>
-      <c r="AU135" t="n">
+      <c r="AR135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23196,7 +21527,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -23308,18 +21639,7 @@
       <c r="AQ136" t="n">
         <v>1</v>
       </c>
-      <c r="AR136" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS136" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT136" t="inlineStr"/>
-      <c r="AU136" t="n">
+      <c r="AR136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23365,7 +21685,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -23477,18 +21797,7 @@
       <c r="AQ137" t="n">
         <v>1</v>
       </c>
-      <c r="AR137" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS137" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT137" t="inlineStr"/>
-      <c r="AU137" t="n">
+      <c r="AR137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23534,7 +21843,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -23646,18 +21955,7 @@
       <c r="AQ138" t="n">
         <v>1</v>
       </c>
-      <c r="AR138" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS138" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT138" t="inlineStr"/>
-      <c r="AU138" t="n">
+      <c r="AR138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23703,7 +22001,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -23815,18 +22113,7 @@
       <c r="AQ139" t="n">
         <v>1</v>
       </c>
-      <c r="AR139" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS139" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT139" t="inlineStr"/>
-      <c r="AU139" t="n">
+      <c r="AR139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23872,7 +22159,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -23984,18 +22271,7 @@
       <c r="AQ140" t="n">
         <v>1</v>
       </c>
-      <c r="AR140" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS140" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AT140" t="inlineStr"/>
-      <c r="AU140" t="n">
+      <c r="AR140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24027,7 +22303,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -24135,18 +22411,7 @@
       <c r="AQ141" t="n">
         <v>1</v>
       </c>
-      <c r="AR141" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AS141" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT141" t="inlineStr"/>
-      <c r="AU141" t="n">
+      <c r="AR141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24192,7 +22457,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -24304,20 +22569,7 @@
       <c r="AQ142" t="n">
         <v>0</v>
       </c>
-      <c r="AR142" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="AS142" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT142" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU142" t="n">
+      <c r="AR142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24363,7 +22615,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -24475,18 +22727,7 @@
       <c r="AQ143" t="n">
         <v>1</v>
       </c>
-      <c r="AR143" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AS143" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AT143" t="inlineStr"/>
-      <c r="AU143" t="n">
+      <c r="AR143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24518,7 +22759,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -24626,20 +22867,7 @@
       <c r="AQ144" t="n">
         <v>0</v>
       </c>
-      <c r="AR144" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS144" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AT144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU144" t="n">
+      <c r="AR144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24685,7 +22913,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -24797,20 +23025,7 @@
       <c r="AQ145" t="n">
         <v>0</v>
       </c>
-      <c r="AR145" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AS145" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU145" t="n">
+      <c r="AR145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24856,7 +23071,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -24968,20 +23183,7 @@
       <c r="AQ146" t="n">
         <v>0</v>
       </c>
-      <c r="AR146" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AS146" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU146" t="n">
+      <c r="AR146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25027,7 +23229,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -25139,20 +23341,7 @@
       <c r="AQ147" t="n">
         <v>0</v>
       </c>
-      <c r="AR147" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AS147" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU147" t="n">
+      <c r="AR147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25198,7 +23387,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -25310,20 +23499,7 @@
       <c r="AQ148" t="n">
         <v>0</v>
       </c>
-      <c r="AR148" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AS148" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU148" t="n">
+      <c r="AR148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25355,7 +23531,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -25463,18 +23639,7 @@
       <c r="AQ149" t="n">
         <v>1</v>
       </c>
-      <c r="AR149" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS149" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AT149" t="inlineStr"/>
-      <c r="AU149" t="n">
+      <c r="AR149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -25632,18 +23797,7 @@
       <c r="AQ150" t="n">
         <v>1</v>
       </c>
-      <c r="AR150" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AS150" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AT150" t="inlineStr"/>
-      <c r="AU150" t="n">
+      <c r="AR150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25801,18 +23955,7 @@
       <c r="AQ151" t="n">
         <v>1</v>
       </c>
-      <c r="AR151" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AS151" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AT151" t="inlineStr"/>
-      <c r="AU151" t="n">
+      <c r="AR151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25970,18 +24113,7 @@
       <c r="AQ152" t="n">
         <v>1</v>
       </c>
-      <c r="AR152" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AS152" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AT152" t="inlineStr"/>
-      <c r="AU152" t="n">
+      <c r="AR152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26139,18 +24271,7 @@
       <c r="AQ153" t="n">
         <v>1</v>
       </c>
-      <c r="AR153" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AS153" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AT153" t="inlineStr"/>
-      <c r="AU153" t="n">
+      <c r="AR153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26308,18 +24429,7 @@
       <c r="AQ154" t="n">
         <v>1</v>
       </c>
-      <c r="AR154" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AS154" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AT154" t="inlineStr"/>
-      <c r="AU154" t="n">
+      <c r="AR154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26459,18 +24569,7 @@
       <c r="AQ155" t="n">
         <v>1</v>
       </c>
-      <c r="AR155" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="AS155" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT155" t="inlineStr"/>
-      <c r="AU155" t="n">
+      <c r="AR155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26516,7 +24615,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Russia', 'Greece']</t>
+          <t>['Greece', 'Russia']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -26628,20 +24727,7 @@
       <c r="AQ156" t="n">
         <v>0</v>
       </c>
-      <c r="AR156" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS156" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="AT156" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU156" t="n">
+      <c r="AR156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26687,7 +24773,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Greece']</t>
+          <t>['Greece', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -26799,18 +24885,7 @@
       <c r="AQ157" t="n">
         <v>1</v>
       </c>
-      <c r="AR157" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS157" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="AT157" t="inlineStr"/>
-      <c r="AU157" t="n">
+      <c r="AR157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26842,7 +24917,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -26950,20 +25025,7 @@
       <c r="AQ158" t="n">
         <v>0</v>
       </c>
-      <c r="AR158" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS158" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT158" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU158" t="n">
+      <c r="AR158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27121,20 +25183,7 @@
       <c r="AQ159" t="n">
         <v>0</v>
       </c>
-      <c r="AR159" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AS159" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT159" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU159" t="n">
+      <c r="AR159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27180,7 +25229,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -27292,20 +25341,7 @@
       <c r="AQ160" t="n">
         <v>0</v>
       </c>
-      <c r="AR160" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS160" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT160" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU160" t="n">
+      <c r="AR160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27463,20 +25499,7 @@
       <c r="AQ161" t="n">
         <v>0</v>
       </c>
-      <c r="AR161" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AS161" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT161" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU161" t="n">
+      <c r="AR161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27522,7 +25545,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -27634,20 +25657,7 @@
       <c r="AQ162" t="n">
         <v>0</v>
       </c>
-      <c r="AR162" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS162" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT162" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU162" t="n">
+      <c r="AR162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -27693,7 +25703,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -27805,20 +25815,7 @@
       <c r="AQ163" t="n">
         <v>0</v>
       </c>
-      <c r="AR163" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS163" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT163" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU163" t="n">
+      <c r="AR163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27864,7 +25861,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -27976,20 +25973,7 @@
       <c r="AQ164" t="n">
         <v>0</v>
       </c>
-      <c r="AR164" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS164" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT164" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU164" t="n">
+      <c r="AR164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28129,21 +26113,8 @@
       <c r="AQ165" t="n">
         <v>0</v>
       </c>
-      <c r="AR165" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AS165" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU165" t="n">
-        <v>0</v>
+      <c r="AR165" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -28300,18 +26271,7 @@
       <c r="AQ166" t="n">
         <v>1</v>
       </c>
-      <c r="AR166" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS166" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT166" t="inlineStr"/>
-      <c r="AU166" t="n">
+      <c r="AR166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28357,7 +26317,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -28469,20 +26429,7 @@
       <c r="AQ167" t="n">
         <v>0</v>
       </c>
-      <c r="AR167" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS167" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU167" t="n">
+      <c r="AR167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28528,7 +26475,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -28640,20 +26587,7 @@
       <c r="AQ168" t="n">
         <v>0</v>
       </c>
-      <c r="AR168" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS168" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU168" t="n">
+      <c r="AR168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28793,18 +26727,7 @@
       <c r="AQ169" t="n">
         <v>1</v>
       </c>
-      <c r="AR169" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AS169" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT169" t="inlineStr"/>
-      <c r="AU169" t="n">
+      <c r="AR169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -28962,20 +26885,7 @@
       <c r="AQ170" t="n">
         <v>0</v>
       </c>
-      <c r="AR170" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AS170" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AT170" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU170" t="n">
+      <c r="AR170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29133,20 +27043,7 @@
       <c r="AQ171" t="n">
         <v>0</v>
       </c>
-      <c r="AR171" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AS171" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AT171" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU171" t="n">
+      <c r="AR171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29304,20 +27201,7 @@
       <c r="AQ172" t="n">
         <v>0</v>
       </c>
-      <c r="AR172" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AS172" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="AT172" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU172" t="n">
+      <c r="AR172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29349,7 +27233,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -29457,18 +27341,7 @@
       <c r="AQ173" t="n">
         <v>1</v>
       </c>
-      <c r="AR173" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
-      </c>
-      <c r="AS173" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AT173" t="inlineStr"/>
-      <c r="AU173" t="n">
+      <c r="AR173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -29514,7 +27387,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Albania']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -29626,18 +27499,7 @@
       <c r="AQ174" t="n">
         <v>1</v>
       </c>
-      <c r="AR174" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AS174" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
-      </c>
-      <c r="AT174" t="inlineStr"/>
-      <c r="AU174" t="n">
+      <c r="AR174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -29777,20 +27639,7 @@
       <c r="AQ175" t="n">
         <v>0</v>
       </c>
-      <c r="AR175" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS175" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AT175" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU175" t="n">
+      <c r="AR175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29836,7 +27685,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -29948,20 +27797,7 @@
       <c r="AQ176" t="n">
         <v>0</v>
       </c>
-      <c r="AR176" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS176" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AT176" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU176" t="n">
+      <c r="AR176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30007,7 +27843,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -30119,20 +27955,7 @@
       <c r="AQ177" t="n">
         <v>0</v>
       </c>
-      <c r="AR177" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS177" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AT177" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU177" t="n">
+      <c r="AR177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30178,7 +28001,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Slovakia', 'England', 'Wales']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -30290,20 +28113,7 @@
       <c r="AQ178" t="n">
         <v>0</v>
       </c>
-      <c r="AR178" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS178" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AT178" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU178" t="n">
+      <c r="AR178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30443,20 +28253,7 @@
       <c r="AQ179" t="n">
         <v>0</v>
       </c>
-      <c r="AR179" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AS179" t="inlineStr">
-        <is>
-          <t>Northern Ireland</t>
-        </is>
-      </c>
-      <c r="AT179" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU179" t="n">
+      <c r="AR179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30614,20 +28411,7 @@
       <c r="AQ180" t="n">
         <v>0</v>
       </c>
-      <c r="AR180" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AS180" t="inlineStr">
-        <is>
-          <t>Northern Ireland</t>
-        </is>
-      </c>
-      <c r="AT180" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU180" t="n">
+      <c r="AR180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30785,20 +28569,7 @@
       <c r="AQ181" t="n">
         <v>0</v>
       </c>
-      <c r="AR181" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AS181" t="inlineStr">
-        <is>
-          <t>Northern Ireland</t>
-        </is>
-      </c>
-      <c r="AT181" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU181" t="n">
+      <c r="AR181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30830,7 +28601,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -30938,20 +28709,7 @@
       <c r="AQ182" t="n">
         <v>0</v>
       </c>
-      <c r="AR182" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS182" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU182" t="n">
+      <c r="AR182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30997,7 +28755,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -31109,20 +28867,7 @@
       <c r="AQ183" t="n">
         <v>0</v>
       </c>
-      <c r="AR183" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS183" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU183" t="n">
+      <c r="AR183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31168,7 +28913,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -31280,18 +29025,7 @@
       <c r="AQ184" t="n">
         <v>1</v>
       </c>
-      <c r="AR184" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS184" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AT184" t="inlineStr"/>
-      <c r="AU184" t="n">
+      <c r="AR184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31337,7 +29071,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -31449,18 +29183,7 @@
       <c r="AQ185" t="n">
         <v>1</v>
       </c>
-      <c r="AR185" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS185" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AT185" t="inlineStr"/>
-      <c r="AU185" t="n">
+      <c r="AR185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31506,7 +29229,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -31618,18 +29341,7 @@
       <c r="AQ186" t="n">
         <v>1</v>
       </c>
-      <c r="AR186" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS186" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AT186" t="inlineStr"/>
-      <c r="AU186" t="n">
+      <c r="AR186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31675,7 +29387,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -31787,18 +29499,7 @@
       <c r="AQ187" t="n">
         <v>1</v>
       </c>
-      <c r="AR187" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS187" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AT187" t="inlineStr"/>
-      <c r="AU187" t="n">
+      <c r="AR187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31830,7 +29531,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -31938,20 +29639,7 @@
       <c r="AQ188" t="n">
         <v>0</v>
       </c>
-      <c r="AR188" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AS188" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT188" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU188" t="n">
+      <c r="AR188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31997,7 +29685,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -32109,20 +29797,7 @@
       <c r="AQ189" t="n">
         <v>0</v>
       </c>
-      <c r="AR189" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AS189" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT189" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU189" t="n">
+      <c r="AR189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32168,7 +29843,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -32280,20 +29955,7 @@
       <c r="AQ190" t="n">
         <v>0</v>
       </c>
-      <c r="AR190" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AS190" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="AT190" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU190" t="n">
+      <c r="AR190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32339,7 +30001,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -32451,20 +30113,7 @@
       <c r="AQ191" t="n">
         <v>0</v>
       </c>
-      <c r="AR191" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AS191" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT191" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU191" t="n">
+      <c r="AR191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32510,7 +30159,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -32622,20 +30271,7 @@
       <c r="AQ192" t="n">
         <v>0</v>
       </c>
-      <c r="AR192" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AS192" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="AT192" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU192" t="n">
+      <c r="AR192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32681,7 +30317,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -32793,20 +30429,7 @@
       <c r="AQ193" t="n">
         <v>0</v>
       </c>
-      <c r="AR193" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AS193" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT193" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU193" t="n">
+      <c r="AR193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32852,7 +30475,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -32964,20 +30587,7 @@
       <c r="AQ194" t="n">
         <v>0</v>
       </c>
-      <c r="AR194" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AS194" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="AT194" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU194" t="n">
+      <c r="AR194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33023,7 +30633,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -33135,20 +30745,7 @@
       <c r="AQ195" t="n">
         <v>0</v>
       </c>
-      <c r="AR195" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AS195" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="AT195" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU195" t="n">
+      <c r="AR195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33194,7 +30791,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -33306,18 +30903,7 @@
       <c r="AQ196" t="n">
         <v>1</v>
       </c>
-      <c r="AR196" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AS196" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="AT196" t="inlineStr"/>
-      <c r="AU196" t="n">
+      <c r="AR196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33363,7 +30949,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -33475,20 +31061,7 @@
       <c r="AQ197" t="n">
         <v>0</v>
       </c>
-      <c r="AR197" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AS197" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT197" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU197" t="n">
+      <c r="AR197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33520,7 +31093,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -33628,18 +31201,7 @@
       <c r="AQ198" t="n">
         <v>1</v>
       </c>
-      <c r="AR198" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AS198" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AT198" t="inlineStr"/>
-      <c r="AU198" t="n">
+      <c r="AR198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -33685,7 +31247,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -33797,20 +31359,7 @@
       <c r="AQ199" t="n">
         <v>0</v>
       </c>
-      <c r="AR199" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="AS199" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="AT199" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU199" t="n">
+      <c r="AR199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33856,7 +31405,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Ireland']</t>
+          <t>['Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -33968,20 +31517,7 @@
       <c r="AQ200" t="n">
         <v>0</v>
       </c>
-      <c r="AR200" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AS200" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="AT200" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU200" t="n">
+      <c r="AR200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34013,7 +31549,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -34121,20 +31657,7 @@
       <c r="AQ201" t="n">
         <v>0</v>
       </c>
-      <c r="AR201" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="AS201" t="inlineStr">
-        <is>
-          <t>Wales</t>
-        </is>
-      </c>
-      <c r="AT201" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU201" t="n">
+      <c r="AR201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34180,7 +31703,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -34292,18 +31815,7 @@
       <c r="AQ202" t="n">
         <v>1</v>
       </c>
-      <c r="AR202" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS202" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="AT202" t="inlineStr"/>
-      <c r="AU202" t="n">
+      <c r="AR202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34349,7 +31861,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -34461,18 +31973,7 @@
       <c r="AQ203" t="n">
         <v>1</v>
       </c>
-      <c r="AR203" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS203" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="AT203" t="inlineStr"/>
-      <c r="AU203" t="n">
+      <c r="AR203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34518,7 +32019,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -34630,18 +32131,7 @@
       <c r="AQ204" t="n">
         <v>1</v>
       </c>
-      <c r="AR204" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS204" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="AT204" t="inlineStr"/>
-      <c r="AU204" t="n">
+      <c r="AR204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34687,7 +32177,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -34799,18 +32289,7 @@
       <c r="AQ205" t="n">
         <v>1</v>
       </c>
-      <c r="AR205" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS205" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="AT205" t="inlineStr"/>
-      <c r="AU205" t="n">
+      <c r="AR205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34856,7 +32335,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Italy', 'Switzerland', 'Wales']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -34968,18 +32447,7 @@
       <c r="AQ206" t="n">
         <v>1</v>
       </c>
-      <c r="AR206" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AS206" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="AT206" t="inlineStr"/>
-      <c r="AU206" t="n">
+      <c r="AR206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35119,20 +32587,7 @@
       <c r="AQ207" t="n">
         <v>0</v>
       </c>
-      <c r="AR207" t="inlineStr">
-        <is>
-          <t>North Macedonia</t>
-        </is>
-      </c>
-      <c r="AS207" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AT207" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU207" t="n">
+      <c r="AR207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35290,20 +32745,7 @@
       <c r="AQ208" t="n">
         <v>0</v>
       </c>
-      <c r="AR208" t="inlineStr">
-        <is>
-          <t>North Macedonia</t>
-        </is>
-      </c>
-      <c r="AS208" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AT208" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU208" t="n">
+      <c r="AR208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35461,20 +32903,7 @@
       <c r="AQ209" t="n">
         <v>0</v>
       </c>
-      <c r="AR209" t="inlineStr">
-        <is>
-          <t>North Macedonia</t>
-        </is>
-      </c>
-      <c r="AS209" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AT209" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU209" t="n">
+      <c r="AR209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35632,20 +33061,7 @@
       <c r="AQ210" t="n">
         <v>0</v>
       </c>
-      <c r="AR210" t="inlineStr">
-        <is>
-          <t>North Macedonia</t>
-        </is>
-      </c>
-      <c r="AS210" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AT210" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU210" t="n">
+      <c r="AR210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35803,20 +33219,7 @@
       <c r="AQ211" t="n">
         <v>0</v>
       </c>
-      <c r="AR211" t="inlineStr">
-        <is>
-          <t>North Macedonia</t>
-        </is>
-      </c>
-      <c r="AS211" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AT211" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU211" t="n">
+      <c r="AR211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35848,7 +33251,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -35956,20 +33359,7 @@
       <c r="AQ212" t="n">
         <v>0</v>
       </c>
-      <c r="AR212" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AS212" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="AT212" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU212" t="n">
+      <c r="AR212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36127,18 +33517,7 @@
       <c r="AQ213" t="n">
         <v>1</v>
       </c>
-      <c r="AR213" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS213" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT213" t="inlineStr"/>
-      <c r="AU213" t="n">
+      <c r="AR213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -36296,18 +33675,7 @@
       <c r="AQ214" t="n">
         <v>1</v>
       </c>
-      <c r="AR214" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS214" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT214" t="inlineStr"/>
-      <c r="AU214" t="n">
+      <c r="AR214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36465,18 +33833,7 @@
       <c r="AQ215" t="n">
         <v>1</v>
       </c>
-      <c r="AR215" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS215" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="AT215" t="inlineStr"/>
-      <c r="AU215" t="n">
+      <c r="AR215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -36522,7 +33879,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -36634,20 +33991,7 @@
       <c r="AQ216" t="n">
         <v>0</v>
       </c>
-      <c r="AR216" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="AS216" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AT216" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU216" t="n">
+      <c r="AR216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -36805,20 +34149,7 @@
       <c r="AQ217" t="n">
         <v>0</v>
       </c>
-      <c r="AR217" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS217" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="AT217" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU217" t="n">
+      <c r="AR217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36976,20 +34307,7 @@
       <c r="AQ218" t="n">
         <v>0</v>
       </c>
-      <c r="AR218" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS218" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="AT218" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU218" t="n">
+      <c r="AR218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37147,20 +34465,7 @@
       <c r="AQ219" t="n">
         <v>0</v>
       </c>
-      <c r="AR219" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="AS219" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="AT219" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU219" t="n">
+      <c r="AR219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37192,7 +34497,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -37300,20 +34605,7 @@
       <c r="AQ220" t="n">
         <v>0</v>
       </c>
-      <c r="AR220" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS220" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="AT220" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU220" t="n">
+      <c r="AR220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37359,7 +34651,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -37471,20 +34763,7 @@
       <c r="AQ221" t="n">
         <v>0</v>
       </c>
-      <c r="AR221" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS221" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU221" t="n">
+      <c r="AR221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37530,7 +34809,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -37642,18 +34921,7 @@
       <c r="AQ222" t="n">
         <v>1</v>
       </c>
-      <c r="AR222" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS222" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT222" t="inlineStr"/>
-      <c r="AU222" t="n">
+      <c r="AR222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37699,7 +34967,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -37811,20 +35079,7 @@
       <c r="AQ223" t="n">
         <v>0</v>
       </c>
-      <c r="AR223" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS223" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT223" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU223" t="n">
+      <c r="AR223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37870,7 +35125,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -37982,18 +35237,7 @@
       <c r="AQ224" t="n">
         <v>1</v>
       </c>
-      <c r="AR224" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS224" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AT224" t="inlineStr"/>
-      <c r="AU224" t="n">
+      <c r="AR224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38039,7 +35283,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -38151,20 +35395,7 @@
       <c r="AQ225" t="n">
         <v>0</v>
       </c>
-      <c r="AR225" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS225" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AT225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU225" t="n">
+      <c r="AR225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38196,7 +35427,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -38304,20 +35535,7 @@
       <c r="AQ226" t="n">
         <v>0</v>
       </c>
-      <c r="AR226" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="AS226" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT226" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU226" t="n">
+      <c r="AR226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -38363,7 +35581,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -38475,20 +35693,7 @@
       <c r="AQ227" t="n">
         <v>0</v>
       </c>
-      <c r="AR227" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="AS227" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT227" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU227" t="n">
+      <c r="AR227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38534,7 +35739,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -38646,18 +35851,7 @@
       <c r="AQ228" t="n">
         <v>1</v>
       </c>
-      <c r="AR228" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AS228" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT228" t="inlineStr"/>
-      <c r="AU228" t="n">
+      <c r="AR228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38703,7 +35897,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -38815,18 +36009,7 @@
       <c r="AQ229" t="n">
         <v>1</v>
       </c>
-      <c r="AR229" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AS229" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT229" t="inlineStr"/>
-      <c r="AU229" t="n">
+      <c r="AR229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38872,7 +36055,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -38984,18 +36167,7 @@
       <c r="AQ230" t="n">
         <v>1</v>
       </c>
-      <c r="AR230" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AS230" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT230" t="inlineStr"/>
-      <c r="AU230" t="n">
+      <c r="AR230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39041,7 +36213,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -39153,18 +36325,7 @@
       <c r="AQ231" t="n">
         <v>1</v>
       </c>
-      <c r="AR231" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AS231" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT231" t="inlineStr"/>
-      <c r="AU231" t="n">
+      <c r="AR231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39210,7 +36371,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -39322,18 +36483,7 @@
       <c r="AQ232" t="n">
         <v>1</v>
       </c>
-      <c r="AR232" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AS232" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT232" t="inlineStr"/>
-      <c r="AU232" t="n">
+      <c r="AR232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39379,7 +36529,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -39491,18 +36641,7 @@
       <c r="AQ233" t="n">
         <v>1</v>
       </c>
-      <c r="AR233" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AS233" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT233" t="inlineStr"/>
-      <c r="AU233" t="n">
+      <c r="AR233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39548,7 +36687,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -39660,18 +36799,7 @@
       <c r="AQ234" t="n">
         <v>1</v>
       </c>
-      <c r="AR234" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AS234" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT234" t="inlineStr"/>
-      <c r="AU234" t="n">
+      <c r="AR234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39717,7 +36845,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -39829,20 +36957,7 @@
       <c r="AQ235" t="n">
         <v>0</v>
       </c>
-      <c r="AR235" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AS235" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="AT235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU235" t="n">
+      <c r="AR235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39888,7 +37003,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -40000,18 +37115,7 @@
       <c r="AQ236" t="n">
         <v>1</v>
       </c>
-      <c r="AR236" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AS236" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="AT236" t="inlineStr"/>
-      <c r="AU236" t="n">
+      <c r="AR236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40043,7 +37147,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -40151,20 +37255,7 @@
       <c r="AQ237" t="n">
         <v>0</v>
       </c>
-      <c r="AR237" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AS237" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU237" t="n">
+      <c r="AR237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40322,18 +37413,7 @@
       <c r="AQ238" t="n">
         <v>1</v>
       </c>
-      <c r="AR238" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AS238" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AT238" t="inlineStr"/>
-      <c r="AU238" t="n">
+      <c r="AR238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40491,18 +37571,7 @@
       <c r="AQ239" t="n">
         <v>1</v>
       </c>
-      <c r="AR239" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AS239" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AT239" t="inlineStr"/>
-      <c r="AU239" t="n">
+      <c r="AR239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40660,18 +37729,7 @@
       <c r="AQ240" t="n">
         <v>1</v>
       </c>
-      <c r="AR240" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AS240" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AT240" t="inlineStr"/>
-      <c r="AU240" t="n">
+      <c r="AR240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40829,18 +37887,7 @@
       <c r="AQ241" t="n">
         <v>1</v>
       </c>
-      <c r="AR241" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AS241" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AT241" t="inlineStr"/>
-      <c r="AU241" t="n">
+      <c r="AR241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -40998,18 +38045,7 @@
       <c r="AQ242" t="n">
         <v>1</v>
       </c>
-      <c r="AR242" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AS242" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AT242" t="inlineStr"/>
-      <c r="AU242" t="n">
+      <c r="AR242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41055,7 +38091,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -41167,20 +38203,7 @@
       <c r="AQ243" t="n">
         <v>0</v>
       </c>
-      <c r="AR243" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AS243" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU243" t="n">
+      <c r="AR243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41338,18 +38361,7 @@
       <c r="AQ244" t="n">
         <v>1</v>
       </c>
-      <c r="AR244" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="AS244" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AT244" t="inlineStr"/>
-      <c r="AU244" t="n">
+      <c r="AR244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41395,7 +38407,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -41507,20 +38519,7 @@
       <c r="AQ245" t="n">
         <v>0</v>
       </c>
-      <c r="AR245" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AS245" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="AT245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU245" t="n">
+      <c r="AR245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41552,7 +38551,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -41660,18 +38659,7 @@
       <c r="AQ246" t="n">
         <v>1</v>
       </c>
-      <c r="AR246" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AS246" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AT246" t="inlineStr"/>
-      <c r="AU246" t="n">
+      <c r="AR246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41717,7 +38705,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -41829,18 +38817,7 @@
       <c r="AQ247" t="n">
         <v>1</v>
       </c>
-      <c r="AR247" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AS247" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AT247" t="inlineStr"/>
-      <c r="AU247" t="n">
+      <c r="AR247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -41886,7 +38863,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -41998,18 +38975,7 @@
       <c r="AQ248" t="n">
         <v>1</v>
       </c>
-      <c r="AR248" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AS248" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AT248" t="inlineStr"/>
-      <c r="AU248" t="n">
+      <c r="AR248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42055,7 +39021,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -42167,18 +39133,7 @@
       <c r="AQ249" t="n">
         <v>1</v>
       </c>
-      <c r="AR249" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="AS249" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="AT249" t="inlineStr"/>
-      <c r="AU249" t="n">
+      <c r="AR249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42210,7 +39165,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -42318,20 +39273,7 @@
       <c r="AQ250" t="n">
         <v>0</v>
       </c>
-      <c r="AR250" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
-      </c>
-      <c r="AS250" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU250" t="n">
+      <c r="AR250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42377,7 +39319,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -42489,18 +39431,7 @@
       <c r="AQ251" t="n">
         <v>1</v>
       </c>
-      <c r="AR251" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS251" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT251" t="inlineStr"/>
-      <c r="AU251" t="n">
+      <c r="AR251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42546,7 +39477,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -42658,20 +39589,7 @@
       <c r="AQ252" t="n">
         <v>0</v>
       </c>
-      <c r="AR252" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
-      </c>
-      <c r="AS252" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU252" t="n">
+      <c r="AR252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42717,7 +39635,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -42829,18 +39747,7 @@
       <c r="AQ253" t="n">
         <v>1</v>
       </c>
-      <c r="AR253" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="AS253" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="AT253" t="inlineStr"/>
-      <c r="AU253" t="n">
+      <c r="AR253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -42872,7 +39779,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -42980,20 +39887,7 @@
       <c r="AQ254" t="n">
         <v>0</v>
       </c>
-      <c r="AR254" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="AS254" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AT254" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU254" t="n">
+      <c r="AR254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43039,7 +39933,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -43151,20 +40045,7 @@
       <c r="AQ255" t="n">
         <v>0</v>
       </c>
-      <c r="AR255" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="AS255" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT255" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU255" t="n">
+      <c r="AR255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43210,7 +40091,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -43322,20 +40203,7 @@
       <c r="AQ256" t="n">
         <v>0</v>
       </c>
-      <c r="AR256" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="AS256" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AT256" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU256" t="n">
+      <c r="AR256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43381,7 +40249,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -43493,20 +40361,7 @@
       <c r="AQ257" t="n">
         <v>0</v>
       </c>
-      <c r="AR257" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="AS257" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AT257" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU257" t="n">
+      <c r="AR257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43552,7 +40407,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -43664,20 +40519,7 @@
       <c r="AQ258" t="n">
         <v>0</v>
       </c>
-      <c r="AR258" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="AS258" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT258" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU258" t="n">
+      <c r="AR258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43723,7 +40565,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -43835,20 +40677,7 @@
       <c r="AQ259" t="n">
         <v>0</v>
       </c>
-      <c r="AR259" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="AS259" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AT259" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU259" t="n">
+      <c r="AR259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43894,7 +40723,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -44006,20 +40835,7 @@
       <c r="AQ260" t="n">
         <v>0</v>
       </c>
-      <c r="AR260" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="AS260" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="AT260" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU260" t="n">
+      <c r="AR260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44065,7 +40881,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -44177,20 +40993,7 @@
       <c r="AQ261" t="n">
         <v>0</v>
       </c>
-      <c r="AR261" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="AS261" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="AT261" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU261" t="n">
+      <c r="AR261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44222,7 +41025,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovenia', 'England']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -44330,20 +41133,7 @@
       <c r="AQ262" t="n">
         <v>0</v>
       </c>
-      <c r="AR262" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="AS262" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="AT262" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU262" t="n">
+      <c r="AR262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44375,7 +41165,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -44483,20 +41273,7 @@
       <c r="AQ263" t="n">
         <v>0</v>
       </c>
-      <c r="AR263" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AS263" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AT263" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU263" t="n">
+      <c r="AR263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44654,20 +41431,7 @@
       <c r="AQ264" t="n">
         <v>0</v>
       </c>
-      <c r="AR264" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="AS264" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AT264" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU264" t="n">
+      <c r="AR264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44713,7 +41477,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -44825,20 +41589,7 @@
       <c r="AQ265" t="n">
         <v>0</v>
       </c>
-      <c r="AR265" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="AS265" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="AT265" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU265" t="n">
+      <c r="AR265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -44870,7 +41621,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -44978,18 +41729,7 @@
       <c r="AQ266" t="n">
         <v>1</v>
       </c>
-      <c r="AR266" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS266" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="AT266" t="inlineStr"/>
-      <c r="AU266" t="n">
+      <c r="AR266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45035,7 +41775,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -45147,20 +41887,7 @@
       <c r="AQ267" t="n">
         <v>0</v>
       </c>
-      <c r="AR267" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS267" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="AT267" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU267" t="n">
+      <c r="AR267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45206,7 +41933,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -45318,20 +42045,7 @@
       <c r="AQ268" t="n">
         <v>0</v>
       </c>
-      <c r="AR268" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS268" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="AT268" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU268" t="n">
+      <c r="AR268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45377,7 +42091,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -45489,20 +42203,7 @@
       <c r="AQ269" t="n">
         <v>0</v>
       </c>
-      <c r="AR269" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS269" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="AT269" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU269" t="n">
+      <c r="AR269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45548,7 +42249,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -45660,20 +42361,7 @@
       <c r="AQ270" t="n">
         <v>0</v>
       </c>
-      <c r="AR270" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS270" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="AT270" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU270" t="n">
+      <c r="AR270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45719,7 +42407,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Georgia', 'Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -45831,20 +42519,7 @@
       <c r="AQ271" t="n">
         <v>0</v>
       </c>
-      <c r="AR271" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="AS271" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="AT271" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU271" t="n">
+      <c r="AR271" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -683,7 +683,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2403,7 +2403,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2859,7 +2859,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3631,7 +3631,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4561,7 +4561,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -8141,7 +8141,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -10317,7 +10317,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -11405,7 +11405,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12335,7 +12335,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -12805,7 +12805,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -13121,7 +13121,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -13279,7 +13279,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -14985,7 +14985,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -15771,7 +15771,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -15929,7 +15929,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -16087,7 +16087,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -17003,7 +17003,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -17631,7 +17631,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -17789,7 +17789,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -17947,7 +17947,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -18105,7 +18105,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -18421,7 +18421,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -19969,7 +19969,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20123,7 +20123,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -20281,7 +20281,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -20439,7 +20439,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -20597,7 +20597,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -20755,7 +20755,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -20913,7 +20913,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -21057,7 +21057,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -21211,7 +21211,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -21369,7 +21369,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -21527,7 +21527,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -21685,7 +21685,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -21843,7 +21843,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -22001,7 +22001,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -22159,7 +22159,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -22759,7 +22759,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -22913,7 +22913,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -23229,7 +23229,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -23387,7 +23387,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -26159,7 +26159,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -26317,7 +26317,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -26475,7 +26475,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -26619,7 +26619,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -26773,7 +26773,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -26931,7 +26931,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -27089,7 +27089,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -27233,7 +27233,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['France', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['France', 'Albania', 'Switzerland']</t>
+          <t>['Albania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -27531,7 +27531,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -27685,7 +27685,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -28145,7 +28145,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -28457,7 +28457,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -28913,7 +28913,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -29071,7 +29071,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -29229,7 +29229,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -29387,7 +29387,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Turkey', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -29531,7 +29531,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -29685,7 +29685,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -29843,7 +29843,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -30001,7 +30001,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -30159,7 +30159,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -30317,7 +30317,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -30475,7 +30475,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -30633,7 +30633,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -30791,7 +30791,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -30949,7 +30949,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -31093,7 +31093,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -31247,7 +31247,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -32479,7 +32479,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -32633,7 +32633,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -32791,7 +32791,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -32949,7 +32949,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -33107,7 +33107,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -33251,7 +33251,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -33405,7 +33405,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -33563,7 +33563,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -33721,7 +33721,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -33879,7 +33879,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Denmark', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -34497,7 +34497,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -34809,7 +34809,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -34967,7 +34967,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -35125,7 +35125,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -35283,7 +35283,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -35427,7 +35427,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -35581,7 +35581,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -35739,7 +35739,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -35852,7 +35852,7 @@
         <v>1</v>
       </c>
       <c r="AR228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -35897,7 +35897,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -36055,7 +36055,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -36213,7 +36213,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -36371,7 +36371,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -36529,7 +36529,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -36687,7 +36687,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -36845,7 +36845,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -37003,7 +37003,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -37147,7 +37147,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -37301,7 +37301,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -37459,7 +37459,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -37617,7 +37617,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -37775,7 +37775,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Germany']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -37933,7 +37933,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -38091,7 +38091,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -38249,7 +38249,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -38407,7 +38407,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -38551,7 +38551,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -38705,7 +38705,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -38863,7 +38863,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -39021,7 +39021,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -39134,7 +39134,7 @@
         <v>1</v>
       </c>
       <c r="AR249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -39165,7 +39165,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -39319,7 +39319,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -39477,7 +39477,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -39635,7 +39635,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Croatia']</t>
+          <t>['Spain', 'Italy', 'Croatia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -39779,7 +39779,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -39933,7 +39933,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -40091,7 +40091,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -40249,7 +40249,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -40407,7 +40407,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -40565,7 +40565,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -40723,7 +40723,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -40881,7 +40881,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -41025,7 +41025,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -41165,7 +41165,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -41319,7 +41319,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
+          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -41477,7 +41477,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -41621,7 +41621,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -41775,7 +41775,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -41933,7 +41933,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -42091,7 +42091,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -42249,7 +42249,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -42407,7 +42407,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -683,7 +683,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2403,7 +2403,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2859,7 +2859,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3631,7 +3631,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4561,7 +4561,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -6895,7 +6895,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -10317,7 +10317,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -11405,7 +11405,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12335,7 +12335,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12805,7 +12805,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -13121,7 +13121,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -13279,7 +13279,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13739,7 +13739,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -14209,7 +14209,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -14985,7 +14985,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -15771,7 +15771,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -15929,7 +15929,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -16087,7 +16087,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -16859,7 +16859,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -17003,7 +17003,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -17631,7 +17631,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -17789,7 +17789,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -17947,7 +17947,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -18105,7 +18105,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -18421,7 +18421,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -18723,7 +18723,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -18877,7 +18877,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -19035,7 +19035,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -19193,7 +19193,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -19351,7 +19351,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -19509,7 +19509,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -19667,7 +19667,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19825,7 +19825,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -19969,7 +19969,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -20123,7 +20123,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -20281,7 +20281,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -21057,7 +21057,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -21211,7 +21211,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -21369,7 +21369,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -21527,7 +21527,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -21685,7 +21685,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -21843,7 +21843,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -22001,7 +22001,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -22759,7 +22759,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Greece', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Greece']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -25071,7 +25071,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -25387,7 +25387,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -26005,7 +26005,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -26159,7 +26159,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -26317,7 +26317,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -26475,7 +26475,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -26619,7 +26619,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -26773,7 +26773,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -26931,7 +26931,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -27089,7 +27089,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -27233,7 +27233,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Albania', 'Switzerland', 'France']</t>
+          <t>['France', 'Switzerland', 'Albania']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -27531,7 +27531,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -27685,7 +27685,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -28145,7 +28145,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -28457,7 +28457,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Poland', 'Northern Ireland', 'Germany']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -28601,7 +28601,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -28755,7 +28755,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -28913,7 +28913,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -29071,7 +29071,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -29229,7 +29229,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -29387,7 +29387,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -29531,7 +29531,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -29685,7 +29685,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -29843,7 +29843,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -30001,7 +30001,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -30159,7 +30159,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -30317,7 +30317,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -30475,7 +30475,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -30633,7 +30633,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -30791,7 +30791,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -30949,7 +30949,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -31093,7 +31093,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -31247,7 +31247,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -31549,7 +31549,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -31703,7 +31703,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -31861,7 +31861,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -32019,7 +32019,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -32177,7 +32177,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -32335,7 +32335,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -32479,7 +32479,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -32633,7 +32633,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -32791,7 +32791,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -32949,7 +32949,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -33107,7 +33107,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -33251,7 +33251,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Russia']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -33405,7 +33405,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -33563,7 +33563,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -33721,7 +33721,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -33879,7 +33879,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Denmark', 'Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia', 'Denmark']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -34037,7 +34037,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -34353,7 +34353,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -34497,7 +34497,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -34809,7 +34809,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -34967,7 +34967,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -35125,7 +35125,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -35283,7 +35283,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -37147,7 +37147,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -37301,7 +37301,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -37459,7 +37459,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -37617,7 +37617,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -37775,7 +37775,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Germany']</t>
+          <t>['France', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -37933,7 +37933,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -38091,7 +38091,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -38249,7 +38249,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -38407,7 +38407,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -38551,7 +38551,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -38705,7 +38705,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -38863,7 +38863,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -39021,7 +39021,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Germany', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -39165,7 +39165,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -39319,7 +39319,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -39477,7 +39477,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -39635,7 +39635,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Croatia', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -39779,7 +39779,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -39933,7 +39933,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -40091,7 +40091,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -40249,7 +40249,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -40407,7 +40407,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -40565,7 +40565,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -40723,7 +40723,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -40881,7 +40881,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'France']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -41025,7 +41025,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -41165,7 +41165,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -41477,7 +41477,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Romania']</t>
+          <t>['Belgium', 'Romania', 'Slovakia']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -41621,7 +41621,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -41775,7 +41775,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -41933,7 +41933,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -42091,7 +42091,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -42249,7 +42249,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -42407,7 +42407,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -2403,7 +2403,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3631,7 +3631,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5649,7 +5649,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -8141,7 +8141,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Scotland', 'England']</t>
+          <t>['England', 'Scotland']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -9229,7 +9229,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -12335,7 +12335,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12805,7 +12805,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -13121,7 +13121,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -13279,7 +13279,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13739,7 +13739,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -14209,7 +14209,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Norway', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Spain', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -14985,7 +14985,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -16231,7 +16231,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -16385,7 +16385,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -16543,7 +16543,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -17315,7 +17315,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -17473,7 +17473,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -18723,7 +18723,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -18877,7 +18877,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -19035,7 +19035,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -19193,7 +19193,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -19351,7 +19351,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -19509,7 +19509,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -19667,7 +19667,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19825,7 +19825,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -20439,7 +20439,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -20597,7 +20597,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -20755,7 +20755,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -20913,7 +20913,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -21057,7 +21057,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -21211,7 +21211,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -21369,7 +21369,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -21527,7 +21527,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -21685,7 +21685,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -21843,7 +21843,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -22001,7 +22001,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -22303,7 +22303,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -22457,7 +22457,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -22615,7 +22615,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -22759,7 +22759,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -22913,7 +22913,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -23229,7 +23229,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -23387,7 +23387,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -23531,7 +23531,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -26159,7 +26159,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -26317,7 +26317,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -26475,7 +26475,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland', 'Albania']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -27531,7 +27531,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -27685,7 +27685,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -28913,7 +28913,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -29071,7 +29071,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -29229,7 +29229,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -29387,7 +29387,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Croatia', 'Turkey', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Turkey']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -29531,7 +29531,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -29685,7 +29685,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -29843,7 +29843,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -30001,7 +30001,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -30159,7 +30159,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -30317,7 +30317,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -30475,7 +30475,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -30633,7 +30633,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -30791,7 +30791,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -30949,7 +30949,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -31093,7 +31093,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Sweden']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -31247,7 +31247,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'Ireland']</t>
+          <t>['Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -31549,7 +31549,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -31703,7 +31703,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -31861,7 +31861,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -32019,7 +32019,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -32177,7 +32177,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -32335,7 +32335,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -32479,7 +32479,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -32633,7 +32633,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -32791,7 +32791,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -32949,7 +32949,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -33107,7 +33107,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -33251,7 +33251,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Finland']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -33405,7 +33405,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -33563,7 +33563,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -33721,7 +33721,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -33879,7 +33879,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -34037,7 +34037,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -34353,7 +34353,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -34497,7 +34497,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -34809,7 +34809,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -34967,7 +34967,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -35125,7 +35125,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -35427,7 +35427,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -35581,7 +35581,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -35739,7 +35739,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -35897,7 +35897,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -36055,7 +36055,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -36213,7 +36213,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -36371,7 +36371,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -36529,7 +36529,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -36687,7 +36687,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -36845,7 +36845,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -37003,7 +37003,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -37147,7 +37147,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -37775,7 +37775,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -38091,7 +38091,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -38407,7 +38407,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -38551,7 +38551,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -38705,7 +38705,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -38863,7 +38863,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -39165,7 +39165,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -39319,7 +39319,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -39477,7 +39477,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -39635,7 +39635,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Croatia', 'Italy', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -39779,7 +39779,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -39933,7 +39933,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -40091,7 +40091,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -40249,7 +40249,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -40407,7 +40407,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -40565,7 +40565,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -40723,7 +40723,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -40881,7 +40881,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -41025,7 +41025,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Denmark', 'England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -41165,7 +41165,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -41319,7 +41319,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
+          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -41477,7 +41477,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -41621,7 +41621,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2859,7 +2859,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3631,7 +3631,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Ireland']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Ireland']</t>
+          <t>['Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4561,7 +4561,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5649,7 +5649,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -8141,7 +8141,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -9229,7 +9229,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -12335,7 +12335,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -12805,7 +12805,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -13121,7 +13121,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -13279,7 +13279,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13739,7 +13739,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -14209,7 +14209,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -14985,7 +14985,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -17003,7 +17003,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -17315,7 +17315,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -17473,7 +17473,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -17631,7 +17631,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -17789,7 +17789,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -17947,7 +17947,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -18105,7 +18105,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -18421,7 +18421,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -18723,7 +18723,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -18877,7 +18877,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -19035,7 +19035,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -19193,7 +19193,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -19351,7 +19351,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -19509,7 +19509,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -19667,7 +19667,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19825,7 +19825,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -21057,7 +21057,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -21211,7 +21211,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -21369,7 +21369,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -21527,7 +21527,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -21685,7 +21685,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -21843,7 +21843,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -22001,7 +22001,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -22303,7 +22303,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -22457,7 +22457,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -22615,7 +22615,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -22913,7 +22913,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -23229,7 +23229,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -23387,7 +23387,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -23531,7 +23531,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -23685,7 +23685,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -23843,7 +23843,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -24001,7 +24001,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -24159,7 +24159,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -24317,7 +24317,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -24461,7 +24461,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -24615,7 +24615,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>['Russia', 'Greece']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Greece']</t>
+          <t>['Greece', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -26005,7 +26005,7 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -26159,7 +26159,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -26317,7 +26317,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -26475,7 +26475,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -26619,7 +26619,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -26773,7 +26773,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -26931,7 +26931,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -27089,7 +27089,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -27233,7 +27233,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['France', 'Romania', 'Switzerland']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['France', 'Albania', 'Switzerland']</t>
+          <t>['Albania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -28145,7 +28145,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -28457,7 +28457,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -28601,7 +28601,7 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -28755,7 +28755,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -28913,7 +28913,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -29071,7 +29071,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -29229,7 +29229,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -29387,7 +29387,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -29531,7 +29531,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -29685,7 +29685,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -29843,7 +29843,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -30001,7 +30001,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -30159,7 +30159,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -30317,7 +30317,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -30475,7 +30475,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -30633,7 +30633,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -30791,7 +30791,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -30949,7 +30949,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -31247,7 +31247,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['Ireland', 'Belgium', 'Italy']</t>
+          <t>['Belgium', 'Italy', 'Ireland']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -31549,7 +31549,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -31703,7 +31703,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -31861,7 +31861,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -32019,7 +32019,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -32177,7 +32177,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -32335,7 +32335,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -32479,7 +32479,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -32633,7 +32633,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -32791,7 +32791,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -32949,7 +32949,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -33107,7 +33107,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -33405,7 +33405,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -33563,7 +33563,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -33721,7 +33721,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -33879,7 +33879,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Russia']</t>
+          <t>['Belgium', 'Russia', 'Denmark']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -34037,7 +34037,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -34353,7 +34353,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -34497,7 +34497,7 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -34809,7 +34809,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -34967,7 +34967,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -35125,7 +35125,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -35283,7 +35283,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -35427,7 +35427,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -35581,7 +35581,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -35739,7 +35739,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -35897,7 +35897,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -36055,7 +36055,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -36213,7 +36213,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -36371,7 +36371,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -36529,7 +36529,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -36687,7 +36687,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -36845,7 +36845,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -37003,7 +37003,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -37301,7 +37301,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -37459,7 +37459,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -37617,7 +37617,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -37933,7 +37933,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -38249,7 +38249,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -39021,7 +39021,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Germany', 'Hungary', 'Switzerland']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -39165,7 +39165,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Albania']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -39319,7 +39319,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -39477,7 +39477,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -39635,7 +39635,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -39779,7 +39779,7 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -39933,7 +39933,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -40091,7 +40091,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -40249,7 +40249,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -40407,7 +40407,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -40565,7 +40565,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -40723,7 +40723,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -40881,7 +40881,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -41025,7 +41025,7 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -41165,7 +41165,7 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -41319,7 +41319,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Ukraine', 'Slovakia']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -41477,7 +41477,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -41621,7 +41621,7 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/goals_eu_uefa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="283">
   <si>
     <t>year</t>
   </si>
@@ -448,19 +448,19 @@
     <t>['Soviet Union', 'Ireland']</t>
   </si>
   <si>
-    <t>['Ireland', 'Soviet Union']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Soviet Union']</t>
+    <t>['Soviet Union', 'Netherlands']</t>
   </si>
   <si>
     <t>['Sweden', 'France']</t>
   </si>
   <si>
-    <t>['Sweden', 'England']</t>
+    <t>['England', 'Sweden']</t>
   </si>
   <si>
     <t>['Sweden', 'Denmark']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'Germany']</t>
   </si>
   <si>
     <t>['Germany', 'Netherlands']</t>
@@ -469,25 +469,25 @@
     <t>['Bulgaria', 'France']</t>
   </si>
   <si>
-    <t>['Bulgaria', 'Spain']</t>
+    <t>['Spain', 'Bulgaria']</t>
   </si>
   <si>
     <t>['Spain', 'France']</t>
   </si>
   <si>
-    <t>['Netherlands', 'England']</t>
+    <t>['England', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Scotland', 'England']</t>
+    <t>['England', 'Scotland']</t>
   </si>
   <si>
-    <t>['Croatia', 'Portugal']</t>
+    <t>['Portugal', 'Croatia']</t>
   </si>
   <si>
     <t>['Germany', 'Czech Republic']</t>
   </si>
   <si>
-    <t>['Germany', 'Italy']</t>
+    <t>['Italy', 'Germany']</t>
   </si>
   <si>
     <t>['Belgium', 'Italy']</t>
@@ -496,19 +496,16 @@
     <t>['Italy', 'Turkey']</t>
   </si>
   <si>
-    <t>['Portugal', 'England']</t>
+    <t>['England', 'Portugal']</t>
   </si>
   <si>
     <t>['Portugal', 'Romania']</t>
   </si>
   <si>
-    <t>['Yugoslavia', 'Norway']</t>
+    <t>['Norway', 'Yugoslavia']</t>
   </si>
   <si>
-    <t>['Yugoslavia', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'France']</t>
+    <t>['Spain', 'Yugoslavia']</t>
   </si>
   <si>
     <t>['France', 'Netherlands']</t>
@@ -517,13 +514,13 @@
     <t>['Greece', 'Spain']</t>
   </si>
   <si>
-    <t>['Portugal', 'Greece']</t>
+    <t>['Greece', 'Portugal']</t>
   </si>
   <si>
-    <t>['France', 'England']</t>
+    <t>['England', 'France']</t>
   </si>
   <si>
-    <t>['Croatia', 'France']</t>
+    <t>['France', 'Croatia']</t>
   </si>
   <si>
     <t>['Netherlands', 'Czech Republic']</t>
@@ -532,22 +529,22 @@
     <t>['Portugal', 'Czech Republic']</t>
   </si>
   <si>
-    <t>['Portugal', 'Turkey']</t>
+    <t>['Turkey', 'Portugal']</t>
   </si>
   <si>
-    <t>['Croatia', 'Germany']</t>
+    <t>['Germany', 'Croatia']</t>
   </si>
   <si>
-    <t>['Netherlands', 'Romania']</t>
+    <t>['Romania', 'Netherlands']</t>
   </si>
   <si>
     <t>['Italy', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Sweden', 'Spain']</t>
+    <t>['Spain', 'Sweden']</t>
   </si>
   <si>
-    <t>['Spain', 'Russia']</t>
+    <t>['Russia', 'Spain']</t>
   </si>
   <si>
     <t>['Russia', 'Czech Republic']</t>
@@ -562,13 +559,13 @@
     <t>['Portugal', 'Germany']</t>
   </si>
   <si>
-    <t>['Germany', 'Denmark']</t>
+    <t>['Denmark', 'Germany']</t>
   </si>
   <si>
-    <t>['Croatia', 'Spain']</t>
+    <t>['Spain', 'Croatia']</t>
   </si>
   <si>
-    <t>['Spain', 'Italy']</t>
+    <t>['Italy', 'Spain']</t>
   </si>
   <si>
     <t>['Switzerland', 'France', 'Romania']</t>
@@ -577,100 +574,85 @@
     <t>['Albania', 'Switzerland', 'France']</t>
   </si>
   <si>
-    <t>['Wales', 'Slovakia', 'England']</t>
-  </si>
-  <si>
     <t>['England', 'Slovakia', 'Wales']</t>
   </si>
   <si>
-    <t>['Poland', 'Germany', 'Northern Ireland']</t>
+    <t>['Poland', 'Northern Ireland', 'Germany']</t>
   </si>
   <si>
-    <t>['Croatia', 'Spain', 'Czech Republic']</t>
+    <t>['Spain', 'Croatia', 'Czech Republic']</t>
   </si>
   <si>
-    <t>['Croatia', 'Spain', 'Turkey']</t>
+    <t>['Turkey', 'Spain', 'Croatia']</t>
   </si>
   <si>
-    <t>['Portugal', 'Iceland', 'Hungary']</t>
+    <t>['Iceland', 'Portugal', 'Hungary']</t>
   </si>
   <si>
-    <t>['Sweden', 'Belgium', 'Italy']</t>
+    <t>['Belgium', 'Italy', 'Sweden']</t>
   </si>
   <si>
     <t>['Belgium', 'Italy', 'Ireland']</t>
   </si>
   <si>
-    <t>['Switzerland', 'Italy', 'Wales']</t>
+    <t>['Italy', 'Switzerland', 'Wales']</t>
   </si>
   <si>
-    <t>['Ukraine', 'Austria', 'Netherlands']</t>
+    <t>['Austria', 'Ukraine', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Finland', 'Belgium', 'Russia']</t>
+    <t>['Belgium', 'Russia', 'Finland']</t>
   </si>
   <si>
-    <t>['Finland', 'Belgium', 'Denmark']</t>
+    <t>['Belgium', 'Denmark', 'Finland']</t>
   </si>
   <si>
     <t>['Belgium', 'Russia', 'Denmark']</t>
   </si>
   <si>
-    <t>['Croatia', 'England', 'Czech Republic']</t>
+    <t>['England', 'Croatia', 'Czech Republic']</t>
   </si>
   <si>
-    <t>['Croatia', 'Czech Republic', 'England']</t>
+    <t>['Slovakia', 'Spain', 'Sweden']</t>
   </si>
   <si>
-    <t>['Sweden', 'Spain', 'Slovakia']</t>
+    <t>['Portugal', 'France', 'Germany']</t>
   </si>
   <si>
-    <t>['Portugal', 'Germany', 'France']</t>
+    <t>['Portugal', 'France', 'Hungary']</t>
   </si>
   <si>
-    <t>['Portugal', 'Hungary', 'France']</t>
+    <t>['Germany', 'France', 'Hungary']</t>
   </si>
   <si>
-    <t>['Germany', 'Hungary', 'France']</t>
+    <t>['Scotland', 'Switzerland', 'Germany']</t>
   </si>
   <si>
-    <t>['Germany', 'Scotland', 'Switzerland']</t>
+    <t>['Hungary', 'Switzerland', 'Germany']</t>
   </si>
   <si>
-    <t>['Germany', 'Switzerland', 'Scotland']</t>
+    <t>['Albania', 'Italy', 'Spain']</t>
   </si>
   <si>
-    <t>['Hungary', 'Germany', 'Switzerland']</t>
+    <t>['Italy', 'Spain', 'Croatia']</t>
   </si>
   <si>
-    <t>['Albania', 'Spain', 'Italy']</t>
+    <t>['Austria', 'France', 'Netherlands']</t>
   </si>
   <si>
-    <t>['Croatia', 'Spain', 'Italy']</t>
-  </si>
-  <si>
-    <t>['France', 'Austria', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Austria', 'France']</t>
-  </si>
-  <si>
-    <t>['Austria', 'Netherlands', 'France']</t>
-  </si>
-  <si>
-    <t>['Slovenia', 'Denmark', 'England']</t>
+    <t>['England', 'Slovenia', 'Denmark']</t>
   </si>
   <si>
     <t>['Belgium', 'Slovakia', 'Romania']</t>
   </si>
   <si>
-    <t>['Ukraine', 'Belgium', 'Slovakia']</t>
+    <t>['Belgium', 'Slovakia', 'Ukraine']</t>
   </si>
   <si>
-    <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+    <t>['Turkey', 'Portugal', 'Czech Republic']</t>
   </si>
   <si>
-    <t>['Portugal', 'Turkey', 'Georgia']</t>
+    <t>['Georgia', 'Turkey', 'Portugal']</t>
   </si>
   <si>
     <t>Norway</t>
@@ -697,16 +679,10 @@
     <t>['West Germany', 'Italy']</t>
   </si>
   <si>
-    <t>['Soviet Union', 'Netherlands']</t>
+    <t>['Ireland', 'Soviet Union']</t>
   </si>
   <si>
-    <t>['England', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Germany']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Bulgaria']</t>
+    <t>['Sweden', 'England']</t>
   </si>
   <si>
     <t>['France', 'Spain']</t>
@@ -715,28 +691,31 @@
     <t>['France', 'Bulgaria']</t>
   </si>
   <si>
-    <t>['England', 'Netherlands']</t>
+    <t>['Croatia', 'Portugal']</t>
   </si>
   <si>
-    <t>['England', 'Scotland']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Croatia']</t>
+    <t>['Germany', 'Italy']</t>
   </si>
   <si>
     <t>['Italy', 'Belgium']</t>
   </si>
   <si>
-    <t>['Spain', 'Yugoslavia']</t>
+    <t>['Portugal', 'England']</t>
+  </si>
+  <si>
+    <t>['Yugoslavia', 'Norway']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'France']</t>
   </si>
   <si>
     <t>['Spain', 'Greece']</t>
   </si>
   <si>
-    <t>['France', 'Croatia']</t>
+    <t>['Portugal', 'Greece']</t>
   </si>
   <si>
-    <t>['England', 'France']</t>
+    <t>['France', 'England']</t>
   </si>
   <si>
     <t>['Denmark', 'Sweden']</t>
@@ -748,10 +727,19 @@
     <t>['Czech Republic', 'Netherlands']</t>
   </si>
   <si>
+    <t>['Portugal', 'Turkey']</t>
+  </si>
+  <si>
+    <t>['Croatia', 'Germany']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'Romania']</t>
+  </si>
+  <si>
     <t>['Netherlands', 'Italy']</t>
   </si>
   <si>
-    <t>['Spain', 'Sweden']</t>
+    <t>['Spain', 'Russia']</t>
   </si>
   <si>
     <t>['Russia', 'Greece']</t>
@@ -763,10 +751,10 @@
     <t>['Germany', 'Portugal']</t>
   </si>
   <si>
-    <t>['Spain', 'Croatia']</t>
+    <t>['Germany', 'Denmark']</t>
   </si>
   <si>
-    <t>['Italy', 'Spain']</t>
+    <t>['Spain', 'Italy']</t>
   </si>
   <si>
     <t>['France', 'Switzerland', 'Romania']</t>
@@ -785,6 +773,9 @@
   </si>
   <si>
     <t>['Spain', 'Croatia', 'Turkey']</t>
+  </si>
+  <si>
+    <t>['Croatia', 'Spain', 'Turkey']</t>
   </si>
   <si>
     <t>['Hungary', 'Iceland', 'Portugal']</t>
@@ -811,16 +802,10 @@
     <t>['Netherlands', 'Austria', 'Ukraine']</t>
   </si>
   <si>
-    <t>['Belgium', 'Russia', 'Finland']</t>
-  </si>
-  <si>
     <t>['Belgium', 'Finland', 'Denmark']</t>
   </si>
   <si>
     <t>['Belgium', 'Denmark', 'Russia']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'Denmark', 'Finland']</t>
   </si>
   <si>
     <t>['Czech Republic', 'England']</t>
@@ -832,10 +817,10 @@
     <t>['England', 'Czech Republic', 'Croatia']</t>
   </si>
   <si>
-    <t>['England', 'Croatia', 'Czech Republic']</t>
+    <t>['Sweden', 'Slovakia', 'Spain']</t>
   </si>
   <si>
-    <t>['Sweden', 'Slovakia', 'Spain']</t>
+    <t>['Sweden', 'Spain']</t>
   </si>
   <si>
     <t>['France', 'Germany', 'Portugal']</t>
@@ -844,10 +829,10 @@
     <t>['France', 'Portugal', 'Hungary']</t>
   </si>
   <si>
-    <t>['Portugal', 'France', 'Hungary']</t>
+    <t>['France', 'Hungary']</t>
   </si>
   <si>
-    <t>['France', 'Hungary']</t>
+    <t>['Germany', 'Switzerland', 'Scotland']</t>
   </si>
   <si>
     <t>['Switzerland', 'Germany', 'Scotland']</t>
@@ -862,10 +847,10 @@
     <t>['Netherlands', 'France', 'Austria']</t>
   </si>
   <si>
-    <t>['Austria', 'France', 'Netherlands']</t>
+    <t>['France', 'Netherlands', 'Austria']</t>
   </si>
   <si>
-    <t>['France', 'Netherlands', 'Austria']</t>
+    <t>['France', 'Austria', 'Netherlands']</t>
   </si>
   <si>
     <t>['England', 'Denmark', 'Slovenia']</t>
@@ -875,6 +860,9 @@
   </si>
   <si>
     <t>['Slovakia', 'Belgium', 'Ukraine']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Turkey', 'Georgia']</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AK3">
         <v>1</v>
@@ -1729,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1863,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -1997,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2131,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -2923,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -3051,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AK14">
         <v>1</v>
@@ -3185,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AK15">
         <v>1</v>
@@ -3307,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -3435,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -3569,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -3703,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -3837,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -3959,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -4009,7 +3997,7 @@
         <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K22" t="s">
         <v>132</v>
@@ -4143,7 +4131,7 @@
         <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K23" t="s">
         <v>132</v>
@@ -4277,7 +4265,7 @@
         <v>132</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K24" t="s">
         <v>132</v>
@@ -4411,7 +4399,7 @@
         <v>132</v>
       </c>
       <c r="J25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K25" t="s">
         <v>132</v>
@@ -4545,7 +4533,7 @@
         <v>108</v>
       </c>
       <c r="J26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K26" t="s">
         <v>132</v>
@@ -4623,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="AK26">
         <v>1</v>
@@ -4667,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K27" t="s">
         <v>107</v>
@@ -4745,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AK27">
         <v>0</v>
@@ -4795,7 +4783,7 @@
         <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K28" t="s">
         <v>105</v>
@@ -4873,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="AK28">
         <v>1</v>
@@ -4929,7 +4917,7 @@
         <v>100</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K29" t="s">
         <v>105</v>
@@ -5007,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="AK29">
         <v>0</v>
@@ -5063,7 +5051,7 @@
         <v>107</v>
       </c>
       <c r="J30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K30" t="s">
         <v>107</v>
@@ -5141,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="AK30">
         <v>0</v>
@@ -5197,7 +5185,7 @@
         <v>101</v>
       </c>
       <c r="J31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K31" t="s">
         <v>107</v>
@@ -5275,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AK31">
         <v>1</v>
@@ -5331,7 +5319,7 @@
         <v>100</v>
       </c>
       <c r="J32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K32" t="s">
         <v>107</v>
@@ -5409,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK32">
         <v>1</v>
@@ -5465,7 +5453,7 @@
         <v>107</v>
       </c>
       <c r="J33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K33" t="s">
         <v>107</v>
@@ -5543,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -5587,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K34" t="s">
         <v>117</v>
@@ -5793,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AK35">
         <v>0</v>
@@ -5927,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AK36">
         <v>0</v>
@@ -6061,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AK37">
         <v>0</v>
@@ -6195,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AK38">
         <v>0</v>
@@ -6329,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AK39">
         <v>0</v>
@@ -6463,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AK40">
         <v>0</v>
@@ -6597,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AK41">
         <v>0</v>
@@ -6847,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="AK43">
         <v>1</v>
@@ -6981,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AK44">
         <v>1</v>
@@ -7115,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AK45">
         <v>1</v>
@@ -7249,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AK46">
         <v>0</v>
@@ -7383,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AK47">
         <v>0</v>
@@ -7517,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AK48">
         <v>1</v>
@@ -7651,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AK49">
         <v>0</v>
@@ -7773,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="AK50">
         <v>0</v>
@@ -7901,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="AK51">
         <v>0</v>
@@ -8035,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="AK52">
         <v>0</v>
@@ -8169,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="AK53">
         <v>0</v>
@@ -8303,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="AK54">
         <v>0</v>
@@ -8437,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="AK55">
         <v>1</v>
@@ -8571,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="AK56">
         <v>1</v>
@@ -8693,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="AK57">
         <v>0</v>
@@ -8821,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="AK58">
         <v>0</v>
@@ -8955,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="AK59">
         <v>0</v>
@@ -9089,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="AK60">
         <v>0</v>
@@ -9223,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="AJ61" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="AK61">
         <v>0</v>
@@ -9357,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="AJ62" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="AK62">
         <v>0</v>
@@ -9491,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="AK63">
         <v>0</v>
@@ -10277,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="AJ69" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="AK69">
         <v>1</v>
@@ -10533,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="AJ71" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="AK71">
         <v>0</v>
@@ -10661,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="AJ72" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="AK72">
         <v>0</v>
@@ -11319,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="AJ77" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="AK77">
         <v>0</v>
@@ -11715,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="AJ80" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="AK80">
         <v>1</v>
@@ -11849,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="AJ81" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="AK81">
         <v>0</v>
@@ -11983,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="AJ82" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="AK82">
         <v>0</v>
@@ -12117,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="AJ83" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="AK83">
         <v>0</v>
@@ -12251,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="AJ84" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="AK84">
         <v>0</v>
@@ -12450,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="R86">
         <v>4</v>
@@ -12486,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="AC86" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AD86">
         <v>2</v>
@@ -12507,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="AJ86" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="AK86">
         <v>0</v>
@@ -12578,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="Q87" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="R87">
         <v>4</v>
@@ -12614,7 +12602,7 @@
         <v>-1</v>
       </c>
       <c r="AC87" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AD87">
         <v>2</v>
@@ -12635,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="AJ87" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="AK87">
         <v>0</v>
@@ -12712,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="R88">
         <v>4</v>
@@ -12748,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="AC88" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AD88">
         <v>2</v>
@@ -12769,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="AJ88" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="AK88">
         <v>0</v>
@@ -12846,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="R89">
         <v>4</v>
@@ -12882,7 +12870,7 @@
         <v>-1</v>
       </c>
       <c r="AC89" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AD89">
         <v>2</v>
@@ -12903,7 +12891,7 @@
         <v>0</v>
       </c>
       <c r="AJ89" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="AK89">
         <v>0</v>
@@ -12980,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="R90">
         <v>4</v>
@@ -13016,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="AC90" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AD90">
         <v>2</v>
@@ -13037,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="AJ90" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="AK90">
         <v>0</v>
@@ -13114,7 +13102,7 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="R91">
         <v>4</v>
@@ -13150,7 +13138,7 @@
         <v>-1</v>
       </c>
       <c r="AC91" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AD91">
         <v>2</v>
@@ -13171,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="AJ91" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="AK91">
         <v>0</v>
@@ -13248,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="R92">
         <v>4</v>
@@ -13284,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="AC92" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AD92">
         <v>2</v>
@@ -13305,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="AJ92" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="AK92">
         <v>0</v>
@@ -13400,7 +13388,7 @@
         <v>-1</v>
       </c>
       <c r="W93" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="X93">
         <v>4</v>
@@ -13418,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="AC93" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AD93">
         <v>2</v>
@@ -13439,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="AJ93" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="AK93">
         <v>1</v>
@@ -13561,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="AJ94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AK94">
         <v>0</v>
@@ -13689,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="AJ95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AK95">
         <v>0</v>
@@ -13823,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="AJ96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AK96">
         <v>0</v>
@@ -13957,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="AJ97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AK97">
         <v>0</v>
@@ -14091,7 +14079,7 @@
         <v>0</v>
       </c>
       <c r="AJ98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AK98">
         <v>0</v>
@@ -14147,7 +14135,7 @@
         <v>108</v>
       </c>
       <c r="J99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K99" t="s">
         <v>108</v>
@@ -14225,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="AJ99" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="AK99">
         <v>0</v>
@@ -14281,7 +14269,7 @@
         <v>121</v>
       </c>
       <c r="J100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K100" t="s">
         <v>108</v>
@@ -14359,7 +14347,7 @@
         <v>0</v>
       </c>
       <c r="AJ100" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="AK100">
         <v>0</v>
@@ -14415,7 +14403,7 @@
         <v>121</v>
       </c>
       <c r="J101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K101" t="s">
         <v>108</v>
@@ -14493,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="AJ101" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="AK101">
         <v>0</v>
@@ -14537,7 +14525,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K102" t="s">
         <v>120</v>
@@ -14615,7 +14603,7 @@
         <v>0</v>
       </c>
       <c r="AJ102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK102">
         <v>0</v>
@@ -14665,7 +14653,7 @@
         <v>113</v>
       </c>
       <c r="J103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K103" t="s">
         <v>115</v>
@@ -14743,7 +14731,7 @@
         <v>0</v>
       </c>
       <c r="AJ103" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AK103">
         <v>0</v>
@@ -14799,7 +14787,7 @@
         <v>113</v>
       </c>
       <c r="J104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K104" t="s">
         <v>115</v>
@@ -14877,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="AJ104" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AK104">
         <v>0</v>
@@ -14933,7 +14921,7 @@
         <v>120</v>
       </c>
       <c r="J105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K105" t="s">
         <v>115</v>
@@ -15011,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="AJ105" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AK105">
         <v>0</v>
@@ -15067,7 +15055,7 @@
         <v>102</v>
       </c>
       <c r="J106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K106" t="s">
         <v>102</v>
@@ -15145,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="AJ106" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="AK106">
         <v>1</v>
@@ -15189,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K107" t="s">
         <v>101</v>
@@ -15267,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="AJ107" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="AK107">
         <v>0</v>
@@ -15317,7 +15305,7 @@
         <v>111</v>
       </c>
       <c r="J108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K108" t="s">
         <v>101</v>
@@ -15395,7 +15383,7 @@
         <v>0</v>
       </c>
       <c r="AJ108" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AK108">
         <v>1</v>
@@ -15451,7 +15439,7 @@
         <v>101</v>
       </c>
       <c r="J109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K109" t="s">
         <v>101</v>
@@ -15529,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="AJ109" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AK109">
         <v>0</v>
@@ -15585,7 +15573,7 @@
         <v>116</v>
       </c>
       <c r="J110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K110" t="s">
         <v>101</v>
@@ -15663,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="AJ110" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AK110">
         <v>0</v>
@@ -15719,7 +15707,7 @@
         <v>105</v>
       </c>
       <c r="J111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K111" t="s">
         <v>101</v>
@@ -15797,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="AJ111" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="AK111">
         <v>1</v>
@@ -15853,7 +15841,7 @@
         <v>105</v>
       </c>
       <c r="J112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K112" t="s">
         <v>105</v>
@@ -15931,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="AJ112" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AK112">
         <v>0</v>
@@ -15987,7 +15975,7 @@
         <v>105</v>
       </c>
       <c r="J113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K113" t="s">
         <v>105</v>
@@ -16065,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="AJ113" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AK113">
         <v>0</v>
@@ -16121,7 +16109,7 @@
         <v>111</v>
       </c>
       <c r="J114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K114" t="s">
         <v>105</v>
@@ -16199,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="AJ114" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AK114">
         <v>0</v>
@@ -16255,7 +16243,7 @@
         <v>101</v>
       </c>
       <c r="J115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K115" t="s">
         <v>101</v>
@@ -16333,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="AJ115" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="AK115">
         <v>0</v>
@@ -16389,7 +16377,7 @@
         <v>105</v>
       </c>
       <c r="J116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K116" t="s">
         <v>101</v>
@@ -16467,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="AJ116" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="AK116">
         <v>0</v>
@@ -16523,7 +16511,7 @@
         <v>101</v>
       </c>
       <c r="J117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K117" t="s">
         <v>101</v>
@@ -16601,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="AJ117" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="AK117">
         <v>0</v>
@@ -16645,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K118" t="s">
         <v>107</v>
@@ -16723,7 +16711,7 @@
         <v>0</v>
       </c>
       <c r="AJ118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK118">
         <v>0</v>
@@ -16773,7 +16761,7 @@
         <v>100</v>
       </c>
       <c r="J119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K119" t="s">
         <v>100</v>
@@ -16851,7 +16839,7 @@
         <v>0</v>
       </c>
       <c r="AJ119" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AK119">
         <v>0</v>
@@ -16907,7 +16895,7 @@
         <v>134</v>
       </c>
       <c r="J120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K120" t="s">
         <v>100</v>
@@ -16985,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="AJ120" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AK120">
         <v>0</v>
@@ -17041,7 +17029,7 @@
         <v>107</v>
       </c>
       <c r="J121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K121" t="s">
         <v>107</v>
@@ -17119,7 +17107,7 @@
         <v>0</v>
       </c>
       <c r="AJ121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK121">
         <v>0</v>
@@ -17175,7 +17163,7 @@
         <v>104</v>
       </c>
       <c r="J122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K122" t="s">
         <v>107</v>
@@ -17253,7 +17241,7 @@
         <v>0</v>
       </c>
       <c r="AJ122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK122">
         <v>0</v>
@@ -17309,7 +17297,7 @@
         <v>100</v>
       </c>
       <c r="J123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K123" t="s">
         <v>100</v>
@@ -17387,7 +17375,7 @@
         <v>0</v>
       </c>
       <c r="AJ123" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AK123">
         <v>0</v>
@@ -17443,7 +17431,7 @@
         <v>107</v>
       </c>
       <c r="J124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K124" t="s">
         <v>107</v>
@@ -17521,7 +17509,7 @@
         <v>0</v>
       </c>
       <c r="AJ124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK124">
         <v>0</v>
@@ -17577,7 +17565,7 @@
         <v>104</v>
       </c>
       <c r="J125" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K125" t="s">
         <v>107</v>
@@ -17655,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="AJ125" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK125">
         <v>0</v>
@@ -17777,7 +17765,7